--- a/ru/downloads/data-excel/3.c.1.xlsx
+++ b/ru/downloads/data-excel/3.c.1.xlsx
@@ -546,9 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -557,7 +559,7 @@
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25">
+    <row r="1" spans="1:17" ht="38.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -568,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
+    <row r="2" spans="1:17" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -579,10 +581,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -631,8 +633,11 @@
       <c r="P4" s="8">
         <v>2019</v>
       </c>
+      <c r="Q4" s="8">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -681,8 +686,11 @@
       <c r="P5" s="11">
         <v>2</v>
       </c>
+      <c r="Q5" s="11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -731,8 +739,11 @@
       <c r="P6" s="11">
         <v>0.3</v>
       </c>
+      <c r="Q6" s="11">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -781,8 +792,11 @@
       <c r="P7" s="11">
         <v>0.1</v>
       </c>
+      <c r="Q7" s="11">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -829,6 +843,9 @@
         <v>4.5</v>
       </c>
       <c r="P8" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="Q8" s="13">
         <v>4.3</v>
       </c>
     </row>

--- a/ru/downloads/data-excel/3.c.1.xlsx
+++ b/ru/downloads/data-excel/3.c.1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="59">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>3.c.1 Калктын киши башына медицина кызматкерлеринин саны жана аларды бөлүштүрүү</t>
-  </si>
-  <si>
-    <t>(1000 калкка)</t>
-  </si>
-  <si>
-    <t>(per 1000 population)</t>
   </si>
   <si>
     <t>Врачтардын саны</t>
@@ -189,6 +183,15 @@
   </si>
   <si>
     <t>Osh city</t>
+  </si>
+  <si>
+    <t>(на 10 000 населения)</t>
+  </si>
+  <si>
+    <t>(per 10 000 population)</t>
+  </si>
+  <si>
+    <t>(10 000 калкка)</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
@@ -1070,13 +1075,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12.75" thickBot="1"/>
@@ -1123,13 +1128,13 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1145,671 +1150,671 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="19">
-        <v>2.2000000000000002</v>
+        <v>22.42579806558323</v>
       </c>
       <c r="E6" s="19">
-        <v>2.2163631542999425</v>
+        <v>22.163631542999426</v>
       </c>
       <c r="F6" s="19">
-        <v>2.1846564437035121</v>
+        <v>21.84656443703512</v>
       </c>
       <c r="G6" s="19">
-        <v>2.1706652909944828</v>
+        <v>21.706652909944829</v>
       </c>
       <c r="H6" s="19">
-        <v>2.1</v>
+        <v>21.256773889740259</v>
       </c>
       <c r="I6" s="19">
-        <v>2.1</v>
+        <v>20.835686803511265</v>
       </c>
       <c r="J6" s="19">
-        <v>2.1</v>
+        <v>20.895084850656328</v>
       </c>
       <c r="K6" s="19">
-        <v>2</v>
+        <v>20.419612161624361</v>
       </c>
       <c r="L6" s="19">
-        <v>2</v>
+        <v>20.251975897957585</v>
       </c>
       <c r="M6" s="19">
-        <v>1.9987647790022856</v>
+        <v>19.987647790022855</v>
       </c>
       <c r="N6" s="19">
-        <v>2</v>
+        <v>19.605825274608872</v>
       </c>
       <c r="O6" s="19">
-        <v>1.8940845132210211</v>
+        <v>18.94084513221021</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="21">
-        <v>2.9</v>
+        <v>29.434751825206963</v>
       </c>
       <c r="E7" s="21">
-        <v>2.9478874422272421</v>
+        <v>29.478874422272419</v>
       </c>
       <c r="F7" s="21">
-        <v>2.8998004772486459</v>
+        <v>28.998004772486457</v>
       </c>
       <c r="G7" s="21">
-        <v>2.852715302095016</v>
+        <v>28.527153020950163</v>
       </c>
       <c r="H7" s="21">
-        <v>2.8</v>
+        <v>28.357091841720081</v>
       </c>
       <c r="I7" s="21">
-        <v>2.8</v>
+        <v>27.677347292457739</v>
       </c>
       <c r="J7" s="21">
-        <v>2.8</v>
+        <v>27.662548544237801</v>
       </c>
       <c r="K7" s="21">
-        <v>2.7</v>
+        <v>27.151303379839632</v>
       </c>
       <c r="L7" s="21">
-        <v>2.7</v>
+        <v>26.963855017569056</v>
       </c>
       <c r="M7" s="21">
-        <v>2.6595267144117498</v>
+        <v>26.5952671441175</v>
       </c>
       <c r="N7" s="21">
-        <v>2.6</v>
+        <v>26.290368564760676</v>
       </c>
       <c r="O7" s="21">
-        <v>2.5639893956646982</v>
+        <v>25.639893956646979</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="21">
-        <v>1.5</v>
+        <v>15.234746020990587</v>
       </c>
       <c r="E8" s="21">
-        <v>1.4665869119610175</v>
+        <v>14.665869119610175</v>
       </c>
       <c r="F8" s="21">
-        <v>1.4527665090513855</v>
+        <v>14.527665090513855</v>
       </c>
       <c r="G8" s="21">
-        <v>1.4734583211537016</v>
+        <v>14.734583211537014</v>
       </c>
       <c r="H8" s="21">
-        <v>1.4</v>
+        <v>14.007681255658694</v>
       </c>
       <c r="I8" s="21">
-        <v>1.4</v>
+        <v>13.861613328082113</v>
       </c>
       <c r="J8" s="21">
-        <v>1.4</v>
+        <v>14.004884125278142</v>
       </c>
       <c r="K8" s="21">
-        <v>1.4</v>
+        <v>13.572689813744654</v>
       </c>
       <c r="L8" s="21">
-        <v>1.3</v>
+        <v>13.433727679599599</v>
       </c>
       <c r="M8" s="21">
-        <v>1.3281418430778791</v>
+        <v>13.281418430778791</v>
       </c>
       <c r="N8" s="21">
-        <v>1.3</v>
+        <v>12.822793486846619</v>
       </c>
       <c r="O8" s="21">
-        <v>1.2141978127119284</v>
+        <v>12.141978127119284</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="19">
-        <v>1.4</v>
+        <v>13.874373442816951</v>
       </c>
       <c r="E9" s="19">
-        <v>1.4058179922423799</v>
+        <v>14.0581799224238</v>
       </c>
       <c r="F9" s="19">
-        <v>1.4578657194534639</v>
+        <v>14.578657194534639</v>
       </c>
       <c r="G9" s="19">
-        <v>1.4882916796191337</v>
+        <v>14.882916796191337</v>
       </c>
       <c r="H9" s="19">
-        <v>1.5</v>
+        <v>14.874544142030052</v>
       </c>
       <c r="I9" s="19">
-        <v>1.5</v>
+        <v>14.57589820420062</v>
       </c>
       <c r="J9" s="19">
-        <v>1.5</v>
+        <v>15.173361614572784</v>
       </c>
       <c r="K9" s="19">
-        <v>1.5</v>
+        <v>15.07032819825854</v>
       </c>
       <c r="L9" s="19">
-        <v>1.5</v>
+        <v>15.005950964056176</v>
       </c>
       <c r="M9" s="19">
-        <v>1.4757194830329476</v>
+        <v>14.757194830329478</v>
       </c>
       <c r="N9" s="19">
-        <v>1.5</v>
+        <v>14.683162880964238</v>
       </c>
       <c r="O9" s="19">
-        <v>1.4499187329500298</v>
+        <v>14.499187329500298</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="21">
-        <v>1.3</v>
+        <v>13.262599469496021</v>
       </c>
       <c r="E10" s="21">
-        <v>1.366138758080349</v>
+        <v>13.66138758080349</v>
       </c>
       <c r="F10" s="21">
-        <v>1.403474595781607</v>
+        <v>14.034745957816071</v>
       </c>
       <c r="G10" s="21">
-        <v>1.493532355538624</v>
+        <v>14.93532355538624</v>
       </c>
       <c r="H10" s="21">
-        <v>1.6</v>
+        <v>15.700646646578868</v>
       </c>
       <c r="I10" s="21">
-        <v>1.5</v>
+        <v>15.454928634594246</v>
       </c>
       <c r="J10" s="21">
-        <v>1.6</v>
+        <v>16.378393461583567</v>
       </c>
       <c r="K10" s="21">
-        <v>1.6</v>
+        <v>16.258808506925856</v>
       </c>
       <c r="L10" s="21">
-        <v>1.6</v>
+        <v>16.499343908442228</v>
       </c>
       <c r="M10" s="21">
-        <v>1.6500711237553343</v>
+        <v>16.500711237553343</v>
       </c>
       <c r="N10" s="21">
-        <v>1.6</v>
+        <v>16.20685297113247</v>
       </c>
       <c r="O10" s="21">
-        <v>1.7398980135252449</v>
+        <v>17.398980135252447</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="21">
-        <v>1.4</v>
+        <v>14.467579672157502</v>
       </c>
       <c r="E11" s="21">
-        <v>1.4443254253955433</v>
+        <v>14.443254253955432</v>
       </c>
       <c r="F11" s="21">
-        <v>1.5105869832033025</v>
+        <v>15.105869832033026</v>
       </c>
       <c r="G11" s="21">
-        <v>1.4832195081074289</v>
+        <v>14.832195081074287</v>
       </c>
       <c r="H11" s="21">
-        <v>1.4</v>
+        <v>14.07580475549427</v>
       </c>
       <c r="I11" s="21">
-        <v>1.4</v>
+        <v>13.72705506783719</v>
       </c>
       <c r="J11" s="21">
-        <v>1.4</v>
+        <v>14.010466872465726</v>
       </c>
       <c r="K11" s="21">
-        <v>1.4</v>
+        <v>13.923900528266666</v>
       </c>
       <c r="L11" s="21">
-        <v>1.4</v>
+        <v>13.568115302815663</v>
       </c>
       <c r="M11" s="21">
-        <v>1.3078103309709943</v>
+        <v>13.078103309709944</v>
       </c>
       <c r="N11" s="21">
-        <v>1.3</v>
+        <v>13.215149073327961</v>
       </c>
       <c r="O11" s="21">
-        <v>1.1704827450456594</v>
+        <v>11.704827450456593</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="19">
-        <v>1.3</v>
+        <v>12.733397386180791</v>
       </c>
       <c r="E12" s="19">
-        <v>1.3203999901349426</v>
+        <v>13.203999901349427</v>
       </c>
       <c r="F12" s="19">
-        <v>1.317923198234596</v>
+        <v>13.179231982345959</v>
       </c>
       <c r="G12" s="19">
-        <v>1.3291569360430791</v>
+        <v>13.29156936043079</v>
       </c>
       <c r="H12" s="19">
-        <v>1.3</v>
+        <v>12.874221087350477</v>
       </c>
       <c r="I12" s="19">
-        <v>1.3</v>
+        <v>12.577190105711196</v>
       </c>
       <c r="J12" s="19">
-        <v>1.3</v>
+        <v>12.637638601183678</v>
       </c>
       <c r="K12" s="19">
-        <v>1.3</v>
+        <v>13.002077140618136</v>
       </c>
       <c r="L12" s="19">
-        <v>1.3</v>
+        <v>12.853735035197495</v>
       </c>
       <c r="M12" s="19">
-        <v>1.2593340060544904</v>
+        <v>12.593340060544904</v>
       </c>
       <c r="N12" s="19">
-        <v>1.2</v>
+        <v>12.398690482517686</v>
       </c>
       <c r="O12" s="19">
-        <v>1.1690360638657114</v>
+        <v>11.690360638657113</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="21">
-        <v>1.6</v>
+        <v>15.97258972269112</v>
       </c>
       <c r="E13" s="21">
-        <v>1.6321086501758459</v>
+        <v>16.321086501758458</v>
       </c>
       <c r="F13" s="21">
-        <v>1.6196201153095056</v>
+        <v>16.196201153095057</v>
       </c>
       <c r="G13" s="21">
-        <v>1.5999795669656214</v>
+        <v>15.999795669656214</v>
       </c>
       <c r="H13" s="21">
-        <v>1.6</v>
+        <v>15.807788733552925</v>
       </c>
       <c r="I13" s="21">
-        <v>1.6</v>
+        <v>15.541989655027404</v>
       </c>
       <c r="J13" s="21">
-        <v>1.6</v>
+        <v>15.634863164847186</v>
       </c>
       <c r="K13" s="21">
-        <v>1.6</v>
+        <v>15.56271639526258</v>
       </c>
       <c r="L13" s="21">
-        <v>1.6</v>
+        <v>16.274390870431322</v>
       </c>
       <c r="M13" s="21">
-        <v>1.7412290502793297</v>
+        <v>15.82797879635859</v>
       </c>
       <c r="N13" s="21">
-        <v>1.6</v>
+        <v>15.813206103578096</v>
       </c>
       <c r="O13" s="21">
-        <v>1.516039382461388</v>
+        <v>15.160393824613882</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="21">
-        <v>1</v>
+        <v>9.50119680389761</v>
       </c>
       <c r="E14" s="21">
-        <v>1.0096360574564369</v>
+        <v>10.096360574564368</v>
       </c>
       <c r="F14" s="21">
-        <v>1.0175504280569607</v>
+        <v>10.175504280569607</v>
       </c>
       <c r="G14" s="21">
-        <v>1.0597737818499222</v>
+        <v>10.597737818499223</v>
       </c>
       <c r="H14" s="21">
-        <v>1</v>
+        <v>9.9612912390354769</v>
       </c>
       <c r="I14" s="21">
-        <v>1</v>
+        <v>9.6386295431810591</v>
       </c>
       <c r="J14" s="21">
-        <v>1</v>
+        <v>9.6707517647419365</v>
       </c>
       <c r="K14" s="21">
-        <v>1</v>
+        <v>10.471291626306822</v>
       </c>
       <c r="L14" s="21">
-        <v>0.9</v>
+        <v>9.4757876441620805</v>
       </c>
       <c r="M14" s="21">
-        <v>1.1849395397743359</v>
+        <v>9.4003054297190811</v>
       </c>
       <c r="N14" s="21">
-        <v>0.9</v>
+        <v>9.0299074316295744</v>
       </c>
       <c r="O14" s="21">
-        <v>0.82697614777785011</v>
+        <v>8.2697614777785002</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="19">
-        <v>1.4</v>
+        <v>14.330063889138847</v>
       </c>
       <c r="E15" s="19">
-        <v>1.4754365484159706</v>
+        <v>14.754365484159704</v>
       </c>
       <c r="F15" s="19">
-        <v>1.4380745681365024</v>
+        <v>14.380745681365024</v>
       </c>
       <c r="G15" s="19">
-        <v>1.42631574355977</v>
+        <v>14.2631574355977</v>
       </c>
       <c r="H15" s="19">
-        <v>1.4</v>
+        <v>13.925595071287837</v>
       </c>
       <c r="I15" s="19">
-        <v>1.4</v>
+        <v>13.699679206269519</v>
       </c>
       <c r="J15" s="19">
-        <v>1.4</v>
+        <v>14.032217467908382</v>
       </c>
       <c r="K15" s="19">
-        <v>1.3</v>
+        <v>13.395916626465114</v>
       </c>
       <c r="L15" s="19">
-        <v>1.3</v>
+        <v>13.435014751972885</v>
       </c>
       <c r="M15" s="19">
-        <v>1.3708295534724322</v>
+        <v>13.708295534724321</v>
       </c>
       <c r="N15" s="19">
-        <v>1.3</v>
+        <v>13.149165326846411</v>
       </c>
       <c r="O15" s="19">
-        <v>1.2848363612643581</v>
+        <v>12.848363612643579</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="21">
-        <v>2.1</v>
+        <v>21.482372866247715</v>
       </c>
       <c r="E16" s="21">
-        <v>2.1958464855388455</v>
+        <v>21.958464855388456</v>
       </c>
       <c r="F16" s="21">
-        <v>2.1796027695835996</v>
+        <v>21.796027695835996</v>
       </c>
       <c r="G16" s="21">
-        <v>2.1567591445721561</v>
+        <v>21.567591445721561</v>
       </c>
       <c r="H16" s="21">
-        <v>2.1</v>
+        <v>20.601777492236856</v>
       </c>
       <c r="I16" s="21">
-        <v>2.1</v>
+        <v>20.595275350796324</v>
       </c>
       <c r="J16" s="21">
-        <v>2.1</v>
+        <v>20.990606390658971</v>
       </c>
       <c r="K16" s="21">
-        <v>2</v>
+        <v>20.325538441241466</v>
       </c>
       <c r="L16" s="21">
-        <v>2</v>
+        <v>19.721780571809646</v>
       </c>
       <c r="M16" s="21">
-        <v>2.0364553626657882</v>
+        <v>20.364553626657884</v>
       </c>
       <c r="N16" s="21">
-        <v>2</v>
+        <v>19.915972054161923</v>
       </c>
       <c r="O16" s="21">
-        <v>1.9169907575065737</v>
+        <v>19.169907575065736</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="21">
-        <v>0.7</v>
+        <v>7.0406540994776297</v>
       </c>
       <c r="E17" s="21">
-        <v>0.74283501859338563</v>
+        <v>7.4283501859338559</v>
       </c>
       <c r="F17" s="21">
-        <v>0.68474268792629678</v>
+        <v>6.8474268792629678</v>
       </c>
       <c r="G17" s="21">
-        <v>0.68534675910061416</v>
+        <v>6.853467591006142</v>
       </c>
       <c r="H17" s="21">
-        <v>0.7</v>
+        <v>7.1608678103802204</v>
       </c>
       <c r="I17" s="21">
-        <v>0.7</v>
+        <v>6.7202575099947781</v>
       </c>
       <c r="J17" s="21">
-        <v>0.7</v>
+        <v>7.0004090600474855</v>
       </c>
       <c r="K17" s="21">
-        <v>0.6</v>
+        <v>6.405164059543071</v>
       </c>
       <c r="L17" s="21">
-        <v>0.7</v>
+        <v>7.0946998900936658</v>
       </c>
       <c r="M17" s="21">
-        <v>0.70015541021822181</v>
+        <v>7.0015541021822187</v>
       </c>
       <c r="N17" s="21">
-        <v>0.6</v>
+        <v>6.3231868861906397</v>
       </c>
       <c r="O17" s="21">
-        <v>0.6471926529737112</v>
+        <v>6.4719265297371127</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="D18" s="19">
-        <v>1.4</v>
+        <v>13.847720848258735</v>
       </c>
       <c r="E18" s="19">
-        <v>1.3700853378222815</v>
+        <v>13.700853378222815</v>
       </c>
       <c r="F18" s="19">
-        <v>1.3502474832058307</v>
+        <v>13.502474832058308</v>
       </c>
       <c r="G18" s="19">
-        <v>1.2972845475720141</v>
+        <v>12.97284547572014</v>
       </c>
       <c r="H18" s="19">
-        <v>1.3</v>
+        <v>13.33119645666997</v>
       </c>
       <c r="I18" s="19">
-        <v>1.3</v>
+        <v>13.253858205326756</v>
       </c>
       <c r="J18" s="19">
-        <v>1.3</v>
+        <v>12.987336457410432</v>
       </c>
       <c r="K18" s="19">
-        <v>1.3</v>
+        <v>12.7871381821128</v>
       </c>
       <c r="L18" s="19">
-        <v>1.3</v>
+        <v>12.750480755831777</v>
       </c>
       <c r="M18" s="19">
-        <v>1.2119286930160451</v>
+        <v>12.119286930160451</v>
       </c>
       <c r="N18" s="19">
-        <v>1.1000000000000001</v>
+        <v>11.398644485520641</v>
       </c>
       <c r="O18" s="19">
-        <v>1.1314561807068033</v>
+        <v>11.314561807068033</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="21">
-        <v>2.1</v>
+        <v>20.715135962403576</v>
       </c>
       <c r="E19" s="21">
-        <v>2.0442695373213176</v>
+        <v>20.442695373213176</v>
       </c>
       <c r="F19" s="21">
-        <v>2.0374311704246795</v>
+        <v>20.374311704246793</v>
       </c>
       <c r="G19" s="21">
-        <v>1.9986974780480138</v>
+        <v>19.986974780480136</v>
       </c>
       <c r="H19" s="21">
-        <v>2</v>
+        <v>20.400771681363597</v>
       </c>
       <c r="I19" s="21">
-        <v>2</v>
+        <v>19.888856390757528</v>
       </c>
       <c r="J19" s="21">
-        <v>1.9</v>
+        <v>19.091698004049753</v>
       </c>
       <c r="K19" s="21">
-        <v>1.9</v>
+        <v>18.93233125842632</v>
       </c>
       <c r="L19" s="21">
-        <v>1.9</v>
+        <v>19.013025341241239</v>
       </c>
       <c r="M19" s="21">
-        <v>1.7866689175881376</v>
+        <v>17.866689175881376</v>
       </c>
       <c r="N19" s="21">
-        <v>1.7</v>
+        <v>17.157802964254575</v>
       </c>
       <c r="O19" s="21">
-        <v>1.703152909899057</v>
+        <v>17.031529098990571</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="21">
         <v>0</v>
@@ -1839,718 +1844,718 @@
         <v>0</v>
       </c>
       <c r="M20" s="21">
-        <v>0</v>
+        <v>6.5781888957458783</v>
       </c>
       <c r="N20" s="21">
-        <v>0.6</v>
+        <v>5.8481497664101099</v>
       </c>
       <c r="O20" s="21">
-        <v>0.58049148278876117</v>
+        <v>5.8049148278876119</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" s="19">
-        <v>1.4</v>
+        <v>13.856379991988589</v>
       </c>
       <c r="E21" s="19">
-        <v>1.4367240252668263</v>
+        <v>14.367240252668262</v>
       </c>
       <c r="F21" s="19">
-        <v>1.439637507969574</v>
+        <v>14.396375079695741</v>
       </c>
       <c r="G21" s="19">
-        <v>1.4667534495791001</v>
+        <v>14.667534495791001</v>
       </c>
       <c r="H21" s="19">
-        <v>1.5</v>
+        <v>14.898082462107581</v>
       </c>
       <c r="I21" s="19">
-        <v>1.5</v>
+        <v>14.900893577294118</v>
       </c>
       <c r="J21" s="19">
-        <v>1.5</v>
+        <v>15.331741131240172</v>
       </c>
       <c r="K21" s="19">
-        <v>1.5</v>
+        <v>15.129076593613826</v>
       </c>
       <c r="L21" s="19">
-        <v>1.5</v>
+        <v>14.98662680169287</v>
       </c>
       <c r="M21" s="19">
-        <v>1.4919001735311619</v>
+        <v>14.919001735311619</v>
       </c>
       <c r="N21" s="19">
-        <v>1.5</v>
+        <v>14.816954562536962</v>
       </c>
       <c r="O21" s="19">
-        <v>1.4293086020061216</v>
+        <v>14.293086020061216</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="21">
-        <v>1.4</v>
+        <v>13.890125545365507</v>
       </c>
       <c r="E22" s="21">
-        <v>1.4721984362059042</v>
+        <v>14.721984362059041</v>
       </c>
       <c r="F22" s="21">
-        <v>1.5011352979770742</v>
+        <v>15.011352979770741</v>
       </c>
       <c r="G22" s="21">
-        <v>1.4968098295551904</v>
+        <v>14.968098295551904</v>
       </c>
       <c r="H22" s="21">
-        <v>1.6</v>
+        <v>15.514209867037476</v>
       </c>
       <c r="I22" s="21">
-        <v>1.6</v>
+        <v>15.647346917857035</v>
       </c>
       <c r="J22" s="21">
-        <v>1.6</v>
+        <v>16.280258852978911</v>
       </c>
       <c r="K22" s="21">
-        <v>1.6</v>
+        <v>16.191704865046063</v>
       </c>
       <c r="L22" s="21">
-        <v>1.6</v>
+        <v>16.089522828140392</v>
       </c>
       <c r="M22" s="21">
-        <v>1.6725350810905935</v>
+        <v>16.725350810905933</v>
       </c>
       <c r="N22" s="21">
-        <v>1.6</v>
+        <v>16.351245092809666</v>
       </c>
       <c r="O22" s="21">
-        <v>1.6001235484133896</v>
+        <v>16.001235484133897</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="21">
-        <v>1.4</v>
+        <v>13.823095987086733</v>
       </c>
       <c r="E23" s="21">
-        <v>1.4017381553125876</v>
+        <v>14.017381553125876</v>
       </c>
       <c r="F23" s="21">
-        <v>1.3790512804025814</v>
+        <v>13.790512804025814</v>
       </c>
       <c r="G23" s="21">
-        <v>1.4371641724398547</v>
+        <v>14.371641724398549</v>
       </c>
       <c r="H23" s="21">
-        <v>1.4</v>
+        <v>14.292012460696965</v>
       </c>
       <c r="I23" s="21">
-        <v>1.4</v>
+        <v>14.167226796837245</v>
       </c>
       <c r="J23" s="21">
-        <v>1.4</v>
+        <v>14.401262879975627</v>
       </c>
       <c r="K23" s="21">
-        <v>1.4</v>
+        <v>14.087838804989657</v>
       </c>
       <c r="L23" s="21">
-        <v>1.4</v>
+        <v>13.906975166537134</v>
       </c>
       <c r="M23" s="21">
-        <v>1.3153425310948419</v>
+        <v>13.153425310948419</v>
       </c>
       <c r="N23" s="21">
-        <v>1.3</v>
+        <v>13.316695754006378</v>
       </c>
       <c r="O23" s="21">
-        <v>1.2623209090947216</v>
+        <v>12.623209090947215</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="19">
-        <v>1.3</v>
+        <v>12.682308180088777</v>
       </c>
       <c r="E24" s="19">
-        <v>1.3045676866657885</v>
+        <v>13.045676866657884</v>
       </c>
       <c r="F24" s="19">
-        <v>1.2525782235100582</v>
+        <v>12.525782235100582</v>
       </c>
       <c r="G24" s="19">
-        <v>1.2699065036473851</v>
+        <v>12.699065036473852</v>
       </c>
       <c r="H24" s="19">
-        <v>1.2</v>
+        <v>12.498685413346493</v>
       </c>
       <c r="I24" s="19">
-        <v>1.3</v>
+        <v>12.893982808022923</v>
       </c>
       <c r="J24" s="19">
-        <v>1.2</v>
+        <v>11.914560062708212</v>
       </c>
       <c r="K24" s="19">
-        <v>1.2</v>
+        <v>11.699790330490117</v>
       </c>
       <c r="L24" s="19">
-        <v>1.2</v>
+        <v>11.729782258799236</v>
       </c>
       <c r="M24" s="19">
-        <v>1.1258228605625373</v>
+        <v>11.258228605625373</v>
       </c>
       <c r="N24" s="19">
-        <v>1.1000000000000001</v>
+        <v>10.959652243223099</v>
       </c>
       <c r="O24" s="19">
-        <v>1.0655806502231515</v>
+        <v>10.655806502231515</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="21">
-        <v>1.6</v>
+        <v>15.841549874912353</v>
       </c>
       <c r="E25" s="21">
-        <v>1.6751564049092338</v>
+        <v>16.751564049092337</v>
       </c>
       <c r="F25" s="21">
-        <v>1.6051094583806043</v>
+        <v>16.051094583806044</v>
       </c>
       <c r="G25" s="21">
-        <v>1.6807696765967313</v>
+        <v>16.807696765967311</v>
       </c>
       <c r="H25" s="21">
-        <v>1.6</v>
+        <v>16.484682302632653</v>
       </c>
       <c r="I25" s="21">
-        <v>1.6</v>
+        <v>15.911538276089299</v>
       </c>
       <c r="J25" s="21">
-        <v>1.6</v>
+        <v>16.158159870734721</v>
       </c>
       <c r="K25" s="21">
-        <v>1.6</v>
+        <v>15.924188373781293</v>
       </c>
       <c r="L25" s="21">
-        <v>1.6</v>
+        <v>15.81355359719962</v>
       </c>
       <c r="M25" s="21">
-        <v>1.5587520903168199</v>
+        <v>15.587520903168201</v>
       </c>
       <c r="N25" s="21">
-        <v>1.5</v>
+        <v>15.365910057211908</v>
       </c>
       <c r="O25" s="21">
-        <v>1.4597679116471787</v>
+        <v>14.597679116471786</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="21">
-        <v>1</v>
+        <v>9.5442820292347381</v>
       </c>
       <c r="E26" s="21">
-        <v>0.93811008848660027</v>
+        <v>9.3811008848660027</v>
       </c>
       <c r="F26" s="21">
-        <v>0.90448174855407393</v>
+        <v>9.0448174855407384</v>
       </c>
       <c r="G26" s="21">
-        <v>0.86497425477571865</v>
+        <v>8.649742547757187</v>
       </c>
       <c r="H26" s="21">
-        <v>0.9</v>
+        <v>8.5814192223790577</v>
       </c>
       <c r="I26" s="21">
-        <v>1</v>
+        <v>9.9336182021727808</v>
       </c>
       <c r="J26" s="21">
-        <v>0.8</v>
+        <v>7.7580722742013064</v>
       </c>
       <c r="K26" s="21">
-        <v>0.8</v>
+        <v>7.5646433156060882</v>
       </c>
       <c r="L26" s="21">
-        <v>0.8</v>
+        <v>7.7348232254963811</v>
       </c>
       <c r="M26" s="21">
-        <v>0.70264713061100714</v>
+        <v>7.0264713061100714</v>
       </c>
       <c r="N26" s="21">
-        <v>0.7</v>
+        <v>6.6456828621714585</v>
       </c>
       <c r="O26" s="21">
-        <v>0.67923492134604124</v>
+        <v>6.7923492134604126</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="D27" s="19">
-        <v>1.4</v>
+        <v>14.407206057407929</v>
       </c>
       <c r="E27" s="19">
-        <v>1.4965091583685983</v>
+        <v>14.965091583685984</v>
       </c>
       <c r="F27" s="19">
-        <v>1.4385554326938561</v>
+        <v>14.385554326938561</v>
       </c>
       <c r="G27" s="19">
-        <v>1.3892061260944684</v>
+        <v>13.892061260944685</v>
       </c>
       <c r="H27" s="19">
-        <v>1.4</v>
+        <v>13.638677312571598</v>
       </c>
       <c r="I27" s="19">
-        <v>1.4</v>
+        <v>13.577816664544546</v>
       </c>
       <c r="J27" s="19">
-        <v>1.4</v>
+        <v>13.577380018603993</v>
       </c>
       <c r="K27" s="19">
-        <v>1.3</v>
+        <v>13.203461324815997</v>
       </c>
       <c r="L27" s="19">
-        <v>1.3</v>
+        <v>13.079979131536136</v>
       </c>
       <c r="M27" s="19">
-        <v>1.2897391768171986</v>
+        <v>12.897391768171987</v>
       </c>
       <c r="N27" s="19">
-        <v>1.2</v>
+        <v>12.154045604850952</v>
       </c>
       <c r="O27" s="19">
-        <v>1.1974467998741667</v>
+        <v>11.974467998741668</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" s="21">
-        <v>2.1</v>
+        <v>20.77818025614356</v>
       </c>
       <c r="E28" s="21">
-        <v>2.1415274474428485</v>
+        <v>21.415274474428486</v>
       </c>
       <c r="F28" s="21">
-        <v>2.0717940044818399</v>
+        <v>20.717940044818398</v>
       </c>
       <c r="G28" s="21">
-        <v>1.9797137029414209</v>
+        <v>19.797137029414209</v>
       </c>
       <c r="H28" s="21">
-        <v>1.9</v>
+        <v>19.37304656999758</v>
       </c>
       <c r="I28" s="21">
-        <v>1.9</v>
+        <v>19.182905899409636</v>
       </c>
       <c r="J28" s="21">
-        <v>1.9</v>
+        <v>19.284010377670597</v>
       </c>
       <c r="K28" s="21">
-        <v>1.9</v>
+        <v>18.932230733891043</v>
       </c>
       <c r="L28" s="21">
-        <v>1.9</v>
+        <v>18.697654941373536</v>
       </c>
       <c r="M28" s="21">
-        <v>1.8784798068553221</v>
+        <v>18.784798068553222</v>
       </c>
       <c r="N28" s="21">
-        <v>1.8</v>
+        <v>18.099730322098438</v>
       </c>
       <c r="O28" s="21">
-        <v>1.7619244529943727</v>
+        <v>17.619244529943728</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="21">
-        <v>0.8</v>
+        <v>7.8153675594829375</v>
       </c>
       <c r="E29" s="21">
-        <v>0.83033695370130112</v>
+        <v>8.3033695370130101</v>
       </c>
       <c r="F29" s="21">
-        <v>0.785220407005911</v>
+        <v>7.8522040700591091</v>
       </c>
       <c r="G29" s="21">
-        <v>0.78034111374661275</v>
+        <v>7.8034111374661279</v>
       </c>
       <c r="H29" s="21">
-        <v>0.8</v>
+        <v>7.725197681040358</v>
       </c>
       <c r="I29" s="21">
-        <v>0.8</v>
+        <v>7.801846818402292</v>
       </c>
       <c r="J29" s="21">
-        <v>0.8</v>
+        <v>7.695172457115679</v>
       </c>
       <c r="K29" s="21">
-        <v>0.7</v>
+        <v>7.2948783782890319</v>
       </c>
       <c r="L29" s="21">
-        <v>0.7</v>
+        <v>7.2918217257455238</v>
       </c>
       <c r="M29" s="21">
-        <v>0.68318146822677395</v>
+        <v>6.8318146822677388</v>
       </c>
       <c r="N29" s="21">
-        <v>0.6</v>
+        <v>6.0214731148517862</v>
       </c>
       <c r="O29" s="21">
-        <v>0.61463448841991497</v>
+        <v>6.1463448841991495</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D30" s="19">
-        <v>3</v>
+        <v>29.762908600305888</v>
       </c>
       <c r="E30" s="19">
-        <v>2.9644641719572209</v>
+        <v>29.64464171957221</v>
       </c>
       <c r="F30" s="19">
-        <v>2.8461046597418163</v>
+        <v>28.461046597418161</v>
       </c>
       <c r="G30" s="19">
-        <v>2.749904987397179</v>
+        <v>27.499049873971789</v>
       </c>
       <c r="H30" s="19">
-        <v>2.6</v>
+        <v>26.233362777856012</v>
       </c>
       <c r="I30" s="19">
-        <v>2.6</v>
+        <v>25.780913360063682</v>
       </c>
       <c r="J30" s="19">
-        <v>2.5</v>
+        <v>25.204795337265868</v>
       </c>
       <c r="K30" s="19">
-        <v>2.5</v>
+        <v>24.756871753217595</v>
       </c>
       <c r="L30" s="19">
-        <v>2.4</v>
+        <v>24.210387979498563</v>
       </c>
       <c r="M30" s="19">
-        <v>2.4252430224448842</v>
+        <v>24.25243022444884</v>
       </c>
       <c r="N30" s="19">
-        <v>2.4</v>
+        <v>24.467565114168004</v>
       </c>
       <c r="O30" s="19">
-        <v>2.3141741802980205</v>
+        <v>23.141741802980203</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="21">
-        <v>4.4000000000000004</v>
+        <v>44.204364855358804</v>
       </c>
       <c r="E31" s="21">
-        <v>4.4429634566255691</v>
+        <v>44.429634566255693</v>
       </c>
       <c r="F31" s="21">
-        <v>4.2348878674434109</v>
+        <v>42.348878674434111</v>
       </c>
       <c r="G31" s="21">
-        <v>4.0300825635575901</v>
+        <v>40.300825635575904</v>
       </c>
       <c r="H31" s="21">
-        <v>3.9</v>
+        <v>38.583177734507757</v>
       </c>
       <c r="I31" s="21">
-        <v>3.8</v>
+        <v>37.848157031670667</v>
       </c>
       <c r="J31" s="21">
-        <v>3.7</v>
+        <v>37.008800125661352</v>
       </c>
       <c r="K31" s="21">
-        <v>3.7</v>
+        <v>36.768014639707211</v>
       </c>
       <c r="L31" s="21">
-        <v>3.6</v>
+        <v>36.00739195493032</v>
       </c>
       <c r="M31" s="21">
-        <v>3.6058100558659216</v>
+        <v>36.05810055865922</v>
       </c>
       <c r="N31" s="21">
-        <v>3.6</v>
+        <v>36.032808820663021</v>
       </c>
       <c r="O31" s="21">
-        <v>3.4597325571816913</v>
+        <v>34.59732557181691</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="21">
-        <v>1.3</v>
+        <v>13.100972678334799</v>
       </c>
       <c r="E32" s="21">
-        <v>1.2604597231419912</v>
+        <v>12.604597231419913</v>
       </c>
       <c r="F32" s="21">
-        <v>1.2495524439563714</v>
+        <v>12.495524439563713</v>
       </c>
       <c r="G32" s="21">
-        <v>1.2806439809732895</v>
+        <v>12.806439809732895</v>
       </c>
       <c r="H32" s="21">
-        <v>1.2</v>
+        <v>12.101441650005262</v>
       </c>
       <c r="I32" s="21">
-        <v>1.2</v>
+        <v>12.016009434130826</v>
       </c>
       <c r="J32" s="21">
-        <v>1.2</v>
+        <v>11.760059869395699</v>
       </c>
       <c r="K32" s="21">
-        <v>1.1000000000000001</v>
+        <v>11.092102849390574</v>
       </c>
       <c r="L32" s="21">
-        <v>1.1000000000000001</v>
+        <v>10.826064008843709</v>
       </c>
       <c r="M32" s="21">
-        <v>1.0899017268572815</v>
+        <v>10.899017268572814</v>
       </c>
       <c r="N32" s="21">
-        <v>1.1000000000000001</v>
+        <v>11.415117896764526</v>
       </c>
       <c r="O32" s="21">
-        <v>1.0198858348327853</v>
+        <v>10.198858348327853</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="19">
-        <v>2.4</v>
+        <v>23.84237454416116</v>
       </c>
       <c r="E33" s="19">
-        <v>2.497576686157406</v>
+        <v>24.975766861574062</v>
       </c>
       <c r="F33" s="19">
-        <v>2.5609423653585512</v>
+        <v>25.609423653585512</v>
       </c>
       <c r="G33" s="19">
-        <v>2.5753759370145244</v>
+        <v>25.753759370145247</v>
       </c>
       <c r="H33" s="19">
-        <v>2.7</v>
+        <v>27.1928136977787</v>
       </c>
       <c r="I33" s="19">
-        <v>2.7</v>
+        <v>26.69055277730433</v>
       </c>
       <c r="J33" s="19">
-        <v>2.5</v>
+        <v>25.290324411370356</v>
       </c>
       <c r="K33" s="19">
-        <v>2.5</v>
+        <v>25.3446807331953</v>
       </c>
       <c r="L33" s="19">
-        <v>2.5</v>
+        <v>24.744870698867281</v>
       </c>
       <c r="M33" s="19">
-        <v>2.4477650145586023</v>
+        <v>24.477650145586022</v>
       </c>
       <c r="N33" s="19">
-        <v>2.4</v>
+        <v>23.807750090016267</v>
       </c>
       <c r="O33" s="19">
-        <v>2.137104388407483</v>
+        <v>21.371043884074826</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="21">
-        <v>3.1</v>
+        <v>30.846592614830378</v>
       </c>
       <c r="E34" s="21">
-        <v>3.1732457127424949</v>
+        <v>31.732457127424947</v>
       </c>
       <c r="F34" s="21">
-        <v>3.2706519893390036</v>
+        <v>32.706519893390031</v>
       </c>
       <c r="G34" s="21">
-        <v>3.3055329536208298</v>
+        <v>33.055329536208298</v>
       </c>
       <c r="H34" s="21">
-        <v>3.6</v>
+        <v>35.763489831319113</v>
       </c>
       <c r="I34" s="21">
-        <v>3.5</v>
+        <v>34.896676406903651</v>
       </c>
       <c r="J34" s="21">
-        <v>3.3</v>
+        <v>33.061479261123949</v>
       </c>
       <c r="K34" s="21">
-        <v>3.2</v>
+        <v>32.310394294064807</v>
       </c>
       <c r="L34" s="21">
-        <v>3.2</v>
+        <v>31.811231761992381</v>
       </c>
       <c r="M34" s="21">
-        <v>3.0877428413446903</v>
+        <v>30.877428413446903</v>
       </c>
       <c r="N34" s="21">
-        <v>3.1</v>
+        <v>30.80565857665777</v>
       </c>
       <c r="O34" s="21">
-        <v>2.8038202050293526</v>
+        <v>28.038202050293528</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="21">
-        <v>1.6</v>
+        <v>16.230720921317708</v>
       </c>
       <c r="E35" s="21">
-        <v>1.7626034305485287</v>
+        <v>17.626034305485287</v>
       </c>
       <c r="F35" s="21">
-        <v>1.7919426578349491</v>
+        <v>17.919426578349491</v>
       </c>
       <c r="G35" s="21">
-        <v>1.7874502179434915</v>
+        <v>17.874502179434916</v>
       </c>
       <c r="H35" s="21">
-        <v>1.8</v>
+        <v>17.971660074497908</v>
       </c>
       <c r="I35" s="21">
-        <v>1.8</v>
+        <v>17.888549824872602</v>
       </c>
       <c r="J35" s="21">
-        <v>1.7</v>
+        <v>16.968201150311817</v>
       </c>
       <c r="K35" s="21">
-        <v>1.8</v>
+        <v>17.903179604697794</v>
       </c>
       <c r="L35" s="21">
-        <v>1.7</v>
+        <v>17.228547013259089</v>
       </c>
       <c r="M35" s="21">
-        <v>1.7681482605511609</v>
+        <v>17.681482605511608</v>
       </c>
       <c r="N35" s="21">
-        <v>1.6</v>
+        <v>16.410190920120044</v>
       </c>
       <c r="O35" s="21">
-        <v>1.4344287526010566</v>
+        <v>14.344287526010564</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1">
@@ -2571,13 +2576,13 @@
     </row>
     <row r="37" spans="1:15" ht="24.75" customHeight="1">
       <c r="A37" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -2593,671 +2598,671 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" s="19">
-        <v>0.3</v>
+        <v>2.9063717453930722</v>
       </c>
       <c r="E38" s="19">
-        <v>0.28764989495465326</v>
+        <v>2.8764989495465327</v>
       </c>
       <c r="F38" s="19">
-        <v>0.29418344933802543</v>
+        <v>2.9418344933802545</v>
       </c>
       <c r="G38" s="19">
-        <v>0.29948568094907535</v>
+        <v>2.9948568094907535</v>
       </c>
       <c r="H38" s="19">
-        <v>0.3</v>
+        <v>3.0126909606718302</v>
       </c>
       <c r="I38" s="19">
-        <v>0.3</v>
+        <v>3.068371354336255</v>
       </c>
       <c r="J38" s="19">
-        <v>0.3</v>
+        <v>3.1595062050096088</v>
       </c>
       <c r="K38" s="19">
-        <v>0.3</v>
+        <v>3.2413097576529593</v>
       </c>
       <c r="L38" s="19">
-        <v>0.3</v>
+        <v>3.3382893810157288</v>
       </c>
       <c r="M38" s="19">
-        <v>0.32298469126143226</v>
+        <v>3.2298469126143226</v>
       </c>
       <c r="N38" s="19">
-        <v>0.3</v>
+        <v>3.1943090671818948</v>
       </c>
       <c r="O38" s="19">
-        <v>0.31078992364823799</v>
+        <v>3.1078992364823796</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="21">
-        <v>0.2</v>
+        <v>1.8601753756040162</v>
       </c>
       <c r="E39" s="21">
-        <v>0.17970583755731015</v>
+        <v>1.7970583755731016</v>
       </c>
       <c r="F39" s="21">
-        <v>0.17840092028341656</v>
+        <v>1.7840092028341656</v>
       </c>
       <c r="G39" s="21">
-        <v>0.18561484918793505</v>
+        <v>1.8561484918793505</v>
       </c>
       <c r="H39" s="21">
-        <v>0.2</v>
+        <v>1.7259378575067046</v>
       </c>
       <c r="I39" s="21">
-        <v>0.2</v>
+        <v>1.6849942703612799</v>
       </c>
       <c r="J39" s="21">
-        <v>0.2</v>
+        <v>1.6754420229267615</v>
       </c>
       <c r="K39" s="21">
-        <v>0.2</v>
+        <v>1.7116161364830027</v>
       </c>
       <c r="L39" s="21">
-        <v>0.2</v>
+        <v>1.8354801100418463</v>
       </c>
       <c r="M39" s="21">
-        <v>0.18107545429396854</v>
+        <v>1.8107545429396854</v>
       </c>
       <c r="N39" s="21">
-        <v>0.2</v>
+        <v>1.8368555187486406</v>
       </c>
       <c r="O39" s="21">
-        <v>0.18183904596290837</v>
+        <v>1.8183904596290836</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D40" s="21">
-        <v>0.4</v>
+        <v>3.9797491426525546</v>
       </c>
       <c r="E40" s="21">
-        <v>0.3982872190652651</v>
+        <v>3.982872190652651</v>
       </c>
       <c r="F40" s="21">
-        <v>0.4126771564078579</v>
+        <v>4.1267715640785791</v>
       </c>
       <c r="G40" s="21">
-        <v>0.41588702435984731</v>
+        <v>4.1588702435984732</v>
       </c>
       <c r="H40" s="21">
-        <v>0.4</v>
+        <v>4.3264057133238554</v>
       </c>
       <c r="I40" s="21">
-        <v>0.4</v>
+        <v>4.4785222151475361</v>
       </c>
       <c r="J40" s="21">
-        <v>0.5</v>
+        <v>4.6704858817226569</v>
       </c>
       <c r="K40" s="21">
-        <v>0.5</v>
+        <v>4.7971882287059486</v>
       </c>
       <c r="L40" s="21">
-        <v>0.5</v>
+        <v>4.8649150028047403</v>
       </c>
       <c r="M40" s="21">
-        <v>0.46701173644971006</v>
+        <v>4.6701173644971004</v>
       </c>
       <c r="N40" s="21">
-        <v>0.5</v>
+        <v>4.5717630187478706</v>
       </c>
       <c r="O40" s="21">
-        <v>0.44166221470756079</v>
+        <v>4.416622147075608</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="19">
-        <v>0.2</v>
+        <v>1.8363141321375376</v>
       </c>
       <c r="E41" s="19">
-        <v>0.19605702585947613</v>
+        <v>1.9605702585947613</v>
       </c>
       <c r="F41" s="19">
-        <v>0.18740874719431672</v>
+        <v>1.8740874719431673</v>
       </c>
       <c r="G41" s="19">
-        <v>0.23420899107024992</v>
+        <v>2.3420899107024993</v>
       </c>
       <c r="H41" s="19">
-        <v>0.3</v>
+        <v>2.6628554547969885</v>
       </c>
       <c r="I41" s="19">
-        <v>0.3</v>
+        <v>2.9842020000243608</v>
       </c>
       <c r="J41" s="19">
-        <v>0.3</v>
+        <v>3.2968298796061282</v>
       </c>
       <c r="K41" s="19">
-        <v>0.3</v>
+        <v>3.2905496970357793</v>
       </c>
       <c r="L41" s="19">
-        <v>0.3</v>
+        <v>3.1611521066412758</v>
       </c>
       <c r="M41" s="19">
-        <v>0.30519293217831456</v>
+        <v>3.0519293217831454</v>
       </c>
       <c r="N41" s="19">
-        <v>0.3</v>
+        <v>3.0278323456398302</v>
       </c>
       <c r="O41" s="19">
-        <v>0.31146402411519158</v>
+        <v>3.1146402411519158</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" s="21">
-        <v>0.1</v>
+        <v>0.55260831122900089</v>
       </c>
       <c r="E42" s="21">
-        <v>4.9760020989681582E-2</v>
+        <v>0.4976002098968158</v>
       </c>
       <c r="F42" s="21">
-        <v>4.8701011210087311E-2</v>
+        <v>0.48701011210087308</v>
       </c>
       <c r="G42" s="21">
-        <v>6.926526866266082E-2</v>
+        <v>0.69265268662660828</v>
       </c>
       <c r="H42" s="21">
-        <v>0.1</v>
+        <v>0.67711683651013976</v>
       </c>
       <c r="I42" s="21">
-        <v>0.1</v>
+        <v>0.70249675611792028</v>
       </c>
       <c r="J42" s="21">
-        <v>0.1</v>
+        <v>0.72792859829260304</v>
       </c>
       <c r="K42" s="21">
-        <v>0.1</v>
+        <v>0.63449008807515528</v>
       </c>
       <c r="L42" s="21">
-        <v>0.1</v>
+        <v>0.85408368467230367</v>
       </c>
       <c r="M42" s="21">
-        <v>6.0692271218587009E-2</v>
+        <v>0.60692271218587002</v>
       </c>
       <c r="N42" s="21">
-        <v>0.1</v>
+        <v>0.59474689802321001</v>
       </c>
       <c r="O42" s="21">
-        <v>6.5656528812273393E-2</v>
+        <v>0.65656528812273396</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="21">
-        <v>0.3</v>
+        <v>3.0810586338853936</v>
       </c>
       <c r="E43" s="21">
-        <v>0.33803361019895689</v>
+        <v>3.380336101989569</v>
       </c>
       <c r="F43" s="21">
-        <v>0.32185802198934005</v>
+        <v>3.2185802198934006</v>
       </c>
       <c r="G43" s="21">
-        <v>0.39384924791553189</v>
+        <v>3.9384924791553191</v>
       </c>
       <c r="H43" s="21">
-        <v>0.5</v>
+        <v>4.5828201529516228</v>
       </c>
       <c r="I43" s="21">
-        <v>0.5</v>
+        <v>5.1875498802873103</v>
       </c>
       <c r="J43" s="21">
-        <v>0.6</v>
+        <v>5.7759027775067606</v>
       </c>
       <c r="K43" s="21">
-        <v>0.6</v>
+        <v>5.8526285187494507</v>
       </c>
       <c r="L43" s="21">
-        <v>0.5</v>
+        <v>5.3823928473979494</v>
       </c>
       <c r="M43" s="21">
-        <v>0.5406590195075619</v>
+        <v>5.4065901950756192</v>
       </c>
       <c r="N43" s="21">
-        <v>0.5</v>
+        <v>5.3720118184260004</v>
       </c>
       <c r="O43" s="21">
-        <v>0.54833425894030885</v>
+        <v>5.4833425894030894</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D44" s="19">
-        <v>0.2</v>
+        <v>1.5530886205872025</v>
       </c>
       <c r="E44" s="19">
-        <v>0.17548419409121005</v>
+        <v>1.7548419409121003</v>
       </c>
       <c r="F44" s="19">
-        <v>0.19782779508383996</v>
+        <v>1.9782779508383996</v>
       </c>
       <c r="G44" s="19">
-        <v>0.20560538504157141</v>
+        <v>2.0560538504157142</v>
       </c>
       <c r="H44" s="19">
-        <v>0.2</v>
+        <v>2.0313649881770992</v>
       </c>
       <c r="I44" s="19">
-        <v>0.2</v>
+        <v>2.1020130481805812</v>
       </c>
       <c r="J44" s="19">
-        <v>0.2</v>
+        <v>2.2246350956721437</v>
       </c>
       <c r="K44" s="19">
-        <v>0.2</v>
+        <v>1.747049124837579</v>
       </c>
       <c r="L44" s="19">
-        <v>0.2</v>
+        <v>2.3138369922424706</v>
       </c>
       <c r="M44" s="19">
-        <v>0.23491422805247225</v>
+        <v>2.3491422805247226</v>
       </c>
       <c r="N44" s="19">
-        <v>0.2</v>
+        <v>2.4353154050754511</v>
       </c>
       <c r="O44" s="19">
-        <v>0.23786257470249633</v>
+        <v>2.3786257470249632</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D45" s="21">
-        <v>0.1</v>
+        <v>0.75324183698301539</v>
       </c>
       <c r="E45" s="21">
-        <v>8.170043301229496E-2</v>
+        <v>0.8170043301229496</v>
       </c>
       <c r="F45" s="21">
-        <v>8.3773454240146858E-2</v>
+        <v>0.8377345424014685</v>
       </c>
       <c r="G45" s="21">
-        <v>0.10946268417096611</v>
+        <v>1.0946268417096612</v>
       </c>
       <c r="H45" s="21">
-        <v>0.1</v>
+        <v>0.84045935574319852</v>
       </c>
       <c r="I45" s="21">
-        <v>0.1</v>
+        <v>0.91114257278627397</v>
       </c>
       <c r="J45" s="21">
-        <v>0.1</v>
+        <v>0.91160368287887883</v>
       </c>
       <c r="K45" s="21">
-        <v>0.1</v>
+        <v>0.94626722924506457</v>
       </c>
       <c r="L45" s="21">
-        <v>0.1</v>
+        <v>0.96121656872201278</v>
       </c>
       <c r="M45" s="21">
-        <v>0.11083798882681564</v>
+        <v>1.0075304777969534</v>
       </c>
       <c r="N45" s="21">
-        <v>0.1</v>
+        <v>0.92643025657326228</v>
       </c>
       <c r="O45" s="21">
-        <v>9.5832541274761332E-2</v>
+        <v>0.95832541274761329</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="21">
-        <v>0.2</v>
+        <v>2.3512089453864271</v>
       </c>
       <c r="E46" s="21">
-        <v>0.26898371511972619</v>
+        <v>2.6898371511972616</v>
       </c>
       <c r="F46" s="21">
-        <v>0.31138155175513543</v>
+        <v>3.1138155175513544</v>
       </c>
       <c r="G46" s="21">
-        <v>0.30123706812857381</v>
+        <v>3.0123706812857378</v>
       </c>
       <c r="H46" s="21">
-        <v>0.3</v>
+        <v>3.2138925387975426</v>
       </c>
       <c r="I46" s="21">
-        <v>0.3</v>
+        <v>3.2823441147049017</v>
       </c>
       <c r="J46" s="21">
-        <v>0.4</v>
+        <v>3.5243760832774313</v>
       </c>
       <c r="K46" s="21">
-        <v>0.3</v>
+        <v>2.5384949397107448</v>
       </c>
       <c r="L46" s="21">
-        <v>0.4</v>
+        <v>3.6495693344527527</v>
       </c>
       <c r="M46" s="21">
-        <v>0.4630565778299025</v>
+        <v>3.6734981969380032</v>
       </c>
       <c r="N46" s="21">
-        <v>0.4</v>
+        <v>3.9239911875667786</v>
       </c>
       <c r="O46" s="21">
-        <v>0.37786925104456071</v>
+        <v>3.7786925104456071</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47" s="19">
-        <v>0.3</v>
+        <v>2.946999010168271</v>
       </c>
       <c r="E47" s="19">
-        <v>0.33928344229837748</v>
+        <v>3.3928344229837748</v>
       </c>
       <c r="F47" s="19">
-        <v>0.35510737035272527</v>
+        <v>3.5510737035272526</v>
       </c>
       <c r="G47" s="19">
-        <v>0.37293576781149951</v>
+        <v>3.7293576781149951</v>
       </c>
       <c r="H47" s="19">
-        <v>0.4</v>
+        <v>3.9448667152409822</v>
       </c>
       <c r="I47" s="19">
-        <v>0.4</v>
+        <v>3.9992852341283687</v>
       </c>
       <c r="J47" s="19">
-        <v>0.4</v>
+        <v>3.7964594345163185</v>
       </c>
       <c r="K47" s="19">
-        <v>0.4</v>
+        <v>4.3686837839012966</v>
       </c>
       <c r="L47" s="19">
-        <v>0.5</v>
+        <v>4.9207272875766952</v>
       </c>
       <c r="M47" s="19">
-        <v>0.50398145348251189</v>
+        <v>5.0398145348251191</v>
       </c>
       <c r="N47" s="19">
-        <v>0.5</v>
+        <v>4.6221308421641929</v>
       </c>
       <c r="O47" s="19">
-        <v>0.44870439078001428</v>
+        <v>4.4870439078001425</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D48" s="21">
-        <v>0.2</v>
+        <v>1.9610464857155592</v>
       </c>
       <c r="E48" s="21">
-        <v>0.22135549249383524</v>
+        <v>2.2135549249383524</v>
       </c>
       <c r="F48" s="21">
-        <v>0.2144589070473823</v>
+        <v>2.1445890704738231</v>
       </c>
       <c r="G48" s="21">
-        <v>0.2122112411326017</v>
+        <v>2.1221124113260168</v>
       </c>
       <c r="H48" s="21">
-        <v>0.2</v>
+        <v>2.1415569118749329</v>
       </c>
       <c r="I48" s="21">
-        <v>0.2</v>
+        <v>2.0722145630164679</v>
       </c>
       <c r="J48" s="21">
-        <v>0.2</v>
+        <v>1.8778872516494109</v>
       </c>
       <c r="K48" s="21">
-        <v>0.2</v>
+        <v>2.4736963620172165</v>
       </c>
       <c r="L48" s="21">
-        <v>0.3</v>
+        <v>3.1717502775281492</v>
       </c>
       <c r="M48" s="21">
-        <v>0.28920076156200547</v>
+        <v>2.8920076156200545</v>
       </c>
       <c r="N48" s="21">
-        <v>0.2</v>
+        <v>2.2217020618188599</v>
       </c>
       <c r="O48" s="21">
-        <v>0.25979751539103463</v>
+        <v>2.5979751539103462</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D49" s="21">
-        <v>0.4</v>
+        <v>3.9518510106745399</v>
       </c>
       <c r="E49" s="21">
-        <v>0.45920710240318385</v>
+        <v>4.5920710240318385</v>
       </c>
       <c r="F49" s="21">
-        <v>0.49799468212821585</v>
+        <v>4.9799468212821587</v>
       </c>
       <c r="G49" s="21">
-        <v>0.53597631160432646</v>
+        <v>5.3597631160432648</v>
       </c>
       <c r="H49" s="21">
-        <v>0.6</v>
+        <v>5.7720934471549654</v>
       </c>
       <c r="I49" s="21">
-        <v>0.6</v>
+        <v>5.9497821266832753</v>
       </c>
       <c r="J49" s="21">
-        <v>0.6</v>
+        <v>5.7352748925690236</v>
       </c>
       <c r="K49" s="21">
-        <v>0.6</v>
+        <v>6.2803881363052181</v>
       </c>
       <c r="L49" s="21">
-        <v>0.7</v>
+        <v>6.6846016305506799</v>
       </c>
       <c r="M49" s="21">
-        <v>0.72039111571585834</v>
+        <v>7.2039111571585837</v>
       </c>
       <c r="N49" s="21">
-        <v>0.7</v>
+        <v>7.043549949174384</v>
       </c>
       <c r="O49" s="21">
-        <v>0.63925163882679459</v>
+        <v>6.3925163882679463</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="D50" s="19">
-        <v>0.3</v>
+        <v>3.0518393054013742</v>
       </c>
       <c r="E50" s="19">
-        <v>0.31327020121005333</v>
+        <v>3.1327020121005331</v>
       </c>
       <c r="F50" s="19">
-        <v>0.32450699182018583</v>
+        <v>3.2450699182018585</v>
       </c>
       <c r="G50" s="19">
-        <v>0.32063566942831029</v>
+        <v>3.206356694283103</v>
       </c>
       <c r="H50" s="19">
-        <v>0.3</v>
+        <v>3.2781630631155663</v>
       </c>
       <c r="I50" s="19">
-        <v>0.3</v>
+        <v>2.5931461706074086</v>
       </c>
       <c r="J50" s="19">
-        <v>0.3</v>
+        <v>2.5618855477631537</v>
       </c>
       <c r="K50" s="19">
-        <v>0.3</v>
+        <v>2.536291870832291</v>
       </c>
       <c r="L50" s="19">
-        <v>0.2</v>
+        <v>2.3341044006577296</v>
       </c>
       <c r="M50" s="19">
-        <v>0.22788402774660677</v>
+        <v>2.2788402774660677</v>
       </c>
       <c r="N50" s="19">
-        <v>0.2</v>
+        <v>2.259190798932019</v>
       </c>
       <c r="O50" s="19">
-        <v>0.22085481004787452</v>
+        <v>2.2085481004787453</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51" s="21">
-        <v>0.1</v>
+        <v>0.77295283441804385</v>
       </c>
       <c r="E51" s="21">
-        <v>0.10719016300561218</v>
+        <v>1.0719016300561217</v>
       </c>
       <c r="F51" s="21">
-        <v>0.11361140355527952</v>
+        <v>1.1361140355527952</v>
       </c>
       <c r="G51" s="21">
-        <v>0.11977213351598584</v>
+        <v>1.1977213351598583</v>
       </c>
       <c r="H51" s="21">
-        <v>0.1</v>
+        <v>1.1087375913784565</v>
       </c>
       <c r="I51" s="21">
-        <v>0.1</v>
+        <v>1.1699327288680901</v>
       </c>
       <c r="J51" s="21">
-        <v>0.1</v>
+        <v>1.2293896442001735</v>
       </c>
       <c r="K51" s="21">
-        <v>0.1</v>
+        <v>1.2908407676199765</v>
       </c>
       <c r="L51" s="21">
-        <v>0.1</v>
+        <v>1.0641618661142485</v>
       </c>
       <c r="M51" s="21">
         <v>0</v>
       </c>
       <c r="N51" s="21">
-        <v>0.1</v>
+        <v>1.115954664341761</v>
       </c>
       <c r="O51" s="21">
-        <v>0.11077417300156468</v>
+        <v>1.1077417300156469</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -3287,718 +3292,718 @@
         <v>0</v>
       </c>
       <c r="M52" s="21">
-        <v>0</v>
+        <v>4.475881104321938</v>
       </c>
       <c r="N52" s="21">
-        <v>0.3</v>
+        <v>3.3610056128793735</v>
       </c>
       <c r="O52" s="21">
-        <v>0.32694347881206087</v>
+        <v>3.2694347881206087</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1">
       <c r="A53" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="D53" s="19">
-        <v>0.2</v>
+        <v>2.4317195263540921</v>
       </c>
       <c r="E53" s="19">
-        <v>0.25092572424308429</v>
+        <v>2.5092572424308428</v>
       </c>
       <c r="F53" s="19">
-        <v>0.26934603464676465</v>
+        <v>2.6934603464676461</v>
       </c>
       <c r="G53" s="19">
-        <v>0.27668303707969388</v>
+        <v>2.7668303707969386</v>
       </c>
       <c r="H53" s="19">
-        <v>0.3</v>
+        <v>2.873783119739878</v>
       </c>
       <c r="I53" s="19">
-        <v>0.3</v>
+        <v>3.3580596607327715</v>
       </c>
       <c r="J53" s="19">
-        <v>0.3</v>
+        <v>3.3552746548610708</v>
       </c>
       <c r="K53" s="19">
-        <v>0.3</v>
+        <v>3.4702509691589056</v>
       </c>
       <c r="L53" s="19">
-        <v>0.3</v>
+        <v>3.480236059866022</v>
       </c>
       <c r="M53" s="19">
-        <v>0.25729978495000927</v>
+        <v>2.5729978495000929</v>
       </c>
       <c r="N53" s="19">
-        <v>0.3</v>
+        <v>3.2766883028694735</v>
       </c>
       <c r="O53" s="19">
-        <v>0.32375041529119863</v>
+        <v>3.2375041529119866</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" s="21">
-        <v>0.1</v>
+        <v>0.78354554358472084</v>
       </c>
       <c r="E54" s="21">
-        <v>9.8263542821848196E-2</v>
+        <v>0.98263542821848193</v>
       </c>
       <c r="F54" s="21">
-        <v>9.7900128128939626E-2</v>
+        <v>0.97900128128939623</v>
       </c>
       <c r="G54" s="21">
-        <v>9.9115353472229217E-2</v>
+        <v>0.99115353472229217</v>
       </c>
       <c r="H54" s="21">
-        <v>0.1</v>
+        <v>1.0506978111009506</v>
       </c>
       <c r="I54" s="21">
-        <v>0.1</v>
+        <v>1.1531309908758509</v>
       </c>
       <c r="J54" s="21">
-        <v>0.1</v>
+        <v>1.1292665100332193</v>
       </c>
       <c r="K54" s="21">
-        <v>0.1</v>
+        <v>1.0302414301596259</v>
       </c>
       <c r="L54" s="21">
-        <v>0.1</v>
+        <v>0.97923125826697155</v>
       </c>
       <c r="M54" s="21">
-        <v>4.732194747559592E-2</v>
+        <v>0.47321947475595921</v>
       </c>
       <c r="N54" s="21">
-        <v>0.1</v>
+        <v>0.97380748552733121</v>
       </c>
       <c r="O54" s="21">
-        <v>9.5807218716440656E-2</v>
+        <v>0.95807218716440656</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D55" s="21">
-        <v>0.4</v>
+        <v>4.0573509187001724</v>
       </c>
       <c r="E55" s="21">
-        <v>0.40148549633644487</v>
+        <v>4.0148549633644484</v>
       </c>
       <c r="F55" s="21">
-        <v>0.4382506522997161</v>
+        <v>4.3825065229971605</v>
       </c>
       <c r="G55" s="21">
-        <v>0.4514911611922674</v>
+        <v>4.514911611922674</v>
       </c>
       <c r="H55" s="21">
-        <v>0.5</v>
+        <v>4.6671091538321168</v>
       </c>
       <c r="I55" s="21">
-        <v>0.6</v>
+        <v>5.5252184507665261</v>
       </c>
       <c r="J55" s="21">
-        <v>0.6</v>
+        <v>5.5389472615290885</v>
       </c>
       <c r="K55" s="21">
-        <v>0.6</v>
+        <v>5.8611436311668204</v>
       </c>
       <c r="L55" s="21">
-        <v>0.6</v>
+        <v>5.9285302406658831</v>
       </c>
       <c r="M55" s="21">
-        <v>0.46253803291247192</v>
+        <v>4.6253803291247193</v>
       </c>
       <c r="N55" s="21">
-        <v>0.6</v>
+        <v>5.5284894859215381</v>
       </c>
       <c r="O55" s="21">
-        <v>0.54658635155707214</v>
+        <v>5.4658635155707218</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1">
       <c r="A56" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="D56" s="19">
-        <v>0.2</v>
+        <v>1.8980325167479799</v>
       </c>
       <c r="E56" s="19">
-        <v>0.18697387040161137</v>
+        <v>1.8697387040161138</v>
       </c>
       <c r="F56" s="19">
-        <v>0.16701042980134109</v>
+        <v>1.6701042980134111</v>
       </c>
       <c r="G56" s="19">
-        <v>0.18082811055173123</v>
+        <v>1.8082811055173122</v>
       </c>
       <c r="H56" s="19">
-        <v>0.2</v>
+        <v>1.9010945450721202</v>
       </c>
       <c r="I56" s="19">
-        <v>0.1</v>
+        <v>1.4326647564469912</v>
       </c>
       <c r="J56" s="19">
-        <v>0.2</v>
+        <v>1.8812463256907703</v>
       </c>
       <c r="K56" s="19">
-        <v>0.2</v>
+        <v>1.8920453009703491</v>
       </c>
       <c r="L56" s="19">
-        <v>0.2</v>
+        <v>1.82210209845425</v>
       </c>
       <c r="M56" s="19">
-        <v>0.17205266307600239</v>
+        <v>1.720526630760024</v>
       </c>
       <c r="N56" s="19">
-        <v>0.2</v>
+        <v>1.6605533701853179</v>
       </c>
       <c r="O56" s="19">
-        <v>0.16056694729389956</v>
+        <v>1.6056694729389955</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" s="21">
-        <v>0.1</v>
+        <v>1.0387901557319574</v>
       </c>
       <c r="E57" s="21">
-        <v>9.4013879867354974E-2</v>
+        <v>0.94013879867354966</v>
       </c>
       <c r="F57" s="21">
-        <v>0.10084457330139922</v>
+        <v>1.0084457330139922</v>
       </c>
       <c r="G57" s="21">
-        <v>6.623722863435394E-2</v>
+        <v>0.6623722863435394</v>
       </c>
       <c r="H57" s="21">
-        <v>0.1</v>
+        <v>0.65285870505475863</v>
       </c>
       <c r="I57" s="21">
-        <v>0.1</v>
+        <v>0.96433565309632108</v>
       </c>
       <c r="J57" s="21">
-        <v>0.1</v>
+        <v>0.6336533282641067</v>
       </c>
       <c r="K57" s="21">
-        <v>0.1</v>
+        <v>0.70253772237270407</v>
       </c>
       <c r="L57" s="21">
-        <v>0.1</v>
+        <v>0.76764823287376793</v>
       </c>
       <c r="M57" s="21">
-        <v>5.2967304039891944E-2</v>
+        <v>0.52967304039891949</v>
       </c>
       <c r="N57" s="21">
-        <v>0</v>
+        <v>0.37295898197116278</v>
       </c>
       <c r="O57" s="21">
-        <v>6.6353086893053567E-2</v>
+        <v>0.66353086893053559</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1">
       <c r="A58" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" s="21">
-        <v>0.3</v>
+        <v>2.7515047291487531</v>
       </c>
       <c r="E58" s="21">
-        <v>0.27889759387439467</v>
+        <v>2.7889759387439468</v>
       </c>
       <c r="F58" s="21">
-        <v>0.23234393540838597</v>
+        <v>2.3234393540838596</v>
       </c>
       <c r="G58" s="21">
-        <v>0.29376484124458374</v>
+        <v>2.9376484124458373</v>
       </c>
       <c r="H58" s="21">
-        <v>0.3</v>
+        <v>3.1278070062876941</v>
       </c>
       <c r="I58" s="21">
-        <v>0.2</v>
+        <v>1.8921177527948156</v>
       </c>
       <c r="J58" s="21">
-        <v>0.3</v>
+        <v>3.1032289096805226</v>
       </c>
       <c r="K58" s="21">
-        <v>0.3</v>
+        <v>3.0564215416590255</v>
       </c>
       <c r="L58" s="21">
-        <v>0.3</v>
+        <v>2.8536241026103153</v>
       </c>
       <c r="M58" s="21">
-        <v>0.28845513782978188</v>
+        <v>2.8845513782978189</v>
       </c>
       <c r="N58" s="21">
-        <v>0.3</v>
+        <v>2.9211792800753664</v>
       </c>
       <c r="O58" s="21">
-        <v>0.25290661965012173</v>
+        <v>2.5290661965012173</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="D59" s="19">
-        <v>0.3</v>
+        <v>2.8225361100543647</v>
       </c>
       <c r="E59" s="19">
-        <v>0.28568615127264063</v>
+        <v>2.8568615127264061</v>
       </c>
       <c r="F59" s="19">
-        <v>0.2886653521657655</v>
+        <v>2.8866535216576548</v>
       </c>
       <c r="G59" s="19">
-        <v>0.27994963249289873</v>
+        <v>2.7994963249289877</v>
       </c>
       <c r="H59" s="19">
-        <v>0.3</v>
+        <v>2.9759203234676019</v>
       </c>
       <c r="I59" s="19">
-        <v>0.3</v>
+        <v>3.0648681599635825</v>
       </c>
       <c r="J59" s="19">
-        <v>0.3</v>
+        <v>3.0601580676593212</v>
       </c>
       <c r="K59" s="19">
-        <v>0.3</v>
+        <v>3.0160741563671714</v>
       </c>
       <c r="L59" s="19">
-        <v>0.3</v>
+        <v>3.4320335170480685</v>
       </c>
       <c r="M59" s="19">
-        <v>0.28024219593200844</v>
+        <v>2.8024219593200845</v>
       </c>
       <c r="N59" s="19">
-        <v>0.3</v>
+        <v>2.8513288423194636</v>
       </c>
       <c r="O59" s="19">
-        <v>0.27399206437798729</v>
+        <v>2.7399206437798731</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1">
       <c r="A60" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D60" s="21">
-        <v>0.2</v>
+        <v>1.8823438559572563</v>
       </c>
       <c r="E60" s="21">
-        <v>0.18902867971841905</v>
+        <v>1.8902867971841906</v>
       </c>
       <c r="F60" s="21">
-        <v>0.18556885074157073</v>
+        <v>1.8556885074157072</v>
       </c>
       <c r="G60" s="21">
-        <v>0.17535925573840089</v>
+        <v>1.753592557384009</v>
       </c>
       <c r="H60" s="21">
-        <v>0.2</v>
+        <v>1.8784612912497654</v>
       </c>
       <c r="I60" s="21">
-        <v>0.2</v>
+        <v>1.8650047402203813</v>
       </c>
       <c r="J60" s="21">
-        <v>0.2</v>
+        <v>1.828280893594052</v>
       </c>
       <c r="K60" s="21">
-        <v>0.2</v>
+        <v>1.8804021496415484</v>
       </c>
       <c r="L60" s="21">
-        <v>0.2</v>
+        <v>2.2403685092127303</v>
       </c>
       <c r="M60" s="21">
-        <v>0.19913938936061884</v>
+        <v>1.9913938936061883</v>
       </c>
       <c r="N60" s="21">
-        <v>0.2</v>
+        <v>1.8786550445928067</v>
       </c>
       <c r="O60" s="21">
-        <v>0.17579291594501678</v>
+        <v>1.7579291594501678</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" s="21">
-        <v>0.4</v>
+        <v>3.7953222653080076</v>
       </c>
       <c r="E61" s="21">
-        <v>0.38551358564703264</v>
+        <v>3.8551358564703264</v>
       </c>
       <c r="F61" s="21">
-        <v>0.39503372327766506</v>
+        <v>3.9503372327766506</v>
       </c>
       <c r="G61" s="21">
-        <v>0.38779146811188381</v>
+        <v>3.8779146811188379</v>
       </c>
       <c r="H61" s="21">
-        <v>0.4</v>
+        <v>4.1076579814595258</v>
       </c>
       <c r="I61" s="21">
-        <v>0.4</v>
+        <v>4.3013114424036099</v>
       </c>
       <c r="J61" s="21">
-        <v>0.4</v>
+        <v>4.3299366886977433</v>
       </c>
       <c r="K61" s="21">
-        <v>0.4</v>
+        <v>4.1873924225828274</v>
       </c>
       <c r="L61" s="21">
-        <v>0.5</v>
+        <v>4.6598624046184414</v>
       </c>
       <c r="M61" s="21">
-        <v>0.36379941961301898</v>
+        <v>3.6379941961301898</v>
       </c>
       <c r="N61" s="21">
-        <v>0.4</v>
+        <v>3.8545762153895518</v>
       </c>
       <c r="O61" s="21">
-        <v>0.37538079494102189</v>
+        <v>3.753807949410219</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
       <c r="A62" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D62" s="19">
-        <v>0.3</v>
+        <v>3.1751754778755399</v>
       </c>
       <c r="E62" s="19">
-        <v>0.32824121039804105</v>
+        <v>3.2824121039804108</v>
       </c>
       <c r="F62" s="19">
-        <v>0.32082955119634771</v>
+        <v>3.2082955119634771</v>
       </c>
       <c r="G62" s="19">
-        <v>0.30251139059134974</v>
+        <v>3.0251139059134973</v>
       </c>
       <c r="H62" s="19">
-        <v>0.2</v>
+        <v>2.3043539487665305</v>
       </c>
       <c r="I62" s="19">
-        <v>0.2</v>
+        <v>2.2536128230569634</v>
       </c>
       <c r="J62" s="19">
-        <v>0.2</v>
+        <v>2.2848539682507298</v>
       </c>
       <c r="K62" s="19">
-        <v>0.2</v>
+        <v>2.1653531521355172</v>
       </c>
       <c r="L62" s="19">
-        <v>0.2</v>
+        <v>2.2292637102151871</v>
       </c>
       <c r="M62" s="19">
-        <v>0.21728507517209641</v>
+        <v>2.1728507517209641</v>
       </c>
       <c r="N62" s="19">
-        <v>0.2</v>
+        <v>1.9924120755068313</v>
       </c>
       <c r="O62" s="19">
-        <v>0.20028258051359737</v>
+        <v>2.002825805135974</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" s="21">
-        <v>0.4</v>
+        <v>3.5389545537443441</v>
       </c>
       <c r="E63" s="21">
-        <v>0.35244662035731683</v>
+        <v>3.524466203573168</v>
       </c>
       <c r="F63" s="21">
-        <v>0.34907515985343024</v>
+        <v>3.4907515985343025</v>
       </c>
       <c r="G63" s="21">
-        <v>0.34128995340472496</v>
+        <v>3.4128995340472494</v>
       </c>
       <c r="H63" s="21">
-        <v>0.2</v>
+        <v>2.4589279074323596</v>
       </c>
       <c r="I63" s="21">
-        <v>0.2</v>
+        <v>2.3887610749424839</v>
       </c>
       <c r="J63" s="21">
-        <v>0.2</v>
+        <v>2.3178389312655399</v>
       </c>
       <c r="K63" s="21">
-        <v>0.2</v>
+        <v>2.1937061258774824</v>
       </c>
       <c r="L63" s="21">
-        <v>0.2</v>
+        <v>2.2893814823836673</v>
       </c>
       <c r="M63" s="21">
-        <v>0.23061452513966479</v>
+        <v>2.3061452513966478</v>
       </c>
       <c r="N63" s="21">
-        <v>0.2</v>
+        <v>2.282780285909451</v>
       </c>
       <c r="O63" s="21">
-        <v>0.22996238227298937</v>
+        <v>2.2996238227298935</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1">
       <c r="A64" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D64" s="21">
-        <v>0.3</v>
+        <v>2.7554627048122904</v>
       </c>
       <c r="E64" s="21">
-        <v>0.30034391840492763</v>
+        <v>3.0034391840492765</v>
       </c>
       <c r="F64" s="21">
-        <v>0.28835825629762418</v>
+        <v>2.8835825629762417</v>
       </c>
       <c r="G64" s="21">
-        <v>0.25800519763198138</v>
+        <v>2.5800519763198135</v>
       </c>
       <c r="H64" s="21">
-        <v>0.2</v>
+        <v>2.1274746189990346</v>
       </c>
       <c r="I64" s="21">
-        <v>0.2</v>
+        <v>2.0994514624689549</v>
       </c>
       <c r="J64" s="21">
-        <v>0.2</v>
+        <v>2.2472841679921278</v>
       </c>
       <c r="K64" s="21">
-        <v>0.2</v>
+        <v>2.1330967018058797</v>
       </c>
       <c r="L64" s="21">
-        <v>0.2</v>
+        <v>2.1610569230705292</v>
       </c>
       <c r="M64" s="21">
-        <v>0.2022081125894771</v>
+        <v>2.0220811258947711</v>
       </c>
       <c r="N64" s="21">
-        <v>0.2</v>
+        <v>1.6647046932781602</v>
       </c>
       <c r="O64" s="21">
-        <v>0.16674939504870634</v>
+        <v>1.6674939504870634</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D65" s="19">
-        <v>0.4</v>
+        <v>4.4557880295645447</v>
       </c>
       <c r="E65" s="19">
-        <v>0.46902848566336264</v>
+        <v>4.6902848566336264</v>
       </c>
       <c r="F65" s="19">
-        <v>0.5029736879489809</v>
+        <v>5.0297368794898087</v>
       </c>
       <c r="G65" s="19">
-        <v>0.47510595616959023</v>
+        <v>4.7510595616959019</v>
       </c>
       <c r="H65" s="19">
-        <v>0.5</v>
+        <v>4.7726162816509552</v>
       </c>
       <c r="I65" s="19">
-        <v>0.4</v>
+        <v>4.424249237542293</v>
       </c>
       <c r="J65" s="19">
-        <v>0.5</v>
+        <v>5.4269560097330505</v>
       </c>
       <c r="K65" s="19">
-        <v>0.6</v>
+        <v>5.6090686868546973</v>
       </c>
       <c r="L65" s="19">
-        <v>0.6</v>
+        <v>5.9107181021585813</v>
       </c>
       <c r="M65" s="19">
-        <v>0.61754071609125527</v>
+        <v>6.1754071609125525</v>
       </c>
       <c r="N65" s="19">
-        <v>0.6</v>
+        <v>5.9907376367316028</v>
       </c>
       <c r="O65" s="19">
-        <v>0.54251878583696267</v>
+        <v>5.4251878583696262</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1">
       <c r="A66" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D66" s="21">
-        <v>0.3</v>
+        <v>2.7769438607024917</v>
       </c>
       <c r="E66" s="21">
-        <v>0.26256170199996998</v>
+        <v>2.6256170199997002</v>
       </c>
       <c r="F66" s="21">
-        <v>0.28793550244745175</v>
+        <v>2.8793550244745179</v>
       </c>
       <c r="G66" s="21">
-        <v>0.3051261187957689</v>
+        <v>3.0512611879576892</v>
       </c>
       <c r="H66" s="21">
-        <v>0.3</v>
+        <v>2.9267526608464745</v>
       </c>
       <c r="I66" s="21">
-        <v>0.4</v>
+        <v>3.6438296649778921</v>
       </c>
       <c r="J66" s="21">
-        <v>0.4</v>
+        <v>3.7039831537358783</v>
       </c>
       <c r="K66" s="21">
-        <v>0.3</v>
+        <v>3.418734665969513</v>
       </c>
       <c r="L66" s="21">
-        <v>0.4</v>
+        <v>3.6929535854044109</v>
       </c>
       <c r="M66" s="21">
-        <v>0.38519125988605796</v>
+        <v>3.8519125988605794</v>
       </c>
       <c r="N66" s="21">
-        <v>0.4</v>
+        <v>3.9866146393321813</v>
       </c>
       <c r="O66" s="21">
-        <v>0.37384269400391368</v>
+        <v>3.7384269400391368</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" s="21">
-        <v>0.6</v>
+        <v>6.2802286981983082</v>
       </c>
       <c r="E67" s="21">
-        <v>0.69361709072511546</v>
+        <v>6.9361709072511548</v>
       </c>
       <c r="F67" s="21">
-        <v>0.73597644875363988</v>
+        <v>7.359764487536399</v>
       </c>
       <c r="G67" s="21">
-        <v>0.65853429082128634</v>
+        <v>6.5853429082128629</v>
       </c>
       <c r="H67" s="21">
-        <v>0.7</v>
+        <v>6.7585730194692992</v>
       </c>
       <c r="I67" s="21">
-        <v>0.5</v>
+        <v>5.2613381837860587</v>
       </c>
       <c r="J67" s="21">
-        <v>0.7</v>
+        <v>7.2720862072764936</v>
       </c>
       <c r="K67" s="21">
-        <v>0.8</v>
+        <v>7.949011744485821</v>
       </c>
       <c r="L67" s="21">
-        <v>0.8</v>
+        <v>8.2697025663643622</v>
       </c>
       <c r="M67" s="21">
-        <v>0.86428142586642565</v>
+        <v>8.6428142586642558</v>
       </c>
       <c r="N67" s="21">
-        <v>0.8</v>
+        <v>8.1093161356235246</v>
       </c>
       <c r="O67" s="21">
-        <v>0.72029254958937172</v>
+        <v>7.2029254958937168</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1">
@@ -4020,13 +4025,13 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
@@ -4043,404 +4048,404 @@
     </row>
     <row r="70" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D70" s="19">
-        <v>4.1076233838783997E-2</v>
+        <v>0.41076233838783999</v>
       </c>
       <c r="E70" s="19">
-        <v>2.575700374359137E-2</v>
+        <v>0.25757003743591367</v>
       </c>
       <c r="F70" s="19">
-        <v>5.1208403546234925E-2</v>
+        <v>0.51208403546234926</v>
       </c>
       <c r="G70" s="19">
-        <v>5.4703742878559426E-2</v>
+        <v>0.54703742878559425</v>
       </c>
       <c r="H70" s="19">
-        <v>6.3612562514185594E-2</v>
+        <v>0.636125625141856</v>
       </c>
       <c r="I70" s="19">
-        <v>6.4291267684251793E-2</v>
+        <v>0.64291267684251796</v>
       </c>
       <c r="J70" s="19">
-        <v>5.9607178919253441E-2</v>
+        <v>0.59607178919253445</v>
       </c>
       <c r="K70" s="19">
-        <v>5.3382517704935323E-2</v>
+        <v>0.53382517704935317</v>
       </c>
       <c r="L70" s="19">
-        <v>5.3055794663119181E-2</v>
+        <v>0.53055794663119182</v>
       </c>
       <c r="M70" s="19">
-        <v>5.1659155650262308E-2</v>
+        <v>0.51659155650262312</v>
       </c>
       <c r="N70" s="19">
-        <v>5.0626785215713045E-2</v>
+        <v>0.50626785215713044</v>
       </c>
       <c r="O70" s="19">
-        <v>4.9945734034075442E-2</v>
+        <v>0.49945734034075445</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1">
       <c r="A71" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D71" s="21">
-        <v>5.5156362881281881E-2</v>
+        <v>0.55156362881281884</v>
       </c>
       <c r="E71" s="21">
-        <v>4.0923111522951819E-2</v>
+        <v>0.40923111522951816</v>
       </c>
       <c r="F71" s="21">
-        <v>8.3090839584057025E-2</v>
+        <v>0.8309083958405703</v>
       </c>
       <c r="G71" s="21">
-        <v>9.1780036129827644E-2</v>
+        <v>0.91780036129827647</v>
       </c>
       <c r="H71" s="21">
-        <v>0.10745138412493103</v>
+        <v>1.0745138412493105</v>
       </c>
       <c r="I71" s="21">
-        <v>0.10728674455815962</v>
+        <v>1.0728674455815963</v>
       </c>
       <c r="J71" s="21">
-        <v>0.10233432009013167</v>
+        <v>1.0233432009013168</v>
       </c>
       <c r="K71" s="21">
-        <v>9.0335296092158485E-2</v>
+        <v>0.9033529609215849</v>
       </c>
       <c r="L71" s="21">
-        <v>8.851300023044438E-2</v>
+        <v>0.88513000230444383</v>
       </c>
       <c r="M71" s="21">
-        <v>8.6733620964337871E-2</v>
+        <v>0.86733620964337876</v>
       </c>
       <c r="N71" s="21">
-        <v>8.5261208932143742E-2</v>
+        <v>0.85261208932143739</v>
       </c>
       <c r="O71" s="21">
-        <v>8.1209671012561019E-2</v>
+        <v>0.81209671012561013</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1">
       <c r="A72" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" s="21">
-        <v>2.6630291660872114E-2</v>
+        <v>0.26630291660872113</v>
       </c>
       <c r="E72" s="21">
-        <v>1.0212492796545259E-2</v>
+        <v>0.1021249279654526</v>
       </c>
       <c r="F72" s="21">
-        <v>1.8579404444336461E-2</v>
+        <v>0.18579404444336461</v>
       </c>
       <c r="G72" s="21">
-        <v>1.6803516135751404E-2</v>
+        <v>0.16803516135751406</v>
       </c>
       <c r="H72" s="21">
-        <v>1.8855175454264031E-2</v>
+        <v>0.18855175454264031</v>
       </c>
       <c r="I72" s="21">
-        <v>2.0463659559850168E-2</v>
+        <v>0.20463659559850167</v>
       </c>
       <c r="J72" s="21">
-        <v>1.6105123730078125E-2</v>
+        <v>0.16105123730078127</v>
       </c>
       <c r="K72" s="21">
-        <v>1.5797192419797816E-2</v>
+        <v>0.15797192419797815</v>
       </c>
       <c r="L72" s="21">
-        <v>1.7036667324997146E-2</v>
+        <v>0.17036667324997146</v>
       </c>
       <c r="M72" s="21">
-        <v>1.6061250195360397E-2</v>
+        <v>0.16061250195360399</v>
       </c>
       <c r="N72" s="21">
-        <v>1.5482065999743789E-2</v>
+        <v>0.15482065999743788</v>
       </c>
       <c r="O72" s="21">
-        <v>1.8215953412549838E-2</v>
+        <v>0.18215953412549837</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D73" s="19">
-        <v>2.0403490357083751E-2</v>
+        <v>0.20403490357083753</v>
       </c>
       <c r="E73" s="19">
-        <v>2.005128673562824E-2</v>
+        <v>0.2005128673562824</v>
       </c>
       <c r="F73" s="19">
-        <v>4.1404258101069978E-2</v>
+        <v>0.41404258101069974</v>
       </c>
       <c r="G73" s="19">
-        <v>5.9616834090609076E-2</v>
+        <v>0.59616834090609072</v>
       </c>
       <c r="H73" s="19">
-        <v>3.7446404833082654E-2</v>
+        <v>0.37446404833082653</v>
       </c>
       <c r="I73" s="19">
-        <v>7.3082497959780265E-2</v>
+        <v>0.73082497959780268</v>
       </c>
       <c r="J73" s="19">
-        <v>7.1497515461337716E-2</v>
+        <v>0.71497515461337713</v>
       </c>
       <c r="K73" s="19">
-        <v>5.8412124799451709E-2</v>
+        <v>0.58412124799451703</v>
       </c>
       <c r="L73" s="19">
-        <v>6.4746488931206866E-2</v>
+        <v>0.64746488931206858</v>
       </c>
       <c r="M73" s="19">
-        <v>6.1410772938319397E-2</v>
+        <v>0.61410772938319402</v>
       </c>
       <c r="N73" s="19">
-        <v>6.0191847835008673E-2</v>
+        <v>0.60191847835008672</v>
       </c>
       <c r="O73" s="19">
-        <v>5.9070763194260467E-2</v>
+        <v>0.59070763194260467</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D74" s="21">
-        <v>3.6840554081933388E-2</v>
+        <v>0.36840554081933391</v>
       </c>
       <c r="E74" s="21">
-        <v>3.6189106174313874E-2</v>
+        <v>0.36189106174313879</v>
       </c>
       <c r="F74" s="21">
-        <v>5.7555740521012276E-2</v>
+        <v>0.57555740521012277</v>
       </c>
       <c r="G74" s="21">
-        <v>7.3594347954077127E-2</v>
+        <v>0.73594347954077133</v>
       </c>
       <c r="H74" s="21">
-        <v>5.5015742966448865E-2</v>
+        <v>0.55015742966448866</v>
       </c>
       <c r="I74" s="21">
-        <v>0.11983768192599817</v>
+        <v>1.1983768192599817</v>
       </c>
       <c r="J74" s="21">
-        <v>0.12132143304876718</v>
+        <v>1.2132143304876717</v>
       </c>
       <c r="K74" s="21">
-        <v>9.5173513211273306E-2</v>
+        <v>0.95173513211273297</v>
       </c>
       <c r="L74" s="21">
-        <v>0.10481936130069182</v>
+        <v>1.048193613006918</v>
       </c>
       <c r="M74" s="21">
-        <v>9.4831673779042197E-2</v>
+        <v>0.94831673779042203</v>
       </c>
       <c r="N74" s="21">
-        <v>0.10036353904141669</v>
+        <v>1.0036353904141668</v>
       </c>
       <c r="O74" s="21">
-        <v>0.10577996308644046</v>
+        <v>1.0577996308644046</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1">
       <c r="A75" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D75" s="21">
-        <v>4.4653023679498459E-3</v>
+        <v>4.4653023679498458E-2</v>
       </c>
       <c r="E75" s="21">
-        <v>4.3900468857007392E-3</v>
+        <v>4.3900468857007394E-2</v>
       </c>
       <c r="F75" s="21">
-        <v>2.5748641759147206E-2</v>
+        <v>0.25748641759147206</v>
       </c>
       <c r="G75" s="21">
-        <v>4.6088741777349479E-2</v>
+        <v>0.46088741777349479</v>
       </c>
       <c r="H75" s="21">
-        <v>2.0459018539962601E-2</v>
+        <v>0.20459018539962601</v>
       </c>
       <c r="I75" s="21">
-        <v>2.793296089385475E-2</v>
+        <v>0.27932960893854747</v>
       </c>
       <c r="J75" s="21">
-        <v>2.3415822070973355E-2</v>
+        <v>0.23415822070973355</v>
       </c>
       <c r="K75" s="21">
-        <v>2.2951484387252745E-2</v>
+        <v>0.22951484387252746</v>
       </c>
       <c r="L75" s="21">
-        <v>2.6164409674851143E-2</v>
+        <v>0.26164409674851141</v>
       </c>
       <c r="M75" s="21">
-        <v>2.9224811865273616E-2</v>
+        <v>0.2922481186527362</v>
       </c>
       <c r="N75" s="21">
-        <v>2.1488047273704004E-2</v>
+        <v>0.21488047273704003</v>
       </c>
       <c r="O75" s="21">
-        <v>1.4059852793341255E-2</v>
+        <v>0.14059852793341254</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D76" s="19">
-        <v>1.5434421074158534E-2</v>
+        <v>0.15434421074158533</v>
       </c>
       <c r="E76" s="19">
-        <v>6.639942479126866E-3</v>
+        <v>6.639942479126866E-2</v>
       </c>
       <c r="F76" s="19">
-        <v>8.3589209190354907E-3</v>
+        <v>8.358920919035491E-2</v>
       </c>
       <c r="G76" s="19">
-        <v>1.8195166817838178E-2</v>
+        <v>0.18195166817838176</v>
       </c>
       <c r="H76" s="19">
-        <v>1.6037092011924471E-2</v>
+        <v>0.1603709201192447</v>
       </c>
       <c r="I76" s="19">
-        <v>1.6571887101838607E-2</v>
+        <v>0.16571887101838606</v>
       </c>
       <c r="J76" s="19">
-        <v>1.7112577659016488E-2</v>
+        <v>0.17112577659016487</v>
       </c>
       <c r="K76" s="19">
-        <v>1.5118694349555973E-2</v>
+        <v>0.15118694349555972</v>
       </c>
       <c r="L76" s="19">
-        <v>1.2351443019087921E-2</v>
+        <v>0.12351443019087921</v>
       </c>
       <c r="M76" s="19">
-        <v>1.2916246215943492E-2</v>
+        <v>0.12916246215943492</v>
       </c>
       <c r="N76" s="19">
-        <v>1.1105672857021602E-2</v>
+        <v>0.11105672857021602</v>
       </c>
       <c r="O76" s="19">
-        <v>1.1698159411598179E-2</v>
+        <v>0.11698159411598179</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1">
       <c r="A77" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D77" s="21">
-        <v>2.5108061232767178E-2</v>
+        <v>0.25108061232767181</v>
       </c>
       <c r="E77" s="21">
-        <v>1.3300070490373598E-2</v>
+        <v>0.13300070490373597</v>
       </c>
       <c r="F77" s="21">
-        <v>1.4893058531581661E-2</v>
+        <v>0.14893058531581663</v>
       </c>
       <c r="G77" s="21">
-        <v>3.2838805251289835E-2</v>
+        <v>0.32838805251289838</v>
       </c>
       <c r="H77" s="21">
-        <v>3.0399593718371011E-2</v>
+        <v>0.3039959371837101</v>
       </c>
       <c r="I77" s="21">
-        <v>3.3291747851806171E-2</v>
+        <v>0.33291747851806169</v>
       </c>
       <c r="J77" s="21">
-        <v>3.440013897656146E-2</v>
+        <v>0.34400138976561462</v>
       </c>
       <c r="K77" s="21">
-        <v>2.8725969459225176E-2</v>
+        <v>0.28725969459225176</v>
       </c>
       <c r="L77" s="21">
-        <v>2.3201779245014105E-2</v>
+        <v>0.23201779245014104</v>
       </c>
       <c r="M77" s="21">
-        <v>2.5027932960893857E-2</v>
+        <v>0.22750688208318304</v>
       </c>
       <c r="N77" s="21">
-        <v>1.9167522549791632E-2</v>
+        <v>0.19167522549791632</v>
       </c>
       <c r="O77" s="21">
-        <v>1.8852303201592393E-2</v>
+        <v>0.18852303201592391</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D78" s="21">
-        <v>5.7816613411141643E-3</v>
+        <v>5.7816613411141644E-2</v>
       </c>
       <c r="E78" s="21">
         <v>0</v>
       </c>
       <c r="F78" s="21">
-        <v>1.8534616175900922E-3</v>
+        <v>1.8534616175900923E-2</v>
       </c>
       <c r="G78" s="21">
-        <v>3.6293622666093229E-3</v>
+        <v>3.6293622666093227E-2</v>
       </c>
       <c r="H78" s="21">
-        <v>1.7756312369047198E-3</v>
+        <v>1.7756312369047199E-2</v>
       </c>
       <c r="I78" s="21">
         <v>0</v>
@@ -4449,48 +4454,48 @@
         <v>0</v>
       </c>
       <c r="K78" s="21">
-        <v>1.6700624603360166E-3</v>
+        <v>1.6700624603360165E-2</v>
       </c>
       <c r="L78" s="21">
-        <v>1.6365781768846424E-3</v>
+        <v>1.6365781768846423E-2</v>
       </c>
       <c r="M78" s="21">
-        <v>4.0441622517895419E-3</v>
+        <v>3.2082953685048064E-2</v>
       </c>
       <c r="N78" s="21">
-        <v>3.1518001506560473E-3</v>
+        <v>3.1518001506560471E-2</v>
       </c>
       <c r="O78" s="21">
-        <v>4.6459334144823032E-3</v>
+        <v>4.6459334144823033E-2</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D79" s="19">
-        <v>1.1248087825069739E-2</v>
+        <v>0.11248087825069739</v>
       </c>
       <c r="E79" s="19">
-        <v>1.5624895369004225E-2</v>
+        <v>0.15624895369004224</v>
       </c>
       <c r="F79" s="19">
-        <v>1.1028179203500785E-2</v>
+        <v>0.11028179203500785</v>
       </c>
       <c r="G79" s="19">
-        <v>1.5266376460119862E-2</v>
+        <v>0.15266376460119863</v>
       </c>
       <c r="H79" s="19">
         <v>0</v>
       </c>
       <c r="I79" s="19">
-        <v>1.2763676279133091E-2</v>
+        <v>0.1276367627913309</v>
       </c>
       <c r="J79" s="19">
         <v>0</v>
@@ -4513,31 +4518,31 @@
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D80" s="21">
-        <v>2.2284619155858623E-2</v>
+        <v>0.22284619155858626</v>
       </c>
       <c r="E80" s="21">
-        <v>2.6562659099260231E-2</v>
+        <v>0.26562659099260233</v>
       </c>
       <c r="F80" s="21">
-        <v>2.1883561943610436E-2</v>
+        <v>0.21883561943610436</v>
       </c>
       <c r="G80" s="21">
-        <v>3.0315891590371673E-2</v>
+        <v>0.30315891590371674</v>
       </c>
       <c r="H80" s="21">
         <v>0</v>
       </c>
       <c r="I80" s="21">
-        <v>2.5374055873671034E-2</v>
+        <v>0.25374055873671036</v>
       </c>
       <c r="J80" s="21">
         <v>0</v>
@@ -4560,19 +4565,19 @@
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1">
       <c r="A81" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" s="21">
         <v>0</v>
       </c>
       <c r="E81" s="21">
-        <v>4.5020304157174888E-3</v>
+        <v>4.5020304157174888E-2</v>
       </c>
       <c r="F81" s="21">
         <v>0</v>
@@ -4607,107 +4612,107 @@
     </row>
     <row r="82" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="D82" s="19">
-        <v>2.2888794790510307E-2</v>
+        <v>0.22888794790510306</v>
       </c>
       <c r="E82" s="19">
-        <v>2.6420378415305704E-2</v>
+        <v>0.26420378415305706</v>
       </c>
       <c r="F82" s="19">
-        <v>9.6979101003733692E-2</v>
+        <v>0.96979101003733692</v>
       </c>
       <c r="G82" s="19">
-        <v>9.2136686617330543E-2</v>
+        <v>0.92136686617330543</v>
       </c>
       <c r="H82" s="19">
-        <v>9.1060085086543507E-2</v>
+        <v>0.91060085086543507</v>
       </c>
       <c r="I82" s="19">
-        <v>9.0039797590535028E-2</v>
+        <v>0.9003979759053502</v>
       </c>
       <c r="J82" s="19">
-        <v>8.1838010553545185E-2</v>
+        <v>0.81838010553545193</v>
       </c>
       <c r="K82" s="19">
-        <v>7.3975179565941823E-2</v>
+        <v>0.73975179565941829</v>
       </c>
       <c r="L82" s="19">
-        <v>7.6642234051447836E-2</v>
+        <v>0.76642234051447833</v>
       </c>
       <c r="M82" s="19">
-        <v>6.9055765983820225E-2</v>
+        <v>0.69055765983820228</v>
       </c>
       <c r="N82" s="19">
-        <v>7.188334360238241E-2</v>
+        <v>0.71883343602382421</v>
       </c>
       <c r="O82" s="19">
-        <v>7.4750858785434443E-2</v>
+        <v>0.74750858785434449</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1">
       <c r="A83" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D83" s="21">
-        <v>3.8647641720902189E-2</v>
+        <v>0.38647641720902193</v>
       </c>
       <c r="E83" s="21">
-        <v>4.5938641288119503E-2</v>
+        <v>0.45938641288119503</v>
       </c>
       <c r="F83" s="21">
-        <v>0.18177824568844725</v>
+        <v>1.8177824568844725</v>
       </c>
       <c r="G83" s="21">
-        <v>0.17965820027397877</v>
+        <v>1.7965820027397876</v>
       </c>
       <c r="H83" s="21">
-        <v>0.17739801462055302</v>
+        <v>1.7739801462055302</v>
       </c>
       <c r="I83" s="21">
-        <v>0.18280198888563909</v>
+        <v>1.8280198888563908</v>
       </c>
       <c r="J83" s="21">
-        <v>0.16632918715649408</v>
+        <v>1.6632918715649407</v>
       </c>
       <c r="K83" s="21">
-        <v>0.15059808955566392</v>
+        <v>1.5059808955566394</v>
       </c>
       <c r="L83" s="21">
-        <v>0.15607707369675641</v>
+        <v>1.5607707369675643</v>
       </c>
       <c r="M83" s="21">
-        <v>0.13364846233927014</v>
+        <v>1.3364846233927012</v>
       </c>
       <c r="N83" s="21">
-        <v>0.13251961639058413</v>
+        <v>1.3251961639058414</v>
       </c>
       <c r="O83" s="21">
-        <v>0.12462094462676027</v>
+        <v>1.2462094462676025</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D84" s="21">
         <v>0</v>
@@ -4737,547 +4742,547 @@
         <v>0</v>
       </c>
       <c r="M84" s="21">
-        <v>6.7816380368514216E-3</v>
+        <v>6.7816380368514215E-2</v>
       </c>
       <c r="N84" s="21">
-        <v>1.3444022451517495E-2</v>
+        <v>0.13444022451517496</v>
       </c>
       <c r="O84" s="21">
-        <v>2.6689263576494766E-2</v>
+        <v>0.26689263576494765</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="D85" s="19">
-        <v>1.4148186335151081E-2</v>
+        <v>0.14148186335151081</v>
       </c>
       <c r="E85" s="19">
-        <v>1.4811587889348726E-2</v>
+        <v>0.14811587889348726</v>
       </c>
       <c r="F85" s="19">
-        <v>2.47184652049246E-2</v>
+        <v>0.247184652049246</v>
       </c>
       <c r="G85" s="19">
-        <v>2.9168392463220741E-2</v>
+        <v>0.29168392463220744</v>
       </c>
       <c r="H85" s="19">
-        <v>3.500642327161891E-2</v>
+        <v>0.35006423271618908</v>
       </c>
       <c r="I85" s="19">
-        <v>4.1281111668582539E-2</v>
+        <v>0.41281111668582537</v>
       </c>
       <c r="J85" s="19">
-        <v>3.0290673967495779E-2</v>
+        <v>0.30290673967495779</v>
       </c>
       <c r="K85" s="19">
-        <v>2.7396718177570306E-2</v>
+        <v>0.27396718177570306</v>
       </c>
       <c r="L85" s="19">
-        <v>2.7573604756968483E-2</v>
+        <v>0.27573604756968484</v>
       </c>
       <c r="M85" s="19">
-        <v>1.2426410068608403E-2</v>
+        <v>0.12426410068608403</v>
       </c>
       <c r="N85" s="19">
-        <v>3.1617167834705452E-2</v>
+        <v>0.31617167834705451</v>
       </c>
       <c r="O85" s="19">
-        <v>3.5343931800349199E-2</v>
+        <v>0.35343931800349199</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86" s="21">
-        <v>1.958863858961802E-2</v>
+        <v>0.19588638589618021</v>
       </c>
       <c r="E86" s="21">
-        <v>2.4565885705462049E-2</v>
+        <v>0.24565885705462048</v>
       </c>
       <c r="F86" s="21">
-        <v>3.6068468258030388E-2</v>
+        <v>0.36068468258030389</v>
       </c>
       <c r="G86" s="21">
-        <v>4.0318109887008499E-2</v>
+        <v>0.40318109887008496</v>
       </c>
       <c r="H86" s="21">
-        <v>5.9101751874428475E-2</v>
+        <v>0.59101751874428476</v>
       </c>
       <c r="I86" s="21">
-        <v>7.527382857106249E-2</v>
+        <v>0.75273828571062495</v>
       </c>
       <c r="J86" s="21">
-        <v>5.175804837652255E-2</v>
+        <v>0.51758048376522547</v>
       </c>
       <c r="K86" s="21">
-        <v>5.228090839616012E-2</v>
+        <v>0.5228090839616012</v>
       </c>
       <c r="L86" s="21">
-        <v>4.9714817727400093E-2</v>
+        <v>0.49714817727400096</v>
       </c>
       <c r="M86" s="21">
-        <v>2.0703352020573215E-2</v>
+        <v>0.20703352020573215</v>
       </c>
       <c r="N86" s="21">
-        <v>5.8137760329989928E-2</v>
+        <v>0.58137760329989929</v>
       </c>
       <c r="O86" s="21">
-        <v>6.2918173485423723E-2</v>
+        <v>0.62918173485423723</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D87" s="21">
-        <v>8.7821448456713701E-3</v>
+        <v>8.7821448456713691E-2</v>
       </c>
       <c r="E87" s="21">
-        <v>5.1916227974540281E-3</v>
+        <v>5.1916227974540284E-2</v>
       </c>
       <c r="F87" s="21">
-        <v>1.3536699684933316E-2</v>
+        <v>0.13536699684933315</v>
       </c>
       <c r="G87" s="21">
-        <v>1.819195154987158E-2</v>
+        <v>0.18191951549871579</v>
       </c>
       <c r="H87" s="21">
-        <v>1.1304416635579521E-2</v>
+        <v>0.1130441663557952</v>
       </c>
       <c r="I87" s="21">
-        <v>7.8706815537984698E-3</v>
+        <v>7.8706815537984698E-2</v>
       </c>
       <c r="J87" s="21">
-        <v>9.2315787692151454E-3</v>
+        <v>9.2315787692151458E-2</v>
       </c>
       <c r="K87" s="21">
-        <v>3.0134414556127606E-3</v>
+        <v>3.0134414556127604E-2</v>
       </c>
       <c r="L87" s="21">
-        <v>5.8990350653391867E-3</v>
+        <v>5.8990350653391872E-2</v>
       </c>
       <c r="M87" s="21">
-        <v>4.3362940585544244E-3</v>
+        <v>4.3362940585544241E-2</v>
       </c>
       <c r="N87" s="21">
-        <v>5.6848220934925843E-3</v>
+        <v>5.6848220934925843E-2</v>
       </c>
       <c r="O87" s="21">
-        <v>8.3875143461443289E-3</v>
+        <v>8.3875143461443286E-2</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="D88" s="19">
-        <v>4.74508129186995E-2</v>
+        <v>0.47450812918699498</v>
       </c>
       <c r="E88" s="19">
-        <v>5.9491686036876344E-2</v>
+        <v>0.59491686036876346</v>
       </c>
       <c r="F88" s="19">
-        <v>5.4278389685435857E-2</v>
+        <v>0.54278389685435857</v>
       </c>
       <c r="G88" s="19">
-        <v>8.2194595705332371E-2</v>
+        <v>0.82194595705332374</v>
       </c>
       <c r="H88" s="19">
-        <v>8.4942522226626654E-2</v>
+        <v>0.84942522226626649</v>
       </c>
       <c r="I88" s="19">
-        <v>8.3572110792741169E-2</v>
+        <v>0.83572110792741172</v>
       </c>
       <c r="J88" s="19">
-        <v>9.4062316284538511E-2</v>
+        <v>0.94062316284538516</v>
       </c>
       <c r="K88" s="19">
-        <v>8.881028963738373E-2</v>
+        <v>0.88810289637383721</v>
       </c>
       <c r="L88" s="19">
-        <v>8.3513012845819801E-2</v>
+        <v>0.83513012845819801</v>
       </c>
       <c r="M88" s="19">
-        <v>4.4883303411131059E-2</v>
+        <v>0.44883303411131065</v>
       </c>
       <c r="N88" s="19">
-        <v>8.4872727809471804E-2</v>
+        <v>0.84872727809471793</v>
       </c>
       <c r="O88" s="19">
-        <v>6.933572724054754E-2</v>
+        <v>0.6933572724054754</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D89" s="21">
-        <v>6.9252677048797173E-2</v>
+        <v>0.69252677048797173</v>
       </c>
       <c r="E89" s="21">
-        <v>7.6920447164199504E-2</v>
+        <v>0.76920447164199512</v>
       </c>
       <c r="F89" s="21">
-        <v>9.2440858859615962E-2</v>
+        <v>0.9244085885961596</v>
       </c>
       <c r="G89" s="21">
-        <v>0.14075411084800213</v>
+        <v>1.4075411084800213</v>
       </c>
       <c r="H89" s="21">
-        <v>0.14689320863732069</v>
+        <v>1.4689320863732067</v>
       </c>
       <c r="I89" s="21">
-        <v>0.14465034796444814</v>
+        <v>1.4465034796444816</v>
       </c>
       <c r="J89" s="21">
-        <v>0.15841333206602667</v>
+        <v>1.5841333206602668</v>
       </c>
       <c r="K89" s="21">
-        <v>0.16392546855363094</v>
+        <v>1.6392546855363095</v>
       </c>
       <c r="L89" s="21">
-        <v>0.14585316424601591</v>
+        <v>1.4585316424601591</v>
       </c>
       <c r="M89" s="21">
-        <v>7.566757719984564E-2</v>
+        <v>0.75667577199845637</v>
       </c>
       <c r="N89" s="21">
-        <v>0.13426523350961861</v>
+        <v>1.3426523350961861</v>
       </c>
       <c r="O89" s="21">
-        <v>0.12533360857576786</v>
+        <v>1.2533360857576787</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D90" s="21">
-        <v>2.579535683576956E-2</v>
+        <v>0.25795356835769562</v>
       </c>
       <c r="E90" s="21">
-        <v>4.2257211193090102E-2</v>
+        <v>0.422572111930901</v>
       </c>
       <c r="F90" s="21">
-        <v>1.6595995386313282E-2</v>
+        <v>0.16595995386313284</v>
       </c>
       <c r="G90" s="21">
-        <v>2.4480403437048645E-2</v>
+        <v>0.24480403437048642</v>
       </c>
       <c r="H90" s="21">
-        <v>2.4060053894520723E-2</v>
+        <v>0.24060053894520722</v>
       </c>
       <c r="I90" s="21">
-        <v>2.3651471909935197E-2</v>
+        <v>0.23651471909935196</v>
       </c>
       <c r="J90" s="21">
-        <v>3.1032289096805228E-2</v>
+        <v>0.31032289096805227</v>
       </c>
       <c r="K90" s="21">
-        <v>1.5282107708295127E-2</v>
+        <v>0.15282107708295126</v>
       </c>
       <c r="L90" s="21">
-        <v>2.2528611336397223E-2</v>
+        <v>0.22528611336397225</v>
       </c>
       <c r="M90" s="21">
-        <v>1.4792571170758046E-2</v>
+        <v>0.14792571170758045</v>
       </c>
       <c r="N90" s="21">
-        <v>3.6514741000942083E-2</v>
+        <v>0.3651474100094208</v>
       </c>
       <c r="O90" s="21">
-        <v>1.4451806837149816E-2</v>
+        <v>0.14451806837149817</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="D91" s="19">
-        <v>1.227189613067115E-2</v>
+        <v>0.1227189613067115</v>
       </c>
       <c r="E91" s="19">
-        <v>1.3372543251059774E-2</v>
+        <v>0.13372543251059774</v>
       </c>
       <c r="F91" s="19">
-        <v>1.9085312539885321E-2</v>
+        <v>0.19085312539885321</v>
       </c>
       <c r="G91" s="19">
-        <v>1.2884711118920027E-2</v>
+        <v>0.12884711118920025</v>
       </c>
       <c r="H91" s="19">
-        <v>2.8725099647370678E-2</v>
+        <v>0.28725099647370678</v>
       </c>
       <c r="I91" s="19">
-        <v>2.8169744117312333E-2</v>
+        <v>0.28169744117312334</v>
       </c>
       <c r="J91" s="19">
-        <v>3.7561506967659544E-2</v>
+        <v>0.37561506967659547</v>
       </c>
       <c r="K91" s="19">
-        <v>2.6038050270795723E-2</v>
+        <v>0.26038050270795721</v>
       </c>
       <c r="L91" s="19">
-        <v>2.2313530606194874E-2</v>
+        <v>0.22313530606194876</v>
       </c>
       <c r="M91" s="19">
-        <v>1.8752265898796104E-2</v>
+        <v>0.18752265898796103</v>
       </c>
       <c r="N91" s="19">
-        <v>2.2564472852887842E-2</v>
+        <v>0.22564472852887843</v>
       </c>
       <c r="O91" s="19">
-        <v>1.8266137625199151E-2</v>
+        <v>0.1826613762519915</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1">
       <c r="A92" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D92" s="21">
-        <v>2.1719352184122187E-2</v>
+        <v>0.21719352184122187</v>
       </c>
       <c r="E92" s="21">
-        <v>1.9142144781612056E-2</v>
+        <v>0.19142144781612058</v>
       </c>
       <c r="F92" s="21">
-        <v>2.5838700736168074E-2</v>
+        <v>0.25838700736168074</v>
       </c>
       <c r="G92" s="21">
-        <v>2.307358628136854E-2</v>
+        <v>0.23073586281368541</v>
       </c>
       <c r="H92" s="21">
-        <v>5.4316952999993208E-2</v>
+        <v>0.54316952999993207</v>
       </c>
       <c r="I92" s="21">
-        <v>5.1065605982224725E-2</v>
+        <v>0.51065605982224727</v>
       </c>
       <c r="J92" s="21">
-        <v>6.5295746199787563E-2</v>
+        <v>0.65295746199787563</v>
       </c>
       <c r="K92" s="21">
-        <v>4.0599591867260705E-2</v>
+        <v>0.40599591867260704</v>
       </c>
       <c r="L92" s="21">
-        <v>3.3500837520938027E-2</v>
+        <v>0.33500837520938026</v>
       </c>
       <c r="M92" s="21">
-        <v>2.8741767536584164E-2</v>
+        <v>0.28741767536584162</v>
       </c>
       <c r="N92" s="21">
-        <v>3.8381124566949809E-2</v>
+        <v>0.38381124566949809</v>
       </c>
       <c r="O92" s="21">
-        <v>3.1962348353639418E-2</v>
+        <v>0.31962348353639414</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1">
       <c r="A93" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D93" s="21">
-        <v>2.4969225429657947E-3</v>
+        <v>2.4969225429657946E-2</v>
       </c>
       <c r="E93" s="21">
-        <v>7.413722800904474E-3</v>
+        <v>7.4137228009044737E-2</v>
       </c>
       <c r="F93" s="21">
-        <v>1.211759887354801E-2</v>
+        <v>0.12117598873548009</v>
       </c>
       <c r="G93" s="21">
-        <v>2.3790887614226E-3</v>
+        <v>2.3790887614226E-2</v>
       </c>
       <c r="H93" s="21">
-        <v>2.3338965803747303E-3</v>
+        <v>2.3338965803747305E-2</v>
       </c>
       <c r="I93" s="21">
-        <v>4.5758632365995849E-3</v>
+        <v>4.5758632365995845E-2</v>
       </c>
       <c r="J93" s="21">
-        <v>8.973962049114494E-3</v>
+        <v>8.9739620491144936E-2</v>
       </c>
       <c r="K93" s="21">
-        <v>1.101945374363902E-2</v>
+        <v>0.1101945374363902</v>
       </c>
       <c r="L93" s="21">
-        <v>1.0786718529209356E-2</v>
+        <v>0.10786718529209355</v>
       </c>
       <c r="M93" s="21">
-        <v>8.4604516189074174E-3</v>
+        <v>8.4604516189074178E-2</v>
       </c>
       <c r="N93" s="21">
-        <v>6.2506641330641374E-3</v>
+        <v>6.2506641330641377E-2</v>
       </c>
       <c r="O93" s="21">
-        <v>4.1250636806705702E-3</v>
+        <v>4.1250636806705709E-2</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D94" s="19">
-        <v>1.2793747346751261E-2</v>
+        <v>0.12793747346751261</v>
       </c>
       <c r="E94" s="19">
-        <v>4.5747903888228719E-3</v>
+        <v>4.5747903888228719E-2</v>
       </c>
       <c r="F94" s="19">
-        <v>6.7072380041048301E-3</v>
+        <v>6.7072380041048305E-2</v>
       </c>
       <c r="G94" s="19">
-        <v>1.0920988830012624E-2</v>
+        <v>0.10920988830012625</v>
       </c>
       <c r="H94" s="19">
-        <v>1.3868796913872638E-2</v>
+        <v>0.13868796913872639</v>
       </c>
       <c r="I94" s="19">
-        <v>1.2520071239205351E-2</v>
+        <v>0.12520071239205352</v>
       </c>
       <c r="J94" s="19">
-        <v>1.3260313208597987E-2</v>
+        <v>0.13260313208597987</v>
       </c>
       <c r="K94" s="19">
-        <v>1.297216174090402E-2</v>
+        <v>0.1297216174090402</v>
       </c>
       <c r="L94" s="19">
-        <v>1.8496074451567056E-2</v>
+        <v>0.18496074451567057</v>
       </c>
       <c r="M94" s="19">
-        <v>1.5181489968356082E-2</v>
+        <v>0.15181489968356082</v>
       </c>
       <c r="N94" s="19">
-        <v>7.4482694411470343E-3</v>
+        <v>7.4482694411470332E-2</v>
       </c>
       <c r="O94" s="19">
-        <v>8.1933782937380732E-3</v>
+        <v>8.1933782937380739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D95" s="21">
-        <v>2.3882515393366742E-2</v>
+        <v>0.23882515393366741</v>
       </c>
       <c r="E95" s="21">
-        <v>6.4081203701330334E-3</v>
+        <v>6.408120370133033E-2</v>
       </c>
       <c r="F95" s="21">
-        <v>1.254162250970408E-2</v>
+        <v>0.12541622509704081</v>
       </c>
       <c r="G95" s="21">
-        <v>2.0436524155971553E-2</v>
+        <v>0.20436524155971553</v>
       </c>
       <c r="H95" s="21">
-        <v>2.5988668940342012E-2</v>
+        <v>0.25988668940342013</v>
       </c>
       <c r="I95" s="21">
-        <v>2.3496010573204756E-2</v>
+        <v>0.23496010573204756</v>
       </c>
       <c r="J95" s="21">
-        <v>2.490240174086944E-2</v>
+        <v>0.2490240174086944</v>
       </c>
       <c r="K95" s="21">
-        <v>2.4374512509749806E-2</v>
+        <v>0.24374512509749807</v>
       </c>
       <c r="L95" s="21">
-        <v>3.4798598532231745E-2</v>
+        <v>0.34798598532231745</v>
       </c>
       <c r="M95" s="21">
-        <v>2.8603351955307263E-2</v>
+        <v>0.2860335195530726</v>
       </c>
       <c r="N95" s="21">
-        <v>1.4047878682519697E-2</v>
+        <v>0.14047878682519696</v>
       </c>
       <c r="O95" s="21">
-        <v>1.5445234630275405E-2</v>
+        <v>0.15445234630275406</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1">
       <c r="A96" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D96" s="21">
         <v>0</v>
       </c>
       <c r="E96" s="21">
-        <v>2.4618353967617015E-3</v>
+        <v>2.4618353967617017E-2</v>
       </c>
       <c r="F96" s="21">
         <v>0</v>
@@ -5312,13 +5317,13 @@
     </row>
     <row r="97" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -5327,45 +5332,45 @@
         <v>0</v>
       </c>
       <c r="F97" s="19">
-        <v>3.0715950409098067E-2</v>
+        <v>0.3071595040909807</v>
       </c>
       <c r="G97" s="19">
-        <v>3.3936139726399306E-2</v>
+        <v>0.339361397263993</v>
       </c>
       <c r="H97" s="19">
-        <v>4.0696727983070162E-2</v>
+        <v>0.40696727983070158</v>
       </c>
       <c r="I97" s="19">
-        <v>5.8022940820226798E-2</v>
+        <v>0.58022940820226798</v>
       </c>
       <c r="J97" s="19">
-        <v>6.3846541290977055E-2</v>
+        <v>0.63846541290977055</v>
       </c>
       <c r="K97" s="19">
-        <v>5.1935821174580531E-2</v>
+        <v>0.51935821174580532</v>
       </c>
       <c r="L97" s="19">
-        <v>5.3430220132506943E-2</v>
+        <v>0.53430220132506945</v>
       </c>
       <c r="M97" s="19">
-        <v>4.7995392442325535E-2</v>
+        <v>0.47995392442325535</v>
       </c>
       <c r="N97" s="19">
-        <v>4.0352118796637741E-2</v>
+        <v>0.40352118796637737</v>
       </c>
       <c r="O97" s="19">
-        <v>3.896543765679842E-2</v>
+        <v>0.38965437656798418</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D98" s="21">
         <v>0</v>
@@ -5374,45 +5379,45 @@
         <v>0</v>
       </c>
       <c r="F98" s="21">
-        <v>5.9063692809733698E-2</v>
+        <v>0.59063692809733692</v>
       </c>
       <c r="G98" s="21">
-        <v>6.5384168313379065E-2</v>
+        <v>0.65384168313379054</v>
       </c>
       <c r="H98" s="21">
-        <v>7.1384211240157897E-2</v>
+        <v>0.71384211240157902</v>
       </c>
       <c r="I98" s="21">
-        <v>0.11211783584547359</v>
+        <v>1.1211783584547359</v>
       </c>
       <c r="J98" s="21">
-        <v>0.11660687706205543</v>
+        <v>1.1660687706205544</v>
       </c>
       <c r="K98" s="21">
-        <v>9.384761828151604E-2</v>
+        <v>0.93847618281516043</v>
       </c>
       <c r="L98" s="21">
-        <v>9.0704123150283769E-2</v>
+        <v>0.90704123150283766</v>
       </c>
       <c r="M98" s="21">
-        <v>7.4553147074720896E-2</v>
+        <v>0.74553147074720894</v>
       </c>
       <c r="N98" s="21">
-        <v>6.6443577322203018E-2</v>
+        <v>0.66443577322203029</v>
       </c>
       <c r="O98" s="21">
-        <v>6.4254213031922663E-2</v>
+        <v>0.64254213031922669</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1">
       <c r="A99" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D99" s="21">
         <v>0</v>
@@ -5427,28 +5432,28 @@
         <v>0</v>
       </c>
       <c r="H99" s="21">
-        <v>7.6801966130332945E-3</v>
+        <v>7.6801966130332938E-2</v>
       </c>
       <c r="I99" s="21">
         <v>0</v>
       </c>
       <c r="J99" s="21">
-        <v>7.3455416235116101E-3</v>
+        <v>7.3455416235116103E-2</v>
       </c>
       <c r="K99" s="21">
-        <v>7.1612718418791179E-3</v>
+        <v>7.1612718418791174E-2</v>
       </c>
       <c r="L99" s="21">
-        <v>1.3782837610607272E-2</v>
+        <v>0.13782837610607271</v>
       </c>
       <c r="M99" s="21">
-        <v>1.9792704409154784E-2</v>
+        <v>0.19792704409154785</v>
       </c>
       <c r="N99" s="21">
-        <v>1.2770576591533108E-2</v>
+        <v>0.12770576591533109</v>
       </c>
       <c r="O99" s="21">
-        <v>1.2312693155373875E-2</v>
+        <v>0.12312693155373874</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
@@ -5469,13 +5474,13 @@
     </row>
     <row r="101" spans="1:15" ht="25.5" customHeight="1">
       <c r="A101" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
@@ -5491,671 +5496,671 @@
     </row>
     <row r="102" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D102" s="19">
-        <v>4.4000000000000004</v>
+        <v>43.500644440468669</v>
       </c>
       <c r="E102" s="19">
-        <v>4.5184629084736585</v>
+        <v>45.184629084736585</v>
       </c>
       <c r="F102" s="19">
-        <v>4.5554289471923051</v>
+        <v>45.554289471923049</v>
       </c>
       <c r="G102" s="19">
-        <v>4.5847276151764804</v>
+        <v>45.847276151764802</v>
       </c>
       <c r="H102" s="19">
-        <v>4.5999999999999996</v>
+        <v>45.724709935196607</v>
       </c>
       <c r="I102" s="19">
-        <v>4.5999999999999996</v>
+        <v>46.010618857442836</v>
       </c>
       <c r="J102" s="19">
-        <v>4.5999999999999996</v>
+        <v>46.083189472655611</v>
       </c>
       <c r="K102" s="19">
-        <v>4.5</v>
+        <v>45.333584795891788</v>
       </c>
       <c r="L102" s="19">
-        <v>4.5</v>
+        <v>44.64512090147899</v>
       </c>
       <c r="M102" s="19">
-        <v>4.340595404726491</v>
+        <v>43.405954047264913</v>
       </c>
       <c r="N102" s="19">
-        <v>4.3</v>
+        <v>43.034274182916086</v>
       </c>
       <c r="O102" s="19">
-        <v>4.2027037982322764</v>
+        <v>42.027037982322767</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1">
       <c r="A103" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D103" s="21">
-        <v>8.5</v>
+        <v>84.580299733374858</v>
       </c>
       <c r="E103" s="21">
-        <v>8.7934870334231512</v>
+        <v>87.934870334231505</v>
       </c>
       <c r="F103" s="21">
-        <v>8.8701216861854508</v>
+        <v>88.701216861854505</v>
       </c>
       <c r="G103" s="21">
-        <v>8.942731654694736</v>
+        <v>89.427316546947367</v>
       </c>
       <c r="H103" s="21">
-        <v>8.9</v>
+        <v>89.376046601665294</v>
       </c>
       <c r="I103" s="21">
-        <v>9</v>
+        <v>89.663415812486477</v>
       </c>
       <c r="J103" s="21">
-        <v>9</v>
+        <v>90.196243006885766</v>
       </c>
       <c r="K103" s="21">
-        <v>8.9</v>
+        <v>88.614170977139466</v>
       </c>
       <c r="L103" s="21">
-        <v>8.6999999999999993</v>
+        <v>87.311086858894129</v>
       </c>
       <c r="M103" s="21">
-        <v>8.5026338109566169</v>
+        <v>85.026338109566169</v>
       </c>
       <c r="N103" s="21">
-        <v>8.4</v>
+        <v>84.208158211297615</v>
       </c>
       <c r="O103" s="21">
-        <v>8.2204195244526446</v>
+        <v>82.204195244526446</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1">
       <c r="A104" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D104" s="21">
-        <v>0.1</v>
+        <v>1.353706492760999</v>
       </c>
       <c r="E104" s="21">
-        <v>0.13677445709658831</v>
+        <v>1.3677445709658829</v>
       </c>
       <c r="F104" s="21">
-        <v>0.13970282957183761</v>
+        <v>1.3970282957183762</v>
       </c>
       <c r="G104" s="21">
-        <v>0.12987717679924526</v>
+        <v>1.2987717679924524</v>
       </c>
       <c r="H104" s="21">
-        <v>0.1</v>
+        <v>1.1587362370074985</v>
       </c>
       <c r="I104" s="21">
-        <v>0.2</v>
+        <v>1.5129689281135124</v>
       </c>
       <c r="J104" s="21">
-        <v>0.1</v>
+        <v>1.1700865403893497</v>
       </c>
       <c r="K104" s="21">
-        <v>0.1</v>
+        <v>1.3121341458893288</v>
       </c>
       <c r="L104" s="21">
-        <v>0.1</v>
+        <v>1.3029895565229297</v>
       </c>
       <c r="M104" s="21">
-        <v>0.1164440639163629</v>
+        <v>1.1644406391636291</v>
       </c>
       <c r="N104" s="21">
-        <v>0.1</v>
+        <v>1.2537437760576831</v>
       </c>
       <c r="O104" s="21">
-        <v>0.125122696391121</v>
+        <v>1.2512269639112101</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D105" s="19">
-        <v>5.7</v>
+        <v>57.424490082770156</v>
       </c>
       <c r="E105" s="19">
-        <v>6.0644002771533412</v>
+        <v>60.644002771533415</v>
       </c>
       <c r="F105" s="19">
-        <v>6.2694763450935955</v>
+        <v>62.694763450935959</v>
       </c>
       <c r="G105" s="19">
-        <v>6.2193132992381814</v>
+        <v>62.19313299238182</v>
       </c>
       <c r="H105" s="19">
-        <v>6.4</v>
+        <v>64.324602079939751</v>
       </c>
       <c r="I105" s="19">
-        <v>6.4</v>
+        <v>64.23139542909577</v>
       </c>
       <c r="J105" s="19">
-        <v>6.6</v>
+        <v>65.956458013084045</v>
       </c>
       <c r="K105" s="19">
-        <v>6.6</v>
+        <v>66.219878814311741</v>
       </c>
       <c r="L105" s="19">
-        <v>6.4</v>
+        <v>64.365627231611526</v>
       </c>
       <c r="M105" s="19">
-        <v>6.2285411219562121</v>
+        <v>62.285411219562121</v>
       </c>
       <c r="N105" s="19">
-        <v>6.1</v>
+        <v>61.304485022261858</v>
       </c>
       <c r="O105" s="19">
-        <v>5.9375067125867274</v>
+        <v>59.375067125867268</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1">
       <c r="A106" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D106" s="21">
-        <v>11.6</v>
+        <v>115.54118773946361</v>
       </c>
       <c r="E106" s="21">
-        <v>12.164063312841252</v>
+        <v>121.64063312841252</v>
       </c>
       <c r="F106" s="21">
-        <v>12.560433527547062</v>
+        <v>125.60433527547063</v>
       </c>
       <c r="G106" s="21">
-        <v>12.454761121404701</v>
+        <v>124.54761121404701</v>
       </c>
       <c r="H106" s="21">
-        <v>12.9</v>
+        <v>128.82147814605412</v>
       </c>
       <c r="I106" s="21">
-        <v>12.8</v>
+        <v>128.39161301519871</v>
       </c>
       <c r="J106" s="21">
-        <v>13.2</v>
+        <v>132.11904059010743</v>
       </c>
       <c r="K106" s="21">
-        <v>13.3</v>
+        <v>132.60842840770746</v>
       </c>
       <c r="L106" s="21">
-        <v>12.9</v>
+        <v>129.16074631385246</v>
       </c>
       <c r="M106" s="21">
-        <v>12.529160739687056</v>
+        <v>125.29160739687056</v>
       </c>
       <c r="N106" s="21">
-        <v>12.3</v>
+        <v>123.18695125305737</v>
       </c>
       <c r="O106" s="21">
-        <v>11.956783413701789</v>
+        <v>119.56783413701788</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D107" s="21">
-        <v>0.1</v>
+        <v>1.0716725683079629</v>
       </c>
       <c r="E107" s="21">
-        <v>0.1448715472281244</v>
+        <v>1.4487154722812439</v>
       </c>
       <c r="F107" s="21">
-        <v>0.17165761172764804</v>
+        <v>1.7165761172764802</v>
       </c>
       <c r="G107" s="21">
-        <v>0.18435496710939792</v>
+        <v>1.8435496710939792</v>
       </c>
       <c r="H107" s="21">
-        <v>0.2</v>
+        <v>1.9640657798364096</v>
       </c>
       <c r="I107" s="21">
-        <v>0.2</v>
+        <v>2.2745411013567436</v>
       </c>
       <c r="J107" s="21">
-        <v>0.2</v>
+        <v>2.1074239863876021</v>
       </c>
       <c r="K107" s="21">
-        <v>0.2</v>
+        <v>2.1803910167890108</v>
       </c>
       <c r="L107" s="21">
-        <v>0.2</v>
+        <v>1.9810195896673009</v>
       </c>
       <c r="M107" s="21">
-        <v>0.1607364652590049</v>
+        <v>1.6073646525900491</v>
       </c>
       <c r="N107" s="21">
-        <v>0.2</v>
+        <v>1.6832303697734801</v>
       </c>
       <c r="O107" s="21">
-        <v>0.13708356473507721</v>
+        <v>1.3708356473507723</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D108" s="19">
-        <v>4.3</v>
+        <v>43.129560389101755</v>
       </c>
       <c r="E108" s="19">
-        <v>4.370979277688086</v>
+        <v>43.70979277688086</v>
       </c>
       <c r="F108" s="19">
-        <v>4.4525185428729053</v>
+        <v>44.525185428729053</v>
       </c>
       <c r="G108" s="19">
-        <v>4.4514475619841098</v>
+        <v>44.5144756198411</v>
       </c>
       <c r="H108" s="19">
-        <v>4.3</v>
+        <v>43.371424396693506</v>
       </c>
       <c r="I108" s="19">
-        <v>4.3</v>
+        <v>43.348567840072562</v>
       </c>
       <c r="J108" s="19">
-        <v>4.3</v>
+        <v>43.346159210288761</v>
       </c>
       <c r="K108" s="19">
-        <v>4.3</v>
+        <v>42.995886875209457</v>
       </c>
       <c r="L108" s="19">
-        <v>4.3</v>
+        <v>42.884210162273256</v>
       </c>
       <c r="M108" s="19">
-        <v>4.1824419778002024</v>
+        <v>41.824419778002024</v>
       </c>
       <c r="N108" s="19">
-        <v>4.2</v>
+        <v>42.042904387296062</v>
       </c>
       <c r="O108" s="19">
-        <v>4.0553619293540351</v>
+        <v>40.553619293540351</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1">
       <c r="A109" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D109" s="21">
-        <v>8.5</v>
+        <v>85.251524831872558</v>
       </c>
       <c r="E109" s="21">
-        <v>8.6488458388829468</v>
+        <v>86.488458388829457</v>
       </c>
       <c r="F109" s="21">
-        <v>8.8595081939746407</v>
+        <v>88.595081939746407</v>
       </c>
       <c r="G109" s="21">
-        <v>8.8792480643348686</v>
+        <v>88.792480643348682</v>
       </c>
       <c r="H109" s="21">
-        <v>8.6999999999999993</v>
+        <v>86.692488439213335</v>
       </c>
       <c r="I109" s="21">
-        <v>8.6</v>
+        <v>86.488456524481705</v>
       </c>
       <c r="J109" s="21">
-        <v>8.6999999999999993</v>
+        <v>86.671150151446611</v>
       </c>
       <c r="K109" s="21">
-        <v>8.6</v>
+        <v>85.839955795802297</v>
       </c>
       <c r="L109" s="21">
-        <v>8.5</v>
+        <v>85.316256823809013</v>
       </c>
       <c r="M109" s="21">
-        <v>9.1727374301675972</v>
+        <v>83.381272283486567</v>
       </c>
       <c r="N109" s="21">
-        <v>8.4</v>
+        <v>83.634290058924151</v>
       </c>
       <c r="O109" s="21">
-        <v>8.0907801240167352</v>
+        <v>80.907801240167345</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D110" s="21">
-        <v>0.1</v>
+        <v>1.0985156548116914</v>
       </c>
       <c r="E110" s="21">
-        <v>0.10607808483594836</v>
+        <v>1.0607808483594834</v>
       </c>
       <c r="F110" s="21">
-        <v>6.4871156615653222E-2</v>
+        <v>0.64871156615653225</v>
       </c>
       <c r="G110" s="21">
-        <v>4.7181709465921193E-2</v>
+        <v>0.47181709465921196</v>
       </c>
       <c r="H110" s="21">
-        <v>0</v>
+        <v>0.35512624738094395</v>
       </c>
       <c r="I110" s="21">
-        <v>0.1</v>
+        <v>0.59047460264532625</v>
       </c>
       <c r="J110" s="21">
-        <v>0</v>
+        <v>0.45970122825357801</v>
       </c>
       <c r="K110" s="21">
-        <v>0.1</v>
+        <v>0.65132435953104639</v>
       </c>
       <c r="L110" s="21">
-        <v>0.1</v>
+        <v>0.9819469061307855</v>
       </c>
       <c r="M110" s="21">
-        <v>0.10110405629473855</v>
+        <v>0.80207384212620148</v>
       </c>
       <c r="N110" s="21">
-        <v>0.1</v>
+        <v>1.0085760482099351</v>
       </c>
       <c r="O110" s="21">
-        <v>7.7432223574705056E-2</v>
+        <v>0.7743222357470505</v>
       </c>
     </row>
     <row r="111" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D111" s="19">
-        <v>3.3</v>
+        <v>32.776927922253215</v>
       </c>
       <c r="E111" s="19">
-        <v>3.3660488880654817</v>
+        <v>33.660488880654817</v>
       </c>
       <c r="F111" s="19">
-        <v>3.3900622871561414</v>
+        <v>33.900622871561417</v>
       </c>
       <c r="G111" s="19">
-        <v>3.330250979229004</v>
+        <v>33.302509792290039</v>
       </c>
       <c r="H111" s="19">
-        <v>3.5</v>
+        <v>35.288233949997199</v>
       </c>
       <c r="I111" s="19">
-        <v>3.5</v>
+        <v>35.206473736608771</v>
       </c>
       <c r="J111" s="19">
-        <v>3.6</v>
+        <v>35.55247923483514</v>
       </c>
       <c r="K111" s="19">
-        <v>3.5</v>
+        <v>35.011584258659212</v>
       </c>
       <c r="L111" s="19">
-        <v>3.5</v>
+        <v>35.302645146141515</v>
       </c>
       <c r="M111" s="19">
-        <v>3.5439975808890232</v>
+        <v>35.439975808890232</v>
       </c>
       <c r="N111" s="19">
-        <v>3.6</v>
+        <v>35.542592338021208</v>
       </c>
       <c r="O111" s="19">
-        <v>3.4315014202383471</v>
+        <v>34.315014202383473</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D112" s="21">
-        <v>6.4</v>
+        <v>64.135133930561125</v>
       </c>
       <c r="E112" s="21">
-        <v>6.5786852369167841</v>
+        <v>65.786852369167832</v>
       </c>
       <c r="F112" s="21">
-        <v>6.639472693691407</v>
+        <v>66.394726936914068</v>
       </c>
       <c r="G112" s="21">
-        <v>6.5352400585529784</v>
+        <v>65.352400585529793</v>
       </c>
       <c r="H112" s="21">
-        <v>6.9</v>
+        <v>69.129457115322836</v>
       </c>
       <c r="I112" s="21">
-        <v>6.9</v>
+        <v>69.313462628244707</v>
       </c>
       <c r="J112" s="21">
-        <v>7</v>
+        <v>69.940867416986947</v>
       </c>
       <c r="K112" s="21">
-        <v>6.9</v>
+        <v>68.72753059137834</v>
       </c>
       <c r="L112" s="21">
-        <v>6.9</v>
+        <v>69.45319838484717</v>
       </c>
       <c r="M112" s="21">
-        <v>6.9930350816590483</v>
+        <v>69.93035081659049</v>
       </c>
       <c r="N112" s="21">
-        <v>7</v>
+        <v>70.023288198397992</v>
       </c>
       <c r="O112" s="21">
-        <v>6.7507990741761272</v>
+        <v>67.507990741761276</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1">
       <c r="A113" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D113" s="21">
-        <v>0.1</v>
+        <v>0.81762434703611164</v>
       </c>
       <c r="E113" s="21">
-        <v>9.9044669145784747E-2</v>
+        <v>0.99044669145784747</v>
       </c>
       <c r="F113" s="21">
-        <v>8.8927621808609969E-2</v>
+        <v>0.88927621808609969</v>
       </c>
       <c r="G113" s="21">
-        <v>7.9078472203917019E-2</v>
+        <v>0.79078472203917016</v>
       </c>
       <c r="H113" s="21">
-        <v>0.1</v>
+        <v>0.99818157356815196</v>
       </c>
       <c r="I113" s="21">
-        <v>0.1</v>
+        <v>0.68486700738800288</v>
       </c>
       <c r="J113" s="21">
-        <v>0.1</v>
+        <v>0.80125163940302535</v>
       </c>
       <c r="K113" s="21">
-        <v>0.1</v>
+        <v>0.99820738590281621</v>
       </c>
       <c r="L113" s="21">
-        <v>0.1</v>
+        <v>0.86120634504027171</v>
       </c>
       <c r="M113" s="21">
-        <v>6.8801398691964E-2</v>
+        <v>0.68801398691964</v>
       </c>
       <c r="N113" s="21">
-        <v>0.1</v>
+        <v>0.76038323314950729</v>
       </c>
       <c r="O113" s="21">
-        <v>8.3380648542625377E-2</v>
+        <v>0.8338064854262538</v>
       </c>
     </row>
     <row r="114" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B114" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="D114" s="19">
-        <v>4.4000000000000004</v>
+        <v>43.87019001514475</v>
       </c>
       <c r="E114" s="19">
-        <v>4.4159775351296675</v>
+        <v>44.15977535129668</v>
       </c>
       <c r="F114" s="19">
-        <v>4.1701013431605496</v>
+        <v>41.701013431605496</v>
       </c>
       <c r="G114" s="19">
-        <v>4.1019252882035557</v>
+        <v>41.019252882035559</v>
       </c>
       <c r="H114" s="19">
-        <v>4.0999999999999996</v>
+        <v>40.977038288944577</v>
       </c>
       <c r="I114" s="19">
-        <v>4.2</v>
+        <v>41.562370567790964</v>
       </c>
       <c r="J114" s="19">
-        <v>4.2</v>
+        <v>41.666221894870183</v>
       </c>
       <c r="K114" s="19">
-        <v>4.0999999999999996</v>
+        <v>41.320421728976072</v>
       </c>
       <c r="L114" s="19">
-        <v>4.0999999999999996</v>
+        <v>41.108107354867485</v>
       </c>
       <c r="M114" s="19">
-        <v>4.0017816387623828</v>
+        <v>40.017816387623824</v>
       </c>
       <c r="N114" s="19">
-        <v>4</v>
+        <v>39.501608817690148</v>
       </c>
       <c r="O114" s="19">
-        <v>3.9923754124038857</v>
+        <v>39.923754124038858</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1">
       <c r="A115" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B115" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D115" s="21">
-        <v>8.9</v>
+        <v>88.580394824307831</v>
       </c>
       <c r="E115" s="21">
-        <v>8.8967835294658091</v>
+        <v>88.967835294658101</v>
       </c>
       <c r="F115" s="21">
-        <v>8.4299661438017406</v>
+        <v>84.299661438017395</v>
       </c>
       <c r="G115" s="21">
-        <v>8.2942202459820198</v>
+        <v>82.942202459820194</v>
       </c>
       <c r="H115" s="21">
-        <v>8.1999999999999993</v>
+        <v>82.416160959131929</v>
       </c>
       <c r="I115" s="21">
-        <v>8.3000000000000007</v>
+        <v>83.284586136297165</v>
       </c>
       <c r="J115" s="21">
-        <v>8.3000000000000007</v>
+        <v>83.164593578247036</v>
       </c>
       <c r="K115" s="21">
-        <v>8.3000000000000007</v>
+        <v>82.757235879636255</v>
       </c>
       <c r="L115" s="21">
-        <v>8.3000000000000007</v>
+        <v>82.791793183688526</v>
       </c>
       <c r="M115" s="21">
-        <v>8.0892490363242455</v>
+        <v>80.892490363242459</v>
       </c>
       <c r="N115" s="21">
-        <v>8</v>
+        <v>79.651264167393194</v>
       </c>
       <c r="O115" s="21">
-        <v>8.0518977000512333</v>
+        <v>80.518977000512322</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1">
       <c r="A116" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D116" s="21">
         <v>0</v>
@@ -6185,718 +6190,718 @@
         <v>0</v>
       </c>
       <c r="M116" s="21">
-        <v>0</v>
+        <v>0.61034742331662795</v>
       </c>
       <c r="N116" s="21">
-        <v>0.1</v>
+        <v>0.80664134709104962</v>
       </c>
       <c r="O116" s="21">
-        <v>8.0067790729484292E-2</v>
+        <v>0.80067790729484301</v>
       </c>
     </row>
     <row r="117" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="D117" s="19">
-        <v>4.5999999999999996</v>
+        <v>46.02581867153836</v>
       </c>
       <c r="E117" s="19">
-        <v>4.7693313003702897</v>
+        <v>47.69331300370289</v>
       </c>
       <c r="F117" s="19">
-        <v>4.8175436323528906</v>
+        <v>48.175436323528913</v>
       </c>
       <c r="G117" s="19">
-        <v>4.9319584742097238</v>
+        <v>49.319584742097234</v>
       </c>
       <c r="H117" s="19">
-        <v>4.9000000000000004</v>
+        <v>49.464890185664295</v>
       </c>
       <c r="I117" s="19">
-        <v>5</v>
+        <v>50.227998755215708</v>
       </c>
       <c r="J117" s="19">
-        <v>5</v>
+        <v>49.870876293664203</v>
       </c>
       <c r="K117" s="19">
-        <v>4.9000000000000004</v>
+        <v>48.92597254544431</v>
       </c>
       <c r="L117" s="19">
-        <v>4.7</v>
+        <v>46.919842040506374</v>
       </c>
       <c r="M117" s="19">
-        <v>4.582421454123887</v>
+        <v>45.824214541238867</v>
       </c>
       <c r="N117" s="19">
-        <v>4.4000000000000004</v>
+        <v>44.321520728287091</v>
       </c>
       <c r="O117" s="19">
-        <v>4.4271808973117404</v>
+        <v>44.271808973117409</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1">
       <c r="A118" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B118" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D118" s="21">
-        <v>9.1</v>
+        <v>91.10497729498708</v>
       </c>
       <c r="E118" s="21">
-        <v>9.4719036455774397</v>
+        <v>94.719036455774386</v>
       </c>
       <c r="F118" s="21">
-        <v>9.5615791805931032</v>
+        <v>95.615791805931039</v>
       </c>
       <c r="G118" s="21">
-        <v>9.8107400725054017</v>
+        <v>98.107400725054006</v>
       </c>
       <c r="H118" s="21">
-        <v>9.9</v>
+        <v>98.568588403907953</v>
       </c>
       <c r="I118" s="21">
-        <v>10</v>
+        <v>99.649736461521456</v>
       </c>
       <c r="J118" s="21">
-        <v>10</v>
+        <v>99.830296338353335</v>
       </c>
       <c r="K118" s="21">
-        <v>9.8000000000000007</v>
+        <v>97.580777847656506</v>
       </c>
       <c r="L118" s="21">
-        <v>9.4</v>
+        <v>93.554247905198366</v>
       </c>
       <c r="M118" s="21">
-        <v>9.142008727941688</v>
+        <v>91.420087279416876</v>
       </c>
       <c r="N118" s="21">
-        <v>8.8000000000000007</v>
+        <v>88.02056913960476</v>
       </c>
       <c r="O118" s="21">
-        <v>8.7613556578452521</v>
+        <v>87.613556578452531</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D119" s="21">
-        <v>0.2</v>
+        <v>1.5632217825295034</v>
       </c>
       <c r="E119" s="21">
-        <v>0.13152111086883539</v>
+        <v>1.3152111086883538</v>
       </c>
       <c r="F119" s="21">
-        <v>0.14382743415241647</v>
+        <v>1.4382743415241648</v>
       </c>
       <c r="G119" s="21">
-        <v>0.1289974746263621</v>
+        <v>1.2899747462636211</v>
       </c>
       <c r="H119" s="21">
-        <v>0.1</v>
+        <v>1.162739996802465</v>
       </c>
       <c r="I119" s="21">
-        <v>0.2</v>
+        <v>1.6528431262976786</v>
       </c>
       <c r="J119" s="21">
-        <v>0.1</v>
+        <v>0.86161401846008034</v>
       </c>
       <c r="K119" s="21">
-        <v>0.1</v>
+        <v>1.2505782040792957</v>
       </c>
       <c r="L119" s="21">
-        <v>0.1</v>
+        <v>1.2682925390479252</v>
       </c>
       <c r="M119" s="21">
-        <v>0.12575252769807829</v>
+        <v>1.257525276980783</v>
       </c>
       <c r="N119" s="21">
-        <v>0.2</v>
+        <v>1.5917501861779235</v>
       </c>
       <c r="O119" s="21">
-        <v>0.19011699184593814</v>
+        <v>1.9011699184593813</v>
       </c>
     </row>
     <row r="120" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="D120" s="19">
-        <v>3.9</v>
+        <v>39.47044892782732</v>
       </c>
       <c r="E120" s="19">
-        <v>4.0411852443620999</v>
+        <v>40.411852443621001</v>
       </c>
       <c r="F120" s="19">
-        <v>4.154384441308359</v>
+        <v>41.54384441308359</v>
       </c>
       <c r="G120" s="19">
-        <v>4.0645227576286853</v>
+        <v>40.645227576286857</v>
       </c>
       <c r="H120" s="19">
-        <v>4.0999999999999996</v>
+        <v>40.89375712910455</v>
       </c>
       <c r="I120" s="19">
-        <v>4</v>
+        <v>40.273798153454308</v>
       </c>
       <c r="J120" s="19">
-        <v>4</v>
+        <v>39.937291789143636</v>
       </c>
       <c r="K120" s="19">
-        <v>3.9</v>
+        <v>39.230980118079067</v>
       </c>
       <c r="L120" s="19">
-        <v>3.8</v>
+        <v>38.49190682984603</v>
       </c>
       <c r="M120" s="19">
-        <v>3.8188210652304009</v>
+        <v>38.188210652304008</v>
       </c>
       <c r="N120" s="19">
-        <v>3.8</v>
+        <v>38.487937002295254</v>
       </c>
       <c r="O120" s="19">
-        <v>3.8536067350535892</v>
+        <v>38.536067350535887</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1">
       <c r="A121" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D121" s="21">
-        <v>7.8</v>
+        <v>78.428656757762795</v>
       </c>
       <c r="E121" s="21">
-        <v>7.9997265050767501</v>
+        <v>79.997265050767496</v>
       </c>
       <c r="F121" s="21">
-        <v>8.2104290096222527</v>
+        <v>82.104290096222527</v>
       </c>
       <c r="G121" s="21">
-        <v>8.0561029326532978</v>
+        <v>80.561029326532974</v>
       </c>
       <c r="H121" s="21">
-        <v>8.1</v>
+        <v>81.444123455581121</v>
       </c>
       <c r="I121" s="21">
-        <v>8.1</v>
+        <v>80.522027033542813</v>
       </c>
       <c r="J121" s="21">
-        <v>8</v>
+        <v>79.99873269334347</v>
       </c>
       <c r="K121" s="21">
-        <v>7.9</v>
+        <v>78.528105411882265</v>
       </c>
       <c r="L121" s="21">
-        <v>7.7</v>
+        <v>76.995117757238916</v>
       </c>
       <c r="M121" s="21">
-        <v>7.6651255703443626</v>
+        <v>76.651255703443624</v>
       </c>
       <c r="N121" s="21">
-        <v>7.7</v>
+        <v>77.127917471636465</v>
       </c>
       <c r="O121" s="21">
-        <v>7.7411934708562491</v>
+        <v>77.411934708562498</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1">
       <c r="A122" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D122" s="21">
-        <v>0.1</v>
+        <v>0.7738607050730868</v>
       </c>
       <c r="E122" s="21">
-        <v>0.12677163357927029</v>
+        <v>1.2677163357927028</v>
       </c>
       <c r="F122" s="21">
-        <v>0.14936395847681955</v>
+        <v>1.4936395847681954</v>
       </c>
       <c r="G122" s="21">
-        <v>0.13056215166425944</v>
+        <v>1.3056215166425944</v>
       </c>
       <c r="H122" s="21">
-        <v>0.1</v>
+        <v>1.0426023354292313</v>
       </c>
       <c r="I122" s="21">
-        <v>0.1</v>
+        <v>0.78838239699783985</v>
       </c>
       <c r="J122" s="21">
-        <v>0.1</v>
+        <v>0.69822650467811753</v>
       </c>
       <c r="K122" s="21">
-        <v>0.1</v>
+        <v>0.76410538541475637</v>
       </c>
       <c r="L122" s="21">
-        <v>0.1</v>
+        <v>0.82604908233456487</v>
       </c>
       <c r="M122" s="21">
-        <v>5.9170284683032183E-2</v>
+        <v>0.59170284683032182</v>
       </c>
       <c r="N122" s="21">
-        <v>0.1</v>
+        <v>0.65726533801695741</v>
       </c>
       <c r="O122" s="21">
-        <v>4.3355420511449444E-2</v>
+        <v>0.4335542051144945</v>
       </c>
     </row>
     <row r="123" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="D123" s="19">
-        <v>2.6</v>
+        <v>25.672806705364046</v>
       </c>
       <c r="E123" s="19">
-        <v>2.7340772519666756</v>
+        <v>27.340772519666753</v>
       </c>
       <c r="F123" s="19">
-        <v>2.7280068611698578</v>
+        <v>27.280068611698578</v>
       </c>
       <c r="G123" s="19">
-        <v>2.7666988784444642</v>
+        <v>27.666988784444641</v>
       </c>
       <c r="H123" s="19">
-        <v>2.7</v>
+        <v>26.783282911208421</v>
       </c>
       <c r="I123" s="19">
-        <v>2.7</v>
+        <v>27.178169124382944</v>
       </c>
       <c r="J123" s="19">
-        <v>2.7</v>
+        <v>27.066380020813494</v>
       </c>
       <c r="K123" s="19">
-        <v>2.7</v>
+        <v>26.602208026662964</v>
       </c>
       <c r="L123" s="19">
-        <v>2.6</v>
+        <v>26.457472004488206</v>
       </c>
       <c r="M123" s="19">
-        <v>2.5638514653854005</v>
+        <v>25.638514653854006</v>
       </c>
       <c r="N123" s="19">
-        <v>2.5</v>
+        <v>25.446571430915789</v>
       </c>
       <c r="O123" s="19">
-        <v>2.5532001258333925</v>
+        <v>25.532001258333924</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="15" customHeight="1">
       <c r="A124" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D124" s="21">
-        <v>5</v>
+        <v>50.219968772398083</v>
       </c>
       <c r="E124" s="21">
-        <v>5.3502294664605694</v>
+        <v>53.502294664605692</v>
       </c>
       <c r="F124" s="21">
-        <v>5.3439131067983974</v>
+        <v>53.439131067983972</v>
       </c>
       <c r="G124" s="21">
-        <v>5.4107559829809233</v>
+        <v>54.107559829809233</v>
       </c>
       <c r="H124" s="21">
-        <v>5.3</v>
+        <v>52.506387899993442</v>
       </c>
       <c r="I124" s="21">
-        <v>5.3</v>
+        <v>52.686383911225782</v>
       </c>
       <c r="J124" s="21">
-        <v>5.3</v>
+        <v>52.824258675628144</v>
       </c>
       <c r="K124" s="21">
-        <v>5.2</v>
+        <v>51.753795527634438</v>
       </c>
       <c r="L124" s="21">
-        <v>5.2</v>
+        <v>51.654103852596315</v>
       </c>
       <c r="M124" s="21">
-        <v>4.97232578382906</v>
+        <v>49.723257838290607</v>
       </c>
       <c r="N124" s="21">
-        <v>4.9000000000000004</v>
+        <v>49.491450099487913</v>
       </c>
       <c r="O124" s="21">
-        <v>4.9581592883583143</v>
+        <v>49.581592883583141</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1">
       <c r="A125" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D125" s="21">
-        <v>0</v>
+        <v>0.27466147972623745</v>
       </c>
       <c r="E125" s="21">
-        <v>3.2126132137252725E-2</v>
+        <v>0.32126132137252722</v>
       </c>
       <c r="F125" s="21">
-        <v>2.9082237296515222E-2</v>
+        <v>0.29082237296515223</v>
       </c>
       <c r="G125" s="21">
-        <v>4.04445089441842E-2</v>
+        <v>0.40444508944184204</v>
       </c>
       <c r="H125" s="21">
-        <v>0</v>
+        <v>0.25672862384122036</v>
       </c>
       <c r="I125" s="21">
-        <v>0.1</v>
+        <v>0.892293331136919</v>
       </c>
       <c r="J125" s="21">
-        <v>0.1</v>
+        <v>0.51600281782408342</v>
       </c>
       <c r="K125" s="21">
-        <v>0.1</v>
+        <v>0.66116722461834121</v>
       </c>
       <c r="L125" s="21">
-        <v>0</v>
+        <v>0.49618905234363031</v>
       </c>
       <c r="M125" s="21">
-        <v>8.2489403284347312E-2</v>
+        <v>0.82489403284347307</v>
       </c>
       <c r="N125" s="21">
-        <v>0.1</v>
+        <v>0.64590196041662762</v>
       </c>
       <c r="O125" s="21">
-        <v>7.0126082571399698E-2</v>
+        <v>0.70126082571399695</v>
       </c>
     </row>
     <row r="126" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B126" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D126" s="19">
-        <v>3.1</v>
+        <v>30.995760617356463</v>
       </c>
       <c r="E126" s="19">
-        <v>3.2160776433424791</v>
+        <v>32.160776433424793</v>
       </c>
       <c r="F126" s="19">
-        <v>3.1758771949436371</v>
+        <v>31.758771949436369</v>
       </c>
       <c r="G126" s="19">
-        <v>3.1234028053836105</v>
+        <v>31.234028053836106</v>
       </c>
       <c r="H126" s="19">
-        <v>3</v>
+        <v>30.329992020107621</v>
       </c>
       <c r="I126" s="19">
-        <v>3.1</v>
+        <v>30.91414256813788</v>
       </c>
       <c r="J126" s="19">
-        <v>3.1</v>
+        <v>30.763926643947332</v>
       </c>
       <c r="K126" s="19">
-        <v>3</v>
+        <v>30.05550089507916</v>
       </c>
       <c r="L126" s="19">
-        <v>2.9</v>
+        <v>29.447697482100182</v>
       </c>
       <c r="M126" s="19">
-        <v>2.9110507014322788</v>
+        <v>29.110507014322788</v>
       </c>
       <c r="N126" s="19">
-        <v>2.9</v>
+        <v>28.619975327607477</v>
       </c>
       <c r="O126" s="19">
-        <v>2.7429609776703132</v>
+        <v>27.429609776703131</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1">
       <c r="A127" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D127" s="21">
-        <v>5.6</v>
+        <v>56.406159083606177</v>
       </c>
       <c r="E127" s="21">
-        <v>5.8591580584249696</v>
+        <v>58.591580584249698</v>
       </c>
       <c r="F127" s="21">
-        <v>5.7461533798627524</v>
+        <v>57.461533798627528</v>
       </c>
       <c r="G127" s="21">
-        <v>5.6874846726068826</v>
+        <v>56.874846726068832</v>
       </c>
       <c r="H127" s="21">
-        <v>5.6</v>
+        <v>55.755690518933747</v>
       </c>
       <c r="I127" s="21">
-        <v>5.7</v>
+        <v>56.644965490234469</v>
       </c>
       <c r="J127" s="21">
-        <v>5.6</v>
+        <v>56.413517789892694</v>
       </c>
       <c r="K127" s="21">
-        <v>5.5</v>
+        <v>54.880152396952063</v>
       </c>
       <c r="L127" s="21">
-        <v>5.4</v>
+        <v>53.809622361945721</v>
       </c>
       <c r="M127" s="21">
-        <v>5.3970949720670385</v>
+        <v>53.97094972067039</v>
       </c>
       <c r="N127" s="21">
-        <v>5.3</v>
+        <v>53.100981419924459</v>
       </c>
       <c r="O127" s="21">
-        <v>5.0729015074548993</v>
+        <v>50.729015074548997</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1">
       <c r="A128" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D128" s="21">
-        <v>0.2</v>
+        <v>1.6783272838402132</v>
       </c>
       <c r="E128" s="21">
-        <v>0.16986664237655744</v>
+        <v>1.6986664237655742</v>
       </c>
       <c r="F128" s="21">
-        <v>0.22107466316151186</v>
+        <v>2.2107466316151188</v>
       </c>
       <c r="G128" s="21">
-        <v>0.18060363834238696</v>
+        <v>1.8060363834238697</v>
       </c>
       <c r="H128" s="21">
-        <v>0.1</v>
+        <v>1.235307843289762</v>
       </c>
       <c r="I128" s="21">
-        <v>0.2</v>
+        <v>1.5634213018385834</v>
       </c>
       <c r="J128" s="21">
-        <v>0.2</v>
+        <v>1.5490987954120492</v>
       </c>
       <c r="K128" s="21">
-        <v>0.2</v>
+        <v>1.8131321965349976</v>
       </c>
       <c r="L128" s="21">
-        <v>0.2</v>
+        <v>1.807807233722462</v>
       </c>
       <c r="M128" s="21">
-        <v>9.9081975168843775E-2</v>
+        <v>0.99081975168843772</v>
       </c>
       <c r="N128" s="21">
-        <v>0.1</v>
+        <v>0.99089565076080965</v>
       </c>
       <c r="O128" s="21">
-        <v>0.11051994788111931</v>
+        <v>1.1051994788111932</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D129" s="19">
-        <v>3.9</v>
+        <v>39.398546787728606</v>
       </c>
       <c r="E129" s="19">
-        <v>4.4284106188049153</v>
+        <v>44.284106188049151</v>
       </c>
       <c r="F129" s="19">
-        <v>4.5152447101374156</v>
+        <v>45.152447101374158</v>
       </c>
       <c r="G129" s="19">
-        <v>4.6643338712839926</v>
+        <v>46.643338712839927</v>
       </c>
       <c r="H129" s="19">
-        <v>4.8</v>
+        <v>47.874150918266174</v>
       </c>
       <c r="I129" s="19">
-        <v>4.8</v>
+        <v>47.72386882463654</v>
       </c>
       <c r="J129" s="19">
-        <v>4.9000000000000004</v>
+        <v>48.878074388314658</v>
       </c>
       <c r="K129" s="19">
-        <v>4.5999999999999996</v>
+        <v>46.499871891641099</v>
       </c>
       <c r="L129" s="19">
-        <v>4.7</v>
+        <v>46.818230391109211</v>
       </c>
       <c r="M129" s="19">
-        <v>4.4155761046939501</v>
+        <v>44.155761046939496</v>
       </c>
       <c r="N129" s="19">
-        <v>4.3</v>
+        <v>42.773245924436004</v>
       </c>
       <c r="O129" s="19">
-        <v>4.0134400786502376</v>
+        <v>40.134400786502376</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1">
       <c r="A130" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D130" s="21">
-        <v>7.5</v>
+        <v>74.977484238967278</v>
       </c>
       <c r="E130" s="21">
-        <v>8.4244797527418953</v>
+        <v>84.244797527418953</v>
       </c>
       <c r="F130" s="21">
-        <v>8.6011502654174699</v>
+        <v>86.011502654174691</v>
       </c>
       <c r="G130" s="21">
-        <v>8.9140416133906779</v>
+        <v>89.140416133906783</v>
       </c>
       <c r="H130" s="21">
-        <v>9.1999999999999993</v>
+        <v>91.585943021122603</v>
       </c>
       <c r="I130" s="21">
-        <v>9</v>
+        <v>90.254857855606247</v>
       </c>
       <c r="J130" s="21">
-        <v>9.4</v>
+        <v>93.559870772143299</v>
       </c>
       <c r="K130" s="21">
-        <v>8.9</v>
+        <v>89.356339406614921</v>
       </c>
       <c r="L130" s="21">
-        <v>9</v>
+        <v>90.05623655635317</v>
       </c>
       <c r="M130" s="21">
-        <v>8.3623779968811931</v>
+        <v>83.623779968811931</v>
       </c>
       <c r="N130" s="21">
-        <v>8.1999999999999993</v>
+        <v>82.148422871087377</v>
       </c>
       <c r="O130" s="21">
-        <v>7.7338707322059639</v>
+        <v>77.338707322059633</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A131" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D131" s="26">
-        <v>0.1</v>
+        <v>0.73405270498421793</v>
       </c>
       <c r="E131" s="26">
-        <v>8.1602010673542988E-2</v>
+        <v>0.81602010673542991</v>
       </c>
       <c r="F131" s="26">
-        <v>8.7997184090109121E-2</v>
+        <v>0.87997184090109115</v>
       </c>
       <c r="G131" s="26">
-        <v>7.8396939383486464E-2</v>
+        <v>0.78396939383486475</v>
       </c>
       <c r="H131" s="26">
-        <v>0.1</v>
+        <v>0.8448216274336624</v>
       </c>
       <c r="I131" s="26">
-        <v>0.2</v>
+        <v>2.1045352735144238</v>
       </c>
       <c r="J131" s="26">
-        <v>0.1</v>
+        <v>1.0283758272916255</v>
       </c>
       <c r="K131" s="26">
-        <v>0.1</v>
+        <v>0.71612718418791177</v>
       </c>
       <c r="L131" s="26">
-        <v>0.1</v>
+        <v>0.82697025663643631</v>
       </c>
       <c r="M131" s="26">
-        <v>0.22431731663708757</v>
+        <v>2.2431731663708758</v>
       </c>
       <c r="N131" s="26">
-        <v>0.1</v>
+        <v>1.1493518932379796</v>
       </c>
       <c r="O131" s="26">
-        <v>9.2345198665304065E-2</v>
+        <v>0.92345198665304062</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1"/>

--- a/ru/downloads/data-excel/3.c.1.xlsx
+++ b/ru/downloads/data-excel/3.c.1.xlsx
@@ -1049,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1062,7 +1062,7 @@
     <col min="11" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30.75" customHeight="1">
+    <row r="1" spans="1:16" ht="30.75" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1084,8 +1084,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:15" ht="12.75" thickBot="1">
+    <row r="3" spans="1:16" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:16" ht="12.75" thickBot="1">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1125,8 +1125,11 @@
       <c r="O4" s="16">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="P4" s="16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1151,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
@@ -1194,8 +1197,11 @@
       <c r="O6" s="19">
         <v>18.94084513221021</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
+      <c r="P6" s="19">
+        <v>17.605458686851609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -1241,8 +1247,11 @@
       <c r="O7" s="21">
         <v>25.639893956646979</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
+      <c r="P7" s="21">
+        <v>23.512267196507903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
@@ -1288,8 +1297,11 @@
       <c r="O8" s="21">
         <v>12.141978127119284</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
+      <c r="P8" s="21">
+        <v>11.567974926285048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1335,8 +1347,11 @@
       <c r="O9" s="19">
         <v>14.499187329500298</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+      <c r="P9" s="19">
+        <v>13.890397233831612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
@@ -1382,8 +1397,11 @@
       <c r="O10" s="21">
         <v>17.398980135252447</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+      <c r="P10" s="21">
+        <v>15.251616282073513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
@@ -1429,8 +1447,11 @@
       <c r="O11" s="21">
         <v>11.704827450456593</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
+      <c r="P11" s="21">
+        <v>12.556147135845718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>35</v>
       </c>
@@ -1476,8 +1497,11 @@
       <c r="O12" s="19">
         <v>11.690360638657113</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
+      <c r="P12" s="19">
+        <v>11.189871602516233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1547,11 @@
       <c r="O13" s="21">
         <v>15.160393824613882</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1">
+      <c r="P13" s="21">
+        <v>14.33643342077432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -1570,8 +1597,11 @@
       <c r="O14" s="21">
         <v>8.2697614777785002</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
+      <c r="P14" s="21">
+        <v>8.0816351285783607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
@@ -1617,8 +1647,11 @@
       <c r="O15" s="19">
         <v>12.848363612643579</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
+      <c r="P15" s="19">
+        <v>11.627388629676959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1664,8 +1697,11 @@
       <c r="O16" s="21">
         <v>19.169907575065736</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1">
+      <c r="P16" s="21">
+        <v>16.762096893820274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
@@ -1711,8 +1747,11 @@
       <c r="O17" s="21">
         <v>6.4719265297371127</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+      <c r="P17" s="21">
+        <v>6.4749486469590067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>39</v>
       </c>
@@ -1758,8 +1797,11 @@
       <c r="O18" s="19">
         <v>11.314561807068033</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+      <c r="P18" s="19">
+        <v>11.869705657244412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
@@ -1805,8 +1847,11 @@
       <c r="O19" s="21">
         <v>17.031529098990571</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="P19" s="21">
+        <v>17.166257166257168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>31</v>
       </c>
@@ -1852,8 +1897,11 @@
       <c r="O20" s="21">
         <v>5.8049148278876119</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
+      <c r="P20" s="21">
+        <v>6.6785253302338123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>42</v>
       </c>
@@ -1899,8 +1947,11 @@
       <c r="O21" s="19">
         <v>14.293086020061216</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
+      <c r="P21" s="19">
+        <v>13.680949038807196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>29</v>
       </c>
@@ -1946,8 +1997,11 @@
       <c r="O22" s="21">
         <v>16.001235484133897</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1">
+      <c r="P22" s="21">
+        <v>15.666264437166006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>31</v>
       </c>
@@ -1993,8 +2047,11 @@
       <c r="O23" s="21">
         <v>12.623209090947215</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1">
+      <c r="P23" s="21">
+        <v>11.723106215150278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>45</v>
       </c>
@@ -2040,8 +2097,11 @@
       <c r="O24" s="19">
         <v>10.655806502231515</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
+      <c r="P24" s="19">
+        <v>9.9813900091039063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
@@ -2087,8 +2147,11 @@
       <c r="O25" s="21">
         <v>14.597679116471786</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
+      <c r="P25" s="21">
+        <v>12.54103500424182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
@@ -2134,8 +2197,11 @@
       <c r="O26" s="21">
         <v>6.7923492134604126</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1">
+      <c r="P26" s="21">
+        <v>7.4662568682314392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>48</v>
       </c>
@@ -2181,8 +2247,11 @@
       <c r="O27" s="19">
         <v>11.974467998741668</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1">
+      <c r="P27" s="19">
+        <v>10.470645699175261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>29</v>
       </c>
@@ -2228,8 +2297,11 @@
       <c r="O28" s="21">
         <v>17.619244529943728</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1">
+      <c r="P28" s="21">
+        <v>15.512094411740089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>31</v>
       </c>
@@ -2275,8 +2347,11 @@
       <c r="O29" s="21">
         <v>6.1463448841991495</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1">
+      <c r="P29" s="21">
+        <v>5.366655556748146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>51</v>
       </c>
@@ -2322,8 +2397,11 @@
       <c r="O30" s="19">
         <v>23.141741802980203</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1">
+      <c r="P30" s="19">
+        <v>21.623623197012517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1">
       <c r="A31" s="20" t="s">
         <v>29</v>
       </c>
@@ -2369,8 +2447,11 @@
       <c r="O31" s="21">
         <v>34.59732557181691</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1">
+      <c r="P31" s="21">
+        <v>31.61727133367399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
@@ -2416,8 +2497,11 @@
       <c r="O32" s="21">
         <v>10.198858348327853</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="P32" s="21">
+        <v>9.5604505747835411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>54</v>
       </c>
@@ -2463,8 +2547,11 @@
       <c r="O33" s="19">
         <v>21.371043884074826</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1">
+      <c r="P33" s="19">
+        <v>21.036722921447215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>29</v>
       </c>
@@ -2510,8 +2597,11 @@
       <c r="O34" s="21">
         <v>28.038202050293528</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
+      <c r="P34" s="21">
+        <v>29.087239037002597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1">
       <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
@@ -2557,8 +2647,11 @@
       <c r="O35" s="21">
         <v>14.344287526010564</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1">
+      <c r="P35" s="21">
+        <v>13.358066487477489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2574,7 +2667,7 @@
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="1:15" ht="24.75" customHeight="1">
+    <row r="37" spans="1:16" ht="24.75" customHeight="1">
       <c r="A37" s="23" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2689,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
@@ -2642,8 +2735,11 @@
       <c r="O38" s="19">
         <v>3.1078992364823796</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
+      <c r="P38" s="19">
+        <v>2.8802473574050205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1">
       <c r="A39" s="20" t="s">
         <v>29</v>
       </c>
@@ -2689,8 +2785,11 @@
       <c r="O39" s="21">
         <v>1.8183904596290836</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1">
+      <c r="P39" s="21">
+        <v>1.5264420238765892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" customHeight="1">
       <c r="A40" s="20" t="s">
         <v>31</v>
       </c>
@@ -2736,8 +2835,11 @@
       <c r="O40" s="21">
         <v>4.416622147075608</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
+      <c r="P40" s="21">
+        <v>4.2640026802302557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>33</v>
       </c>
@@ -2783,8 +2885,11 @@
       <c r="O41" s="19">
         <v>3.1146402411519158</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+      <c r="P41" s="19">
+        <v>3.2755413401343145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1">
       <c r="A42" s="20" t="s">
         <v>29</v>
       </c>
@@ -2830,8 +2935,11 @@
       <c r="O42" s="21">
         <v>0.65656528812273396</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1">
+      <c r="P42" s="21">
+        <v>0.70773161401733242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1">
       <c r="A43" s="20" t="s">
         <v>31</v>
       </c>
@@ -2877,8 +2985,11 @@
       <c r="O43" s="21">
         <v>5.4833425894030894</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="P43" s="21">
+        <v>5.7924767173652896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>35</v>
       </c>
@@ -2924,8 +3035,11 @@
       <c r="O44" s="19">
         <v>2.3786257470249632</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1">
+      <c r="P44" s="19">
+        <v>2.4256163391957477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>29</v>
       </c>
@@ -2971,8 +3085,11 @@
       <c r="O45" s="21">
         <v>0.95832541274761329</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1">
+      <c r="P45" s="21">
+        <v>0.84422252477793103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>31</v>
       </c>
@@ -3018,8 +3135,11 @@
       <c r="O46" s="21">
         <v>3.7786925104456071</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1">
+      <c r="P46" s="21">
+        <v>3.9877486656962642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>37</v>
       </c>
@@ -3065,8 +3185,11 @@
       <c r="O47" s="19">
         <v>4.4870439078001425</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1">
+      <c r="P47" s="19">
+        <v>4.2163214360010697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>29</v>
       </c>
@@ -3112,8 +3235,11 @@
       <c r="O48" s="21">
         <v>2.5979751539103462</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1">
+      <c r="P48" s="21">
+        <v>2.2992256801257902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>31</v>
       </c>
@@ -3159,8 +3285,11 @@
       <c r="O49" s="21">
         <v>6.3925163882679463</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1">
+      <c r="P49" s="21">
+        <v>6.1400375100473346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>39</v>
       </c>
@@ -3206,8 +3335,11 @@
       <c r="O50" s="19">
         <v>2.2085481004787453</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1">
+      <c r="P50" s="19">
+        <v>2.3025931739463203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>29</v>
       </c>
@@ -3253,8 +3385,11 @@
       <c r="O51" s="21">
         <v>1.1077417300156469</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1">
+      <c r="P51" s="21">
+        <v>1.1793611793611793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>31</v>
       </c>
@@ -3300,8 +3435,11 @@
       <c r="O52" s="21">
         <v>3.2694347881206087</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1">
+      <c r="P52" s="21">
+        <v>3.4034792548306934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>42</v>
       </c>
@@ -3347,8 +3485,11 @@
       <c r="O53" s="19">
         <v>3.2375041529119866</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1">
+      <c r="P53" s="19">
+        <v>3.2045466217025864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>29</v>
       </c>
@@ -3394,8 +3535,11 @@
       <c r="O54" s="21">
         <v>0.95807218716440656</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1">
+      <c r="P54" s="21">
+        <v>0.93776935011204965</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>31</v>
       </c>
@@ -3441,8 +3585,11 @@
       <c r="O55" s="21">
         <v>5.4658635155707218</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1">
+      <c r="P55" s="21">
+        <v>5.4399564803481573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>45</v>
       </c>
@@ -3488,8 +3635,11 @@
       <c r="O56" s="19">
         <v>1.6056694729389955</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1">
+      <c r="P56" s="19">
+        <v>1.6818459355999253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>29</v>
       </c>
@@ -3535,8 +3685,11 @@
       <c r="O57" s="21">
         <v>0.66353086893053559</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1">
+      <c r="P57" s="21">
+        <v>0.66393714728339048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>31</v>
       </c>
@@ -3582,8 +3735,11 @@
       <c r="O58" s="21">
         <v>2.5290661965012173</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1">
+      <c r="P58" s="21">
+        <v>2.6820534381025558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>48</v>
       </c>
@@ -3629,8 +3785,11 @@
       <c r="O59" s="19">
         <v>2.7399206437798731</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1">
+      <c r="P59" s="19">
+        <v>2.2363577498685321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15" customHeight="1">
       <c r="A60" s="20" t="s">
         <v>29</v>
       </c>
@@ -3676,8 +3835,11 @@
       <c r="O60" s="21">
         <v>1.7579291594501678</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1">
+      <c r="P60" s="21">
+        <v>1.6739670228496499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" customHeight="1">
       <c r="A61" s="20" t="s">
         <v>31</v>
       </c>
@@ -3723,8 +3885,11 @@
       <c r="O61" s="21">
         <v>3.753807949410219</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1">
+      <c r="P61" s="21">
+        <v>2.8057251858086794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>51</v>
       </c>
@@ -3770,8 +3935,11 @@
       <c r="O62" s="19">
         <v>2.002825805135974</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1">
+      <c r="P62" s="19">
+        <v>1.5894585710243447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15" customHeight="1">
       <c r="A63" s="20" t="s">
         <v>29</v>
       </c>
@@ -3817,8 +3985,11 @@
       <c r="O63" s="21">
         <v>2.2996238227298935</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1">
+      <c r="P63" s="21">
+        <v>1.9002299437915176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15" customHeight="1">
       <c r="A64" s="20" t="s">
         <v>31</v>
       </c>
@@ -3864,8 +4035,11 @@
       <c r="O64" s="21">
         <v>1.6674939504870634</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1">
+      <c r="P64" s="21">
+        <v>1.2143314238132321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>54</v>
       </c>
@@ -3911,8 +4085,11 @@
       <c r="O65" s="19">
         <v>5.4251878583696262</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1">
+      <c r="P65" s="19">
+        <v>3.8475059027383725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15" customHeight="1">
       <c r="A66" s="20" t="s">
         <v>29</v>
       </c>
@@ -3958,8 +4135,11 @@
       <c r="O66" s="21">
         <v>3.7384269400391368</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1">
+      <c r="P66" s="21">
+        <v>3.0618146354739575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15" customHeight="1">
       <c r="A67" s="20" t="s">
         <v>31</v>
       </c>
@@ -4005,8 +4185,11 @@
       <c r="O67" s="21">
         <v>7.2029254958937168</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1">
+      <c r="P67" s="21">
+        <v>4.5969054713991353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15" customHeight="1">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -4023,7 +4206,7 @@
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1">
+    <row r="69" spans="1:16" ht="15" customHeight="1">
       <c r="A69" s="23" t="s">
         <v>23</v>
       </c>
@@ -4046,7 +4229,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>27</v>
       </c>
@@ -4092,8 +4275,11 @@
       <c r="O70" s="19">
         <v>0.49945734034075445</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1">
+      <c r="P70" s="19">
+        <v>0.50301310533861732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15" customHeight="1">
       <c r="A71" s="20" t="s">
         <v>29</v>
       </c>
@@ -4139,8 +4325,11 @@
       <c r="O71" s="21">
         <v>0.81209671012561013</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1">
+      <c r="P71" s="21">
+        <v>0.846149261854242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15" customHeight="1">
       <c r="A72" s="20" t="s">
         <v>31</v>
       </c>
@@ -4186,8 +4375,11 @@
       <c r="O72" s="21">
         <v>0.18215953412549837</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P72" s="21">
+        <v>0.15228581000822344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>33</v>
       </c>
@@ -4233,8 +4425,11 @@
       <c r="O73" s="19">
         <v>0.59070763194260467</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1">
+      <c r="P73" s="19">
+        <v>0.52548791552956919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15" customHeight="1">
       <c r="A74" s="20" t="s">
         <v>29</v>
       </c>
@@ -4280,8 +4475,11 @@
       <c r="O74" s="21">
         <v>1.0577996308644046</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1">
+      <c r="P74" s="21">
+        <v>0.88466451752166553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15" customHeight="1">
       <c r="A75" s="20" t="s">
         <v>31</v>
       </c>
@@ -4327,8 +4525,11 @@
       <c r="O75" s="21">
         <v>0.14059852793341254</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P75" s="21">
+        <v>0.17342744662770332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>35</v>
       </c>
@@ -4374,8 +4575,11 @@
       <c r="O76" s="19">
         <v>0.11698159411598179</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1">
+      <c r="P76" s="19">
+        <v>0.28985352480955479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15" customHeight="1">
       <c r="A77" s="20" t="s">
         <v>29</v>
       </c>
@@ -4421,8 +4625,11 @@
       <c r="O77" s="21">
         <v>0.18852303201592391</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1">
+      <c r="P77" s="21">
+        <v>0.52188301531726655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15" customHeight="1">
       <c r="A78" s="20" t="s">
         <v>31</v>
       </c>
@@ -4468,8 +4675,11 @@
       <c r="O78" s="21">
         <v>4.6459334144823033E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P78" s="21">
+        <v>6.0650169820475497E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>37</v>
       </c>
@@ -4515,8 +4725,11 @@
       <c r="O79" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" ht="15" customHeight="1">
+      <c r="P79" s="19">
+        <v>0.27861154863443194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15" customHeight="1">
       <c r="A80" s="20" t="s">
         <v>29</v>
       </c>
@@ -4562,8 +4775,11 @@
       <c r="O80" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="15" customHeight="1">
+      <c r="P80" s="21">
+        <v>0.5562642774497879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15" customHeight="1">
       <c r="A81" s="20" t="s">
         <v>31</v>
       </c>
@@ -4609,8 +4825,11 @@
       <c r="O81" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P81" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>39</v>
       </c>
@@ -4656,8 +4875,11 @@
       <c r="O82" s="19">
         <v>0.74750858785434449</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="15" customHeight="1">
+      <c r="P82" s="19">
+        <v>0.71347957502562043</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" customHeight="1">
       <c r="A83" s="20" t="s">
         <v>29</v>
       </c>
@@ -4703,8 +4925,11 @@
       <c r="O83" s="21">
         <v>1.2462094462676025</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="15" customHeight="1">
+      <c r="P83" s="21">
+        <v>1.375921375921376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>31</v>
       </c>
@@ -4750,8 +4975,11 @@
       <c r="O84" s="21">
         <v>0.26689263576494765</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P84" s="21">
+        <v>6.4216589713786659E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>42</v>
       </c>
@@ -4797,8 +5025,11 @@
       <c r="O85" s="19">
         <v>0.35343931800349199</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="15" customHeight="1">
+      <c r="P85" s="19">
+        <v>0.36290805758597666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>29</v>
       </c>
@@ -4844,8 +5075,11 @@
       <c r="O86" s="21">
         <v>0.62918173485423723</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1">
+      <c r="P86" s="21">
+        <v>0.64816410963626969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>31</v>
       </c>
@@ -4891,8 +5125,11 @@
       <c r="O87" s="21">
         <v>8.3875143461443286E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P87" s="21">
+        <v>8.159934720522237E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>45</v>
       </c>
@@ -4938,8 +5175,11 @@
       <c r="O88" s="19">
         <v>0.6933572724054754</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="15" customHeight="1">
+      <c r="P88" s="19">
+        <v>0.87748483596517857</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>29</v>
       </c>
@@ -4985,8 +5225,11 @@
       <c r="O89" s="21">
         <v>1.2533360857576787</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1">
+      <c r="P89" s="21">
+        <v>1.475415882851979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>31</v>
       </c>
@@ -5032,8 +5275,11 @@
       <c r="O90" s="21">
         <v>0.14451806837149817</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P90" s="21">
+        <v>0.28995172303811417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="17" t="s">
         <v>48</v>
       </c>
@@ -5079,8 +5325,11 @@
       <c r="O91" s="19">
         <v>0.1826613762519915</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="15" customHeight="1">
+      <c r="P91" s="19">
+        <v>0.30878579809900231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="15" customHeight="1">
       <c r="A92" s="20" t="s">
         <v>29</v>
       </c>
@@ -5126,8 +5375,11 @@
       <c r="O92" s="21">
         <v>0.31962348353639414</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="15" customHeight="1">
+      <c r="P92" s="21">
+        <v>0.57658864120376829</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15" customHeight="1">
       <c r="A93" s="20" t="s">
         <v>31</v>
       </c>
@@ -5173,8 +5425,11 @@
       <c r="O93" s="21">
         <v>4.1250636806705709E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P93" s="21">
+        <v>3.7660740749109793E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="17" t="s">
         <v>51</v>
       </c>
@@ -5220,8 +5475,11 @@
       <c r="O94" s="19">
         <v>8.1933782937380739E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="15" customHeight="1">
+      <c r="P94" s="19">
+        <v>0.13973262162851385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="15" customHeight="1">
       <c r="A95" s="20" t="s">
         <v>29</v>
       </c>
@@ -5267,8 +5525,11 @@
       <c r="O95" s="21">
         <v>0.15445234630275406</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="15" customHeight="1">
+      <c r="P95" s="21">
+        <v>0.23952478283086356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15" customHeight="1">
       <c r="A96" s="20" t="s">
         <v>31</v>
       </c>
@@ -5314,8 +5575,11 @@
       <c r="O96" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P96" s="21">
+        <v>1.9275101965289396E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="17" t="s">
         <v>54</v>
       </c>
@@ -5361,8 +5625,11 @@
       <c r="O97" s="19">
         <v>0.38965437656798418</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1">
+      <c r="P97" s="19">
+        <v>0.44287837729362561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>29</v>
       </c>
@@ -5408,8 +5675,11 @@
       <c r="O98" s="21">
         <v>0.64254213031922669</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1">
+      <c r="P98" s="21">
+        <v>0.79380379438213722</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="15" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>31</v>
       </c>
@@ -5455,8 +5725,11 @@
       <c r="O99" s="21">
         <v>0.12312693155373874</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" ht="15" customHeight="1">
+      <c r="P99" s="21">
+        <v>0.10816248167997966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="15" customHeight="1">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -5472,7 +5745,7 @@
       <c r="M100" s="21"/>
       <c r="N100" s="21"/>
     </row>
-    <row r="101" spans="1:15" ht="25.5" customHeight="1">
+    <row r="101" spans="1:16" ht="25.5" customHeight="1">
       <c r="A101" s="23" t="s">
         <v>25</v>
       </c>
@@ -5494,7 +5767,7 @@
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
     </row>
-    <row r="102" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="17" t="s">
         <v>27</v>
       </c>
@@ -5540,8 +5813,11 @@
       <c r="O102" s="19">
         <v>42.027037982322767</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" ht="15" customHeight="1">
+      <c r="P102" s="19">
+        <v>38.882628854480011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="15" customHeight="1">
       <c r="A103" s="20" t="s">
         <v>29</v>
       </c>
@@ -5587,8 +5863,11 @@
       <c r="O103" s="21">
         <v>82.204195244526446</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" ht="15" customHeight="1">
+      <c r="P103" s="21">
+        <v>75.610886033533376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="15" customHeight="1">
       <c r="A104" s="20" t="s">
         <v>31</v>
       </c>
@@ -5634,8 +5913,11 @@
       <c r="O104" s="21">
         <v>1.2512269639112101</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P104" s="21">
+        <v>1.3418391183743461</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="17" t="s">
         <v>33</v>
       </c>
@@ -5681,8 +5963,11 @@
       <c r="O105" s="19">
         <v>59.375067125867268</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" ht="15" customHeight="1">
+      <c r="P105" s="19">
+        <v>54.80838958973407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="15" customHeight="1">
       <c r="A106" s="20" t="s">
         <v>29</v>
       </c>
@@ -5728,8 +6013,11 @@
       <c r="O106" s="21">
         <v>119.56783413701788</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" ht="15" customHeight="1">
+      <c r="P106" s="21">
+        <v>109.3799209463787</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="15" customHeight="1">
       <c r="A107" s="20" t="s">
         <v>31</v>
       </c>
@@ -5775,8 +6063,11 @@
       <c r="O107" s="21">
         <v>1.3708356473507723</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P107" s="21">
+        <v>1.3180485943705449</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="17" t="s">
         <v>35</v>
       </c>
@@ -5822,8 +6113,11 @@
       <c r="O108" s="19">
         <v>40.553619293540351</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" ht="15" customHeight="1">
+      <c r="P108" s="19">
+        <v>37.391104700432571</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="15" customHeight="1">
       <c r="A109" s="20" t="s">
         <v>29</v>
       </c>
@@ -5869,8 +6163,11 @@
       <c r="O109" s="21">
         <v>80.907801240167345</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" ht="15" customHeight="1">
+      <c r="P109" s="21">
+        <v>74.214834678205392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="15" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>31</v>
       </c>
@@ -5916,8 +6213,11 @@
       <c r="O110" s="21">
         <v>0.7743222357470505</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P110" s="21">
+        <v>1.0158903444929646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="17" t="s">
         <v>37</v>
       </c>
@@ -5963,8 +6263,11 @@
       <c r="O111" s="19">
         <v>34.315014202383473</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" ht="15" customHeight="1">
+      <c r="P111" s="19">
+        <v>32.78329222265149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="15" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>29</v>
       </c>
@@ -6010,8 +6313,11 @@
       <c r="O112" s="21">
         <v>67.507990741761276</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" ht="15" customHeight="1">
+      <c r="P112" s="21">
+        <v>64.26706618803216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>31</v>
       </c>
@@ -6057,8 +6363,11 @@
       <c r="O113" s="21">
         <v>0.8338064854262538</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P113" s="21">
+        <v>1.1907951534637253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="17" t="s">
         <v>39</v>
       </c>
@@ -6104,8 +6413,11 @@
       <c r="O114" s="19">
         <v>39.923754124038858</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" ht="15" customHeight="1">
+      <c r="P114" s="19">
+        <v>37.619832137714532</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="15" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>29</v>
       </c>
@@ -6151,8 +6463,11 @@
       <c r="O115" s="21">
         <v>80.518977000512322</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" ht="15" customHeight="1">
+      <c r="P115" s="21">
+        <v>74.758394758394758</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="15" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>31</v>
       </c>
@@ -6198,8 +6513,11 @@
       <c r="O116" s="21">
         <v>0.80067790729484301</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P116" s="21">
+        <v>1.2201152045619466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="17" t="s">
         <v>42</v>
       </c>
@@ -6245,8 +6563,11 @@
       <c r="O117" s="19">
         <v>44.271808973117409</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" ht="15" customHeight="1">
+      <c r="P117" s="19">
+        <v>38.742146977763326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>29</v>
       </c>
@@ -6292,8 +6613,11 @@
       <c r="O118" s="21">
         <v>87.613556578452531</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" ht="15" customHeight="1">
+      <c r="P118" s="21">
+        <v>76.276504051025682</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="15" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>31</v>
       </c>
@@ -6339,8 +6663,11 @@
       <c r="O119" s="21">
         <v>1.9011699184593813</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P119" s="21">
+        <v>1.7271861825105399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="17" t="s">
         <v>45</v>
       </c>
@@ -6386,8 +6713,11 @@
       <c r="O120" s="19">
         <v>38.536067350535887</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" ht="15" customHeight="1">
+      <c r="P120" s="19">
+        <v>35.794068933746239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="15" customHeight="1">
       <c r="A121" s="20" t="s">
         <v>29</v>
       </c>
@@ -6433,8 +6763,11 @@
       <c r="O121" s="21">
         <v>77.411934708562498</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" ht="15" customHeight="1">
+      <c r="P121" s="21">
+        <v>71.262587141750586</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="15" customHeight="1">
       <c r="A122" s="20" t="s">
         <v>31</v>
       </c>
@@ -6480,8 +6813,11 @@
       <c r="O122" s="21">
         <v>0.4335542051144945</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P122" s="21">
+        <v>0.94234309987387099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="17" t="s">
         <v>48</v>
       </c>
@@ -6527,8 +6863,11 @@
       <c r="O123" s="19">
         <v>25.532001258333924</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1">
+      <c r="P123" s="19">
+        <v>23.804577889814002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="15" customHeight="1">
       <c r="A124" s="20" t="s">
         <v>29</v>
       </c>
@@ -6574,8 +6913,11 @@
       <c r="O124" s="21">
         <v>49.581592883583141</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" ht="15" customHeight="1">
+      <c r="P124" s="21">
+        <v>46.61068176956914</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="15" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>31</v>
       </c>
@@ -6621,8 +6963,11 @@
       <c r="O125" s="21">
         <v>0.70126082571399695</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P125" s="21">
+        <v>0.71555407423308603</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="17" t="s">
         <v>51</v>
       </c>
@@ -6668,8 +7013,11 @@
       <c r="O126" s="19">
         <v>27.429609776703131</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" ht="15" customHeight="1">
+      <c r="P126" s="19">
+        <v>27.099395307079902</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="15" customHeight="1">
       <c r="A127" s="20" t="s">
         <v>29</v>
       </c>
@@ -6715,8 +7063,11 @@
       <c r="O127" s="21">
         <v>50.729015074548997</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" ht="15" customHeight="1">
+      <c r="P127" s="21">
+        <v>48.479816044966789</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="15" customHeight="1">
       <c r="A128" s="20" t="s">
         <v>31</v>
       </c>
@@ -6762,8 +7113,11 @@
       <c r="O128" s="21">
         <v>1.1051994788111932</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="P128" s="21">
+        <v>1.2914318316743894</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="17" t="s">
         <v>54</v>
       </c>
@@ -6809,8 +7163,11 @@
       <c r="O129" s="19">
         <v>40.134400786502376</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" ht="15" customHeight="1">
+      <c r="P129" s="19">
+        <v>37.063384199760293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="15" customHeight="1">
       <c r="A130" s="20" t="s">
         <v>29</v>
       </c>
@@ -6856,8 +7213,11 @@
       <c r="O130" s="21">
         <v>77.338707322059633</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="P130" s="21">
+        <v>75.127859111166558</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A131" s="25" t="s">
         <v>31</v>
       </c>
@@ -6903,9 +7263,12 @@
       <c r="O131" s="26">
         <v>0.92345198665304062</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" ht="15" customHeight="1"/>
-    <row r="133" spans="1:15" ht="15" customHeight="1"/>
+      <c r="P131" s="26">
+        <v>0.75713737175985762</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="15" customHeight="1"/>
+    <row r="133" spans="1:16" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/ru/downloads/data-excel/3.c.1.xlsx
+++ b/ru/downloads/data-excel/3.c.1.xlsx
@@ -1049,20 +1049,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="43" style="14" customWidth="1"/>
+    <col min="1" max="3" width="38.28515625" style="14" customWidth="1"/>
     <col min="4" max="10" width="9.140625" style="14" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" customHeight="1">
+    <row r="1" spans="1:17" ht="38.25" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1084,8 +1085,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:16" ht="12.75" thickBot="1">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="12.75" thickBot="1">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1128,8 +1129,11 @@
       <c r="P4" s="16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="Q4" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1155,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
@@ -1200,8 +1204,11 @@
       <c r="P6" s="19">
         <v>17.605458686851609</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="Q6" s="19">
+        <v>17.329176155522759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -1250,8 +1257,11 @@
       <c r="P7" s="21">
         <v>23.512267196507903</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="Q7" s="21">
+        <v>23.227186252688906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
@@ -1300,8 +1310,11 @@
       <c r="P8" s="21">
         <v>11.567974926285048</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="Q8" s="21">
+        <v>11.304378506156723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1350,8 +1363,11 @@
       <c r="P9" s="19">
         <v>13.890397233831612</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="Q9" s="19">
+        <v>13.542191640867934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
@@ -1400,8 +1416,11 @@
       <c r="P10" s="21">
         <v>15.251616282073513</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="Q10" s="21">
+        <v>15.185712948420582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
@@ -1450,8 +1469,11 @@
       <c r="P11" s="21">
         <v>12.556147135845718</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="Q11" s="21">
+        <v>11.93491403132237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>35</v>
       </c>
@@ -1500,8 +1522,11 @@
       <c r="P12" s="19">
         <v>11.189871602516233</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="Q12" s="19">
+        <v>10.892014843083869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
@@ -1550,8 +1575,11 @@
       <c r="P13" s="21">
         <v>14.33643342077432</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="Q13" s="21">
+        <v>13.914495950022388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -1600,8 +1628,11 @@
       <c r="P14" s="21">
         <v>8.0816351285783607</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
+      <c r="Q14" s="21">
+        <v>7.9107336164543254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1681,11 @@
       <c r="P15" s="19">
         <v>11.627388629676959</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="Q15" s="19">
+        <v>11.095516970262546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1700,8 +1734,11 @@
       <c r="P16" s="21">
         <v>16.762096893820274</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1">
+      <c r="Q16" s="21">
+        <v>16.096076673183497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
@@ -1750,8 +1787,11 @@
       <c r="P17" s="21">
         <v>6.4749486469590067</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1">
+      <c r="Q17" s="21">
+        <v>6.0973817989480183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>39</v>
       </c>
@@ -1800,8 +1840,11 @@
       <c r="P18" s="19">
         <v>11.869705657244412</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1">
+      <c r="Q18" s="19">
+        <v>11.439814399425766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
@@ -1850,8 +1893,11 @@
       <c r="P19" s="21">
         <v>17.166257166257168</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="Q19" s="21">
+        <v>16.937053861129137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>31</v>
       </c>
@@ -1900,8 +1946,11 @@
       <c r="P20" s="21">
         <v>6.6785253302338123</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1">
+      <c r="Q20" s="21">
+        <v>6.0771801883925853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>42</v>
       </c>
@@ -1950,8 +1999,11 @@
       <c r="P21" s="19">
         <v>13.680949038807196</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1">
+      <c r="Q21" s="19">
+        <v>13.704201324247309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>29</v>
       </c>
@@ -2000,8 +2052,11 @@
       <c r="P22" s="21">
         <v>15.666264437166006</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1">
+      <c r="Q22" s="21">
+        <v>15.910317759892198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>31</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="P23" s="21">
         <v>11.723106215150278</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1">
+      <c r="Q23" s="21">
+        <v>11.532658331013929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>45</v>
       </c>
@@ -2100,8 +2158,11 @@
       <c r="P24" s="19">
         <v>9.9813900091039063</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1">
+      <c r="Q24" s="19">
+        <v>9.2370753110296455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
@@ -2150,8 +2211,11 @@
       <c r="P25" s="21">
         <v>12.54103500424182</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1">
+      <c r="Q25" s="21">
+        <v>12.171035849895416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
@@ -2200,8 +2264,11 @@
       <c r="P26" s="21">
         <v>7.4662568682314392</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1">
+      <c r="Q26" s="21">
+        <v>6.3601866607590773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>48</v>
       </c>
@@ -2250,8 +2317,11 @@
       <c r="P27" s="19">
         <v>10.470645699175261</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1">
+      <c r="Q27" s="19">
+        <v>10.295884774419832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>29</v>
       </c>
@@ -2300,8 +2370,11 @@
       <c r="P28" s="21">
         <v>15.512094411740089</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1">
+      <c r="Q28" s="21">
+        <v>15.118774702834726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>31</v>
       </c>
@@ -2350,8 +2423,11 @@
       <c r="P29" s="21">
         <v>5.366655556748146</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1">
+      <c r="Q29" s="21">
+        <v>5.4090100770598699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>51</v>
       </c>
@@ -2400,8 +2476,11 @@
       <c r="P30" s="19">
         <v>21.623623197012517</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1">
+      <c r="Q30" s="19">
+        <v>21.029655159987541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="20" t="s">
         <v>29</v>
       </c>
@@ -2450,8 +2529,11 @@
       <c r="P31" s="21">
         <v>31.61727133367399</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1">
+      <c r="Q31" s="21">
+        <v>30.807591165880165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
@@ -2500,8 +2582,11 @@
       <c r="P32" s="21">
         <v>9.5604505747835411</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1">
+      <c r="Q32" s="21">
+        <v>9.1837470446929697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>54</v>
       </c>
@@ -2550,8 +2635,11 @@
       <c r="P33" s="19">
         <v>21.036722921447215</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1">
+      <c r="Q33" s="19">
+        <v>20.641438847351516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>29</v>
       </c>
@@ -2600,8 +2688,11 @@
       <c r="P34" s="21">
         <v>29.087239037002597</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1">
+      <c r="Q34" s="21">
+        <v>28.680154895155621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
@@ -2650,8 +2741,11 @@
       <c r="P35" s="21">
         <v>13.358066487477489</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1">
+      <c r="Q35" s="21">
+        <v>12.958617747440274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2667,7 +2761,7 @@
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="1:16" ht="24.75" customHeight="1">
+    <row r="37" spans="1:17" ht="21" customHeight="1">
       <c r="A37" s="23" t="s">
         <v>21</v>
       </c>
@@ -2689,7 +2783,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1">
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
@@ -2738,8 +2832,11 @@
       <c r="P38" s="19">
         <v>2.8802473574050205</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1">
+      <c r="Q38" s="19">
+        <v>2.9154233996238434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="20" t="s">
         <v>29</v>
       </c>
@@ -2788,8 +2885,11 @@
       <c r="P39" s="21">
         <v>1.5264420238765892</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1">
+      <c r="Q39" s="21">
+        <v>1.5915844969722592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="20" t="s">
         <v>31</v>
       </c>
@@ -2838,8 +2938,11 @@
       <c r="P40" s="21">
         <v>4.2640026802302557</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1">
+      <c r="Q40" s="21">
+        <v>4.2677204247962459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>33</v>
       </c>
@@ -2888,8 +2991,11 @@
       <c r="P41" s="19">
         <v>3.2755413401343145</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1">
+      <c r="Q41" s="19">
+        <v>3.3941189175846218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="20" t="s">
         <v>29</v>
       </c>
@@ -2938,8 +3044,11 @@
       <c r="P42" s="21">
         <v>0.70773161401733242</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1">
+      <c r="Q42" s="21">
+        <v>0.83209386018742915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="20" t="s">
         <v>31</v>
       </c>
@@ -2988,8 +3097,11 @@
       <c r="P43" s="21">
         <v>5.7924767173652896</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1">
+      <c r="Q43" s="21">
+        <v>5.8996450041195798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>35</v>
       </c>
@@ -3038,8 +3150,11 @@
       <c r="P44" s="19">
         <v>2.4256163391957477</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1">
+      <c r="Q44" s="19">
+        <v>2.6724737450040834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>29</v>
       </c>
@@ -3088,8 +3203,11 @@
       <c r="P45" s="21">
         <v>0.84422252477793103</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1">
+      <c r="Q45" s="21">
+        <v>1.0251199616484532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>31</v>
       </c>
@@ -3138,8 +3256,11 @@
       <c r="P46" s="21">
         <v>3.9877486656962642</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1">
+      <c r="Q46" s="21">
+        <v>4.2973722089385342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>37</v>
       </c>
@@ -3188,8 +3309,11 @@
       <c r="P47" s="19">
         <v>4.2163214360010697</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1">
+      <c r="Q47" s="19">
+        <v>4.0597835271987126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>29</v>
       </c>
@@ -3238,8 +3362,11 @@
       <c r="P48" s="21">
         <v>2.2992256801257902</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1">
+      <c r="Q48" s="21">
+        <v>2.3519381440268123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>31</v>
       </c>
@@ -3288,8 +3415,11 @@
       <c r="P49" s="21">
         <v>6.1400375100473346</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1">
+      <c r="Q49" s="21">
+        <v>5.766800858041198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>39</v>
       </c>
@@ -3338,8 +3468,11 @@
       <c r="P50" s="19">
         <v>2.3025931739463203</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1">
+      <c r="Q50" s="19">
+        <v>2.3392337567453247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>29</v>
       </c>
@@ -3388,8 +3521,11 @@
       <c r="P51" s="21">
         <v>1.1793611793611793</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1">
+      <c r="Q51" s="21">
+        <v>1.3627514600908501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>31</v>
       </c>
@@ -3438,8 +3574,11 @@
       <c r="P52" s="21">
         <v>3.4034792548306934</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1">
+      <c r="Q52" s="21">
+        <v>3.2918059353793172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>42</v>
       </c>
@@ -3488,8 +3627,11 @@
       <c r="P53" s="19">
         <v>3.2045466217025864</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1">
+      <c r="Q53" s="19">
+        <v>3.1005587716955225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>29</v>
       </c>
@@ -3538,8 +3680,11 @@
       <c r="P54" s="21">
         <v>0.93776935011204965</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="15" customHeight="1">
+      <c r="Q54" s="21">
+        <v>0.93351354203449133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>31</v>
       </c>
@@ -3588,8 +3733,11 @@
       <c r="P55" s="21">
         <v>5.4399564803481573</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15" customHeight="1">
+      <c r="Q55" s="21">
+        <v>5.2336428684624412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>45</v>
       </c>
@@ -3638,8 +3786,11 @@
       <c r="P56" s="19">
         <v>1.6818459355999253</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15" customHeight="1">
+      <c r="Q56" s="19">
+        <v>1.5876223190832204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>29</v>
       </c>
@@ -3688,8 +3839,11 @@
       <c r="P57" s="21">
         <v>0.66393714728339048</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" customHeight="1">
+      <c r="Q57" s="21">
+        <v>0.58304363352792421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>31</v>
       </c>
@@ -3738,8 +3892,11 @@
       <c r="P58" s="21">
         <v>2.6820534381025558</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="15" customHeight="1">
+      <c r="Q58" s="21">
+        <v>2.5726597728913125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>48</v>
       </c>
@@ -3788,8 +3945,11 @@
       <c r="P59" s="19">
         <v>2.2363577498685321</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" customHeight="1">
+      <c r="Q59" s="19">
+        <v>2.3554481700191934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15" customHeight="1">
       <c r="A60" s="20" t="s">
         <v>29</v>
       </c>
@@ -3838,8 +3998,11 @@
       <c r="P60" s="21">
         <v>1.6739670228496499</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" customHeight="1">
+      <c r="Q60" s="21">
+        <v>1.6636136613760097</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1">
       <c r="A61" s="20" t="s">
         <v>31</v>
       </c>
@@ -3888,8 +4051,11 @@
       <c r="P61" s="21">
         <v>2.8057251858086794</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" customHeight="1">
+      <c r="Q61" s="21">
+        <v>3.0564611736810905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4104,11 @@
       <c r="P62" s="19">
         <v>1.5894585710243447</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" customHeight="1">
+      <c r="Q62" s="19">
+        <v>1.5615655810353866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15" customHeight="1">
       <c r="A63" s="20" t="s">
         <v>29</v>
       </c>
@@ -3988,8 +4157,11 @@
       <c r="P63" s="21">
         <v>1.9002299437915176</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1">
+      <c r="Q63" s="21">
+        <v>1.8638044477578746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15" customHeight="1">
       <c r="A64" s="20" t="s">
         <v>31</v>
       </c>
@@ -4038,8 +4210,11 @@
       <c r="P64" s="21">
         <v>1.2143314238132321</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="15" customHeight="1">
+      <c r="Q64" s="21">
+        <v>1.1954050905282172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>54</v>
       </c>
@@ -4088,8 +4263,11 @@
       <c r="P65" s="19">
         <v>3.8475059027383725</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" customHeight="1">
+      <c r="Q65" s="19">
+        <v>3.8174391527466476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15" customHeight="1">
       <c r="A66" s="20" t="s">
         <v>29</v>
       </c>
@@ -4138,8 +4316,11 @@
       <c r="P66" s="21">
         <v>3.0618146354739575</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1">
+      <c r="Q66" s="21">
+        <v>2.901494269548818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15" customHeight="1">
       <c r="A67" s="20" t="s">
         <v>31</v>
       </c>
@@ -4188,8 +4369,11 @@
       <c r="P67" s="21">
         <v>4.5969054713991353</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="15" customHeight="1">
+      <c r="Q67" s="21">
+        <v>4.6928327645051189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="14.25" customHeight="1">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -4206,7 +4390,7 @@
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" spans="1:16" ht="15" customHeight="1">
+    <row r="69" spans="1:17" ht="15" customHeight="1">
       <c r="A69" s="23" t="s">
         <v>23</v>
       </c>
@@ -4229,7 +4413,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>27</v>
       </c>
@@ -4278,8 +4462,11 @@
       <c r="P70" s="19">
         <v>0.50301310533861732</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="15" customHeight="1">
+      <c r="Q70" s="19">
+        <v>0.50545175798076203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15" customHeight="1">
       <c r="A71" s="20" t="s">
         <v>29</v>
       </c>
@@ -4328,8 +4515,11 @@
       <c r="P71" s="21">
         <v>0.846149261854242</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15" customHeight="1">
+      <c r="Q71" s="21">
+        <v>0.85934510166384137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="A72" s="20" t="s">
         <v>31</v>
       </c>
@@ -4378,8 +4568,11 @@
       <c r="P72" s="21">
         <v>0.15228581000822344</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q72" s="21">
+        <v>0.14395088734431782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>33</v>
       </c>
@@ -4428,8 +4621,11 @@
       <c r="P73" s="19">
         <v>0.52548791552956919</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="15" customHeight="1">
+      <c r="Q73" s="19">
+        <v>0.42855036838189664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15" customHeight="1">
       <c r="A74" s="20" t="s">
         <v>29</v>
       </c>
@@ -4478,8 +4674,11 @@
       <c r="P74" s="21">
         <v>0.88466451752166553</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" customHeight="1">
+      <c r="Q74" s="21">
+        <v>0.72808212766400049</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="20" t="s">
         <v>31</v>
       </c>
@@ -4528,8 +4727,11 @@
       <c r="P75" s="21">
         <v>0.17342744662770332</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q75" s="21">
+        <v>0.13562402308320873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>35</v>
       </c>
@@ -4578,8 +4780,11 @@
       <c r="P76" s="19">
         <v>0.28985352480955479</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="15" customHeight="1">
+      <c r="Q76" s="19">
+        <v>0.36681012186330564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15" customHeight="1">
       <c r="A77" s="20" t="s">
         <v>29</v>
       </c>
@@ -4628,8 +4833,11 @@
       <c r="P77" s="21">
         <v>0.52188301531726655</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="15" customHeight="1">
+      <c r="Q77" s="21">
+        <v>0.70853879702172495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="20" t="s">
         <v>31</v>
       </c>
@@ -4678,8 +4886,11 @@
       <c r="P78" s="21">
         <v>6.0650169820475497E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q78" s="21">
+        <v>2.9739600061858367E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>37</v>
       </c>
@@ -4728,8 +4939,11 @@
       <c r="P79" s="19">
         <v>0.27861154863443194</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="15" customHeight="1">
+      <c r="Q79" s="19">
+        <v>0.29392097934470318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="15" customHeight="1">
       <c r="A80" s="20" t="s">
         <v>29</v>
       </c>
@@ -4778,8 +4992,11 @@
       <c r="P80" s="21">
         <v>0.5562642774497879</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="15" customHeight="1">
+      <c r="Q80" s="21">
+        <v>0.58798453600670308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="20" t="s">
         <v>31</v>
       </c>
@@ -4828,8 +5045,11 @@
       <c r="P81" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q81" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>39</v>
       </c>
@@ -4878,8 +5098,11 @@
       <c r="P82" s="19">
         <v>0.71347957502562043</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" customHeight="1">
+      <c r="Q82" s="19">
+        <v>0.70497455682735821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="A83" s="20" t="s">
         <v>29</v>
       </c>
@@ -4928,8 +5151,11 @@
       <c r="P83" s="21">
         <v>1.375921375921376</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="15" customHeight="1">
+      <c r="Q83" s="21">
+        <v>1.3627514600908501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>31</v>
       </c>
@@ -4978,8 +5204,11 @@
       <c r="P84" s="21">
         <v>6.4216589713786659E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q84" s="21">
+        <v>6.3303960295756107E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>42</v>
       </c>
@@ -5028,8 +5257,11 @@
       <c r="P85" s="19">
         <v>0.36290805758597666</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="15" customHeight="1">
+      <c r="Q85" s="19">
+        <v>0.38253647183256445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>29</v>
       </c>
@@ -5078,8 +5310,11 @@
       <c r="P86" s="21">
         <v>0.64816410963626969</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="15" customHeight="1">
+      <c r="Q86" s="21">
+        <v>0.67645908843079072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>31</v>
       </c>
@@ -5128,8 +5363,11 @@
       <c r="P87" s="21">
         <v>8.159934720522237E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q87" s="21">
+        <v>9.322010198279157E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>45</v>
       </c>
@@ -5178,8 +5416,11 @@
       <c r="P88" s="19">
         <v>0.87748483596517857</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" customHeight="1">
+      <c r="Q88" s="19">
+        <v>0.86597581040902927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>29</v>
       </c>
@@ -5228,8 +5469,11 @@
       <c r="P89" s="21">
         <v>1.475415882851979</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="15" customHeight="1">
+      <c r="Q89" s="21">
+        <v>1.4576090838198104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>31</v>
       </c>
@@ -5278,8 +5522,11 @@
       <c r="P90" s="21">
         <v>0.28995172303811417</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q90" s="21">
+        <v>0.28585108587681246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="17" t="s">
         <v>48</v>
       </c>
@@ -5328,8 +5575,11 @@
       <c r="P91" s="19">
         <v>0.30878579809900231</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" ht="15" customHeight="1">
+      <c r="Q91" s="19">
+        <v>0.31283296008067407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15" customHeight="1">
       <c r="A92" s="20" t="s">
         <v>29</v>
       </c>
@@ -5378,8 +5628,11 @@
       <c r="P92" s="21">
         <v>0.57658864120376829</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="15" customHeight="1">
+      <c r="Q92" s="21">
+        <v>0.60328847060888258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15" customHeight="1">
       <c r="A93" s="20" t="s">
         <v>31</v>
       </c>
@@ -5428,8 +5681,11 @@
       <c r="P93" s="21">
         <v>3.7660740749109793E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q93" s="21">
+        <v>1.8524007113218732E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="17" t="s">
         <v>51</v>
       </c>
@@ -5478,8 +5734,11 @@
       <c r="P94" s="19">
         <v>0.13973262162851385</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="15" customHeight="1">
+      <c r="Q94" s="19">
+        <v>0.13728049064047354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="15" customHeight="1">
       <c r="A95" s="20" t="s">
         <v>29</v>
       </c>
@@ -5528,8 +5787,11 @@
       <c r="P95" s="21">
         <v>0.23952478283086356</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" ht="15" customHeight="1">
+      <c r="Q95" s="21">
+        <v>0.2192711115009264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15" customHeight="1">
       <c r="A96" s="20" t="s">
         <v>31</v>
       </c>
@@ -5578,8 +5840,11 @@
       <c r="P96" s="21">
         <v>1.9275101965289396E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q96" s="21">
+        <v>3.794936795327674E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="17" t="s">
         <v>54</v>
       </c>
@@ -5628,8 +5893,11 @@
       <c r="P97" s="19">
         <v>0.44287837729362561</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" ht="15" customHeight="1">
+      <c r="Q97" s="19">
+        <v>0.40901133779428367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="15" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>29</v>
       </c>
@@ -5678,8 +5946,11 @@
       <c r="P98" s="21">
         <v>0.79380379438213722</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" ht="15" customHeight="1">
+      <c r="Q98" s="21">
+        <v>0.72537356738720449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="15" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>31</v>
       </c>
@@ -5728,8 +5999,11 @@
       <c r="P99" s="21">
         <v>0.10816248167997966</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" ht="15" customHeight="1">
+      <c r="Q99" s="21">
+        <v>0.10665529010238908</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="14.25" customHeight="1">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -5745,7 +6019,7 @@
       <c r="M100" s="21"/>
       <c r="N100" s="21"/>
     </row>
-    <row r="101" spans="1:16" ht="25.5" customHeight="1">
+    <row r="101" spans="1:17" ht="25.5" customHeight="1">
       <c r="A101" s="23" t="s">
         <v>25</v>
       </c>
@@ -5767,7 +6041,7 @@
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
     </row>
-    <row r="102" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="17" t="s">
         <v>27</v>
       </c>
@@ -5816,8 +6090,11 @@
       <c r="P102" s="19">
         <v>38.882628854480011</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" ht="15" customHeight="1">
+      <c r="Q102" s="19">
+        <v>38.069453539628391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="15" customHeight="1">
       <c r="A103" s="20" t="s">
         <v>29</v>
       </c>
@@ -5866,8 +6143,11 @@
       <c r="P103" s="21">
         <v>75.610886033533376</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" ht="15" customHeight="1">
+      <c r="Q103" s="21">
+        <v>74.108153140270815</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="15" customHeight="1">
       <c r="A104" s="20" t="s">
         <v>31</v>
       </c>
@@ -5916,8 +6196,11 @@
       <c r="P104" s="21">
         <v>1.3418391183743461</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q104" s="21">
+        <v>1.2560420562396359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="17" t="s">
         <v>33</v>
       </c>
@@ -5966,8 +6249,11 @@
       <c r="P105" s="19">
         <v>54.80838958973407</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" ht="15" customHeight="1">
+      <c r="Q105" s="19">
+        <v>52.985967546737704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="15" customHeight="1">
       <c r="A106" s="20" t="s">
         <v>29</v>
       </c>
@@ -6016,8 +6302,11 @@
       <c r="P106" s="21">
         <v>109.3799209463787</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" ht="15" customHeight="1">
+      <c r="Q106" s="21">
+        <v>105.74526139881912</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15" customHeight="1">
       <c r="A107" s="20" t="s">
         <v>31</v>
       </c>
@@ -6066,8 +6355,11 @@
       <c r="P107" s="21">
         <v>1.3180485943705449</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q107" s="21">
+        <v>1.3901462366028894</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="17" t="s">
         <v>35</v>
       </c>
@@ -6116,8 +6408,11 @@
       <c r="P108" s="19">
         <v>37.391104700432571</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" ht="15" customHeight="1">
+      <c r="Q108" s="19">
+        <v>36.561237452660912</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="15" customHeight="1">
       <c r="A109" s="20" t="s">
         <v>29</v>
       </c>
@@ -6166,8 +6461,11 @@
       <c r="P109" s="21">
         <v>74.214834678205392</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" ht="15" customHeight="1">
+      <c r="Q109" s="21">
+        <v>72.768441983486525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="15" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>31</v>
       </c>
@@ -6216,8 +6514,11 @@
       <c r="P110" s="21">
         <v>1.0158903444929646</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q110" s="21">
+        <v>0.84757860176296351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="17" t="s">
         <v>37</v>
       </c>
@@ -6266,8 +6567,11 @@
       <c r="P111" s="19">
         <v>32.78329222265149</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" ht="15" customHeight="1">
+      <c r="Q111" s="19">
+        <v>32.680338890889182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="15" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>29</v>
       </c>
@@ -6316,8 +6620,11 @@
       <c r="P112" s="21">
         <v>64.26706618803216</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" ht="15" customHeight="1">
+      <c r="Q112" s="21">
+        <v>64.20056152523189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="15" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>31</v>
       </c>
@@ -6366,8 +6673,11 @@
       <c r="P113" s="21">
         <v>1.1907951534637253</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q113" s="21">
+        <v>1.1753989010020276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="17" t="s">
         <v>39</v>
       </c>
@@ -6416,8 +6726,11 @@
       <c r="P114" s="19">
         <v>37.619832137714532</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" ht="15" customHeight="1">
+      <c r="Q114" s="19">
+        <v>37.395695809887584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="15" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>29</v>
       </c>
@@ -6466,8 +6779,11 @@
       <c r="P115" s="21">
         <v>74.758394758394758</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" ht="15" customHeight="1">
+      <c r="Q115" s="21">
+        <v>74.432186891628817</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="15" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>31</v>
       </c>
@@ -6516,8 +6832,11 @@
       <c r="P116" s="21">
         <v>1.2201152045619466</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q116" s="21">
+        <v>1.2660792059151222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="17" t="s">
         <v>42</v>
       </c>
@@ -6566,8 +6885,11 @@
       <c r="P117" s="19">
         <v>38.742146977763326</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" ht="15" customHeight="1">
+      <c r="Q117" s="19">
+        <v>38.736851147676525</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="15" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>29</v>
       </c>
@@ -6616,8 +6938,11 @@
       <c r="P118" s="21">
         <v>76.276504051025682</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" ht="15" customHeight="1">
+      <c r="Q118" s="21">
+        <v>76.372231083836283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="15" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>31</v>
       </c>
@@ -6666,8 +6991,11 @@
       <c r="P119" s="21">
         <v>1.7271861825105399</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q119" s="21">
+        <v>1.6912789931163612</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="17" t="s">
         <v>45</v>
       </c>
@@ -6716,8 +7044,11 @@
       <c r="P120" s="19">
         <v>35.794068933746239</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" ht="15" customHeight="1">
+      <c r="Q120" s="19">
+        <v>35.288514274167945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="15" customHeight="1">
       <c r="A121" s="20" t="s">
         <v>29</v>
       </c>
@@ -6766,8 +7097,11 @@
       <c r="P121" s="21">
         <v>71.262587141750586</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" ht="15" customHeight="1">
+      <c r="Q121" s="21">
+        <v>70.475399202687839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="15" customHeight="1">
       <c r="A122" s="20" t="s">
         <v>31</v>
       </c>
@@ -6816,8 +7150,11 @@
       <c r="P122" s="21">
         <v>0.94234309987387099</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q122" s="21">
+        <v>0.78609048616123434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="17" t="s">
         <v>48</v>
       </c>
@@ -6866,8 +7203,11 @@
       <c r="P123" s="19">
         <v>23.804577889814002</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" ht="15" customHeight="1">
+      <c r="Q123" s="19">
+        <v>23.112835168313332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="15" customHeight="1">
       <c r="A124" s="20" t="s">
         <v>29</v>
       </c>
@@ -6916,8 +7256,11 @@
       <c r="P124" s="21">
         <v>46.61068176956914</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" ht="15" customHeight="1">
+      <c r="Q124" s="21">
+        <v>45.264916764472524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="15" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>31</v>
       </c>
@@ -6966,8 +7309,11 @@
       <c r="P125" s="21">
         <v>0.71555407423308603</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q125" s="21">
+        <v>0.6668642560758743</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="17" t="s">
         <v>51</v>
       </c>
@@ -7016,8 +7362,11 @@
       <c r="P126" s="19">
         <v>27.099395307079902</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" ht="15" customHeight="1">
+      <c r="Q126" s="19">
+        <v>25.980332853709623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="15" customHeight="1">
       <c r="A127" s="20" t="s">
         <v>29</v>
       </c>
@@ -7066,8 +7415,11 @@
       <c r="P127" s="21">
         <v>48.479816044966789</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" ht="15" customHeight="1">
+      <c r="Q127" s="21">
+        <v>46.469813415946334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="15" customHeight="1">
       <c r="A128" s="20" t="s">
         <v>31</v>
       </c>
@@ -7116,8 +7468,11 @@
       <c r="P128" s="21">
         <v>1.2914318316743894</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q128" s="21">
+        <v>1.1574557225749404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="17" t="s">
         <v>54</v>
       </c>
@@ -7166,8 +7521,11 @@
       <c r="P129" s="19">
         <v>37.063384199760293</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" ht="15" customHeight="1">
+      <c r="Q129" s="19">
+        <v>34.984103092671063</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="15" customHeight="1">
       <c r="A130" s="20" t="s">
         <v>29</v>
       </c>
@@ -7216,8 +7574,11 @@
       <c r="P130" s="21">
         <v>75.127859111166558</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="Q130" s="21">
+        <v>70.863417737057659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A131" s="25" t="s">
         <v>31</v>
       </c>
@@ -7266,9 +7627,12 @@
       <c r="P131" s="26">
         <v>0.75713737175985762</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" ht="15" customHeight="1"/>
-    <row r="133" spans="1:16" ht="15" customHeight="1"/>
+      <c r="Q131" s="26">
+        <v>0.69325938566552903</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="15" customHeight="1"/>
+    <row r="133" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
